--- a/documents/2.0.0/S-98 Comments June 2025.xlsx
+++ b/documents/2.0.0/S-98 Comments June 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kusal\98-interoperability\documents\2.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2609F63B-3388-4D28-9777-5C5AA4AE841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D698E775-9C58-4F18-8F5B-169210FBDDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-69228" yWindow="60" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-66048" yWindow="1236" windowWidth="40296" windowHeight="20724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Comments 11032025" sheetId="1" r:id="rId1"/>
@@ -21216,14 +21216,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I120" sqref="A1:AB1000"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="12.45"/>
@@ -21296,7 +21296,7 @@
       <c r="AA1" s="183"/>
       <c r="AB1" s="183"/>
     </row>
-    <row r="2" spans="1:28" ht="32.15">
+    <row r="2" spans="1:28" ht="32.15" hidden="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="str">
         <f>IF(ISNUMBER(SEARCH("DONE",K2)),"DONE","")</f>
@@ -21333,7 +21333,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:28" ht="30.9">
+    <row r="3" spans="1:28" ht="30.9" hidden="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B66" si="0">IF(ISNUMBER(SEARCH("DONE",K3)),"DONE","")</f>
@@ -21370,7 +21370,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:28" ht="41.15">
+    <row r="4" spans="1:28" ht="41.15" hidden="1">
       <c r="A4" s="22"/>
       <c r="B4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -21450,7 +21450,7 @@
       </c>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" hidden="1">
       <c r="A6" s="27" t="s">
         <v>922</v>
       </c>
@@ -21489,7 +21489,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:28" ht="14.15">
+    <row r="7" spans="1:28" ht="14.15" hidden="1">
       <c r="A7" s="27" t="s">
         <v>922</v>
       </c>
@@ -21526,7 +21526,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:28" ht="41.15">
+    <row r="8" spans="1:28" ht="41.15" hidden="1">
       <c r="A8" s="27" t="s">
         <v>922</v>
       </c>
@@ -21565,7 +21565,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:28" ht="20.6">
+    <row r="9" spans="1:28" ht="20.6" hidden="1">
       <c r="A9" s="22"/>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -21600,7 +21600,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:28" ht="37.299999999999997">
+    <row r="10" spans="1:28" ht="37.299999999999997" hidden="1">
       <c r="A10" s="31"/>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -21639,7 +21639,7 @@
       </c>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" hidden="1">
       <c r="A11" s="27"/>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -21676,7 +21676,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" hidden="1">
       <c r="A12" s="27" t="s">
         <v>922</v>
       </c>
@@ -21715,7 +21715,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:28" ht="46.3">
+    <row r="13" spans="1:28" ht="46.3" hidden="1">
       <c r="A13" s="31"/>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" ht="69.45">
+    <row r="17" spans="1:14" ht="69.45" hidden="1">
       <c r="A17" s="31"/>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -21916,7 +21916,7 @@
       </c>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="14.15">
+    <row r="18" spans="1:14" ht="14.15" hidden="1">
       <c r="A18" s="4" t="s">
         <v>922</v>
       </c>
@@ -21955,7 +21955,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" ht="41.15">
+    <row r="19" spans="1:14" ht="41.15" hidden="1">
       <c r="A19" s="4" t="s">
         <v>922</v>
       </c>
@@ -21996,7 +21996,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="21.45">
+    <row r="20" spans="1:14" ht="21.45" hidden="1">
       <c r="A20" s="27" t="s">
         <v>922</v>
       </c>
@@ -22031,7 +22031,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21" s="27" t="s">
         <v>922</v>
       </c>
@@ -22068,7 +22068,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" ht="23.15">
+    <row r="22" spans="1:14" ht="23.15" hidden="1">
       <c r="A22" s="31"/>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22107,7 +22107,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30.9">
+    <row r="23" spans="1:14" ht="30.9" hidden="1">
       <c r="A23" s="27" t="s">
         <v>674</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="21.45">
+    <row r="24" spans="1:14" ht="21.45" hidden="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22185,7 +22185,7 @@
       <c r="M24" s="13"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" ht="23.15">
+    <row r="25" spans="1:14" ht="23.15" hidden="1">
       <c r="A25" s="31"/>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22224,7 +22224,7 @@
       </c>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:14" ht="41.15">
+    <row r="26" spans="1:14" ht="41.15" hidden="1">
       <c r="A26" s="27" t="s">
         <v>922</v>
       </c>
@@ -22263,7 +22263,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:14" ht="46.3">
+    <row r="27" spans="1:14" ht="46.3" hidden="1">
       <c r="A27" s="31"/>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22304,7 +22304,7 @@
       </c>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" ht="92.6">
+    <row r="28" spans="1:14" ht="92.6" hidden="1">
       <c r="A28" s="31"/>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" ht="92.6">
+    <row r="29" spans="1:14" ht="92.6" hidden="1">
       <c r="A29" s="31"/>
       <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22384,7 +22384,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" ht="20.6">
+    <row r="30" spans="1:14" ht="20.6" hidden="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22425,7 +22425,7 @@
       </c>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" ht="69.45">
+    <row r="31" spans="1:14" ht="69.45" hidden="1">
       <c r="A31" s="31"/>
       <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22464,7 +22464,7 @@
       </c>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" ht="23.15">
+    <row r="32" spans="1:14" ht="23.15" hidden="1">
       <c r="A32" s="31"/>
       <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22505,7 +22505,7 @@
       </c>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:14" ht="14.15">
+    <row r="33" spans="1:14" ht="14.15" hidden="1">
       <c r="A33" s="27"/>
       <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22540,7 +22540,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" hidden="1">
       <c r="A34" s="31"/>
       <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22577,7 +22577,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="1:14" ht="113.15">
+    <row r="35" spans="1:14" ht="113.15" hidden="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22620,7 +22620,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="21.45">
+    <row r="36" spans="1:14" ht="21.45" hidden="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22655,7 +22655,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="1:14" ht="185.15">
+    <row r="37" spans="1:14" ht="185.15" hidden="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22694,7 +22694,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="21.45">
+    <row r="38" spans="1:14" ht="21.45" hidden="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22731,7 +22731,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="1:14" ht="32.15">
+    <row r="39" spans="1:14" ht="32.15" hidden="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22768,7 +22768,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="1:14" ht="51.45">
+    <row r="40" spans="1:14" ht="51.45" hidden="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22807,7 +22807,7 @@
       </c>
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="1:14" ht="23.15">
+    <row r="41" spans="1:14" ht="23.15" hidden="1">
       <c r="A41" s="31"/>
       <c r="B41" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22848,7 +22848,7 @@
       </c>
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="1:14" ht="85.75">
+    <row r="42" spans="1:14" ht="85.75" hidden="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22885,7 +22885,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="14"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" hidden="1">
       <c r="A43" s="31"/>
       <c r="B43" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22922,7 +22922,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="14"/>
     </row>
-    <row r="44" spans="1:14" ht="57.9">
+    <row r="44" spans="1:14" ht="57.9" hidden="1">
       <c r="A44" s="31"/>
       <c r="B44" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22965,7 +22965,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="42.9">
+    <row r="45" spans="1:14" ht="42.9" hidden="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23002,7 +23002,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="14"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" hidden="1">
       <c r="A46" s="31"/>
       <c r="B46" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23037,7 +23037,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="14"/>
     </row>
-    <row r="47" spans="1:14" ht="41.15">
+    <row r="47" spans="1:14" ht="41.15" hidden="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23115,7 +23115,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="1:14" ht="23.15">
+    <row r="49" spans="1:14" ht="23.15" hidden="1">
       <c r="A49" s="31"/>
       <c r="B49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23193,7 +23193,7 @@
       </c>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="1:14" ht="72">
+    <row r="51" spans="1:14" ht="72" hidden="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23236,7 +23236,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="34.75">
+    <row r="52" spans="1:14" ht="34.75" hidden="1">
       <c r="A52" s="31"/>
       <c r="B52" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23277,7 +23277,7 @@
       </c>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="1:14" ht="34.75">
+    <row r="53" spans="1:14" ht="34.75" hidden="1">
       <c r="A53" s="31"/>
       <c r="B53" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23314,7 +23314,7 @@
       <c r="M53" s="13"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="1:14" ht="23.15">
+    <row r="54" spans="1:14" ht="23.15" hidden="1">
       <c r="A54" s="31"/>
       <c r="B54" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23353,7 +23353,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="14"/>
     </row>
-    <row r="55" spans="1:14" ht="30.9">
+    <row r="55" spans="1:14" ht="30.9" hidden="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23392,7 +23392,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="53.6">
+    <row r="56" spans="1:14" ht="53.6" hidden="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23429,7 +23429,7 @@
       <c r="M56" s="13"/>
       <c r="N56" s="14"/>
     </row>
-    <row r="57" spans="1:14" ht="53.6">
+    <row r="57" spans="1:14" ht="53.6" hidden="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23466,7 +23466,7 @@
       <c r="M57" s="13"/>
       <c r="N57" s="14"/>
     </row>
-    <row r="58" spans="1:14" ht="82.3">
+    <row r="58" spans="1:14" ht="82.3" hidden="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23509,7 +23509,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="20.6">
+    <row r="59" spans="1:14" ht="20.6" hidden="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23552,7 +23552,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="41.15">
+    <row r="60" spans="1:14" ht="41.15" hidden="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23636,7 +23636,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30.9">
+    <row r="62" spans="1:14" ht="30.9" hidden="1">
       <c r="A62" s="22"/>
       <c r="B62" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23677,7 +23677,7 @@
       </c>
       <c r="N62" s="14"/>
     </row>
-    <row r="63" spans="1:14" ht="30.9">
+    <row r="63" spans="1:14" ht="30.9" hidden="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23798,7 +23798,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="34.75">
+    <row r="66" spans="1:14" ht="34.75" hidden="1">
       <c r="A66" s="31"/>
       <c r="B66" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23837,7 +23837,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="42.9">
+    <row r="67" spans="1:14" ht="42.9" hidden="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="str">
         <f t="shared" ref="B67:B130" si="1">IF(ISNUMBER(SEARCH("DONE",K67)),"DONE","")</f>
@@ -23954,7 +23954,7 @@
       </c>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="1:14" ht="30.9">
+    <row r="70" spans="1:14" ht="30.9" hidden="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24032,7 +24032,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="41.15">
+    <row r="72" spans="1:14" ht="41.15" hidden="1">
       <c r="A72" s="22"/>
       <c r="B72" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24112,7 +24112,7 @@
       </c>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="1:14" ht="21.45">
+    <row r="74" spans="1:14" ht="21.45" hidden="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24149,7 +24149,7 @@
       <c r="M74" s="13"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="1:14" ht="41.15">
+    <row r="75" spans="1:14" ht="41.15" hidden="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24190,7 +24190,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="41.15">
+    <row r="76" spans="1:14" ht="41.15" hidden="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24231,7 +24231,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" hidden="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24268,7 +24268,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="14"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" hidden="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24346,7 +24346,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="30.9">
+    <row r="80" spans="1:14" ht="30.9" hidden="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24385,7 +24385,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" hidden="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24465,7 +24465,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="20.6">
+    <row r="83" spans="1:14" ht="20.6" hidden="1">
       <c r="A83" s="22"/>
       <c r="B83" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24502,7 +24502,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="32.15">
+    <row r="84" spans="1:14" ht="32.15" hidden="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24539,7 +24539,7 @@
       <c r="M84" s="13"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="1:14" ht="20.6">
+    <row r="85" spans="1:14" ht="20.6" hidden="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24578,7 +24578,7 @@
       </c>
       <c r="N85" s="14"/>
     </row>
-    <row r="86" spans="1:14" ht="81">
+    <row r="86" spans="1:14" ht="81" hidden="1">
       <c r="A86" s="31"/>
       <c r="B86" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24615,7 +24615,7 @@
       </c>
       <c r="N86" s="14"/>
     </row>
-    <row r="87" spans="1:14" ht="41.15">
+    <row r="87" spans="1:14" ht="41.15" hidden="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24656,7 +24656,7 @@
       </c>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="1:14" ht="32.15">
+    <row r="88" spans="1:14" ht="32.15" hidden="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24693,7 +24693,7 @@
       <c r="M88" s="13"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="1:14" ht="20.6">
+    <row r="89" spans="1:14" ht="20.6" hidden="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24728,7 +24728,7 @@
       <c r="M89" s="13"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="1:14" ht="32.15">
+    <row r="90" spans="1:14" ht="32.15" hidden="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24765,7 +24765,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="14"/>
     </row>
-    <row r="91" spans="1:14" ht="20.6">
+    <row r="91" spans="1:14" ht="20.6" hidden="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24804,7 +24804,7 @@
       </c>
       <c r="N91" s="14"/>
     </row>
-    <row r="92" spans="1:14" ht="46.3">
+    <row r="92" spans="1:14" ht="46.3" hidden="1">
       <c r="A92" s="31"/>
       <c r="B92" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24845,7 +24845,7 @@
       </c>
       <c r="N92" s="14"/>
     </row>
-    <row r="93" spans="1:14" ht="69.45">
+    <row r="93" spans="1:14" ht="69.45" hidden="1">
       <c r="A93" s="31"/>
       <c r="B93" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24884,7 +24884,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="14"/>
     </row>
-    <row r="94" spans="1:14" ht="69.45">
+    <row r="94" spans="1:14" ht="69.45" hidden="1">
       <c r="A94" s="31"/>
       <c r="B94" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="N94" s="14"/>
     </row>
-    <row r="95" spans="1:14" ht="23.15">
+    <row r="95" spans="1:14" ht="23.15" hidden="1">
       <c r="A95" s="31"/>
       <c r="B95" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24962,7 +24962,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="14"/>
     </row>
-    <row r="96" spans="1:14" ht="69.45">
+    <row r="96" spans="1:14" ht="69.45" hidden="1">
       <c r="A96" s="31"/>
       <c r="B96" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24999,7 +24999,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="14"/>
     </row>
-    <row r="97" spans="1:14" ht="41.15">
+    <row r="97" spans="1:14" ht="41.15" hidden="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25079,7 +25079,7 @@
       </c>
       <c r="N98" s="14"/>
     </row>
-    <row r="99" spans="1:14" ht="21.45">
+    <row r="99" spans="1:14" ht="21.45" hidden="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25114,7 +25114,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="14"/>
     </row>
-    <row r="100" spans="1:14" ht="20.6">
+    <row r="100" spans="1:14" ht="20.6" hidden="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25192,7 +25192,7 @@
       </c>
       <c r="N101" s="14"/>
     </row>
-    <row r="102" spans="1:14" ht="20.6">
+    <row r="102" spans="1:14" ht="20.6" hidden="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25268,7 +25268,7 @@
       </c>
       <c r="N103" s="14"/>
     </row>
-    <row r="104" spans="1:14" ht="21.45">
+    <row r="104" spans="1:14" ht="21.45" hidden="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25305,7 +25305,7 @@
       <c r="M104" s="13"/>
       <c r="N104" s="14"/>
     </row>
-    <row r="105" spans="1:14" ht="30.9">
+    <row r="105" spans="1:14" ht="30.9" hidden="1">
       <c r="A105" s="22"/>
       <c r="B105" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25340,7 +25340,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="14"/>
     </row>
-    <row r="106" spans="1:14" ht="32.15">
+    <row r="106" spans="1:14" ht="32.15" hidden="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25377,7 +25377,7 @@
       <c r="M106" s="13"/>
       <c r="N106" s="14"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" hidden="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25414,7 +25414,7 @@
       <c r="M107" s="13"/>
       <c r="N107" s="14"/>
     </row>
-    <row r="108" spans="1:14" ht="41.15">
+    <row r="108" spans="1:14" ht="41.15" hidden="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25451,7 +25451,7 @@
       <c r="M108" s="13"/>
       <c r="N108" s="14"/>
     </row>
-    <row r="109" spans="1:14" ht="30.9">
+    <row r="109" spans="1:14" ht="30.9" hidden="1">
       <c r="A109" s="27"/>
       <c r="B109" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25486,7 +25486,7 @@
       <c r="M109" s="13"/>
       <c r="N109" s="14"/>
     </row>
-    <row r="110" spans="1:14" ht="34.75">
+    <row r="110" spans="1:14" ht="34.75" hidden="1">
       <c r="A110" s="31"/>
       <c r="B110" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25525,7 +25525,7 @@
       <c r="M110" s="13"/>
       <c r="N110" s="14"/>
     </row>
-    <row r="111" spans="1:14" ht="69.45">
+    <row r="111" spans="1:14" ht="69.45" hidden="1">
       <c r="A111" s="31"/>
       <c r="B111" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25564,7 +25564,7 @@
       <c r="M111" s="13"/>
       <c r="N111" s="14"/>
     </row>
-    <row r="112" spans="1:14" ht="30.9">
+    <row r="112" spans="1:14" ht="30.9" hidden="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25638,7 +25638,7 @@
       </c>
       <c r="N113" s="14"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" hidden="1">
       <c r="A114" s="31"/>
       <c r="B114" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25675,7 +25675,7 @@
       <c r="M114" s="13"/>
       <c r="N114" s="14"/>
     </row>
-    <row r="115" spans="1:14" ht="21.45">
+    <row r="115" spans="1:14" ht="21.45" hidden="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25712,7 +25712,7 @@
       <c r="M115" s="13"/>
       <c r="N115" s="14"/>
     </row>
-    <row r="116" spans="1:14" ht="30.9">
+    <row r="116" spans="1:14" ht="30.9" hidden="1">
       <c r="A116" s="27" t="s">
         <v>922</v>
       </c>
@@ -25751,7 +25751,7 @@
       <c r="M116" s="13"/>
       <c r="N116" s="14"/>
     </row>
-    <row r="117" spans="1:14" ht="23.15">
+    <row r="117" spans="1:14" ht="23.15" hidden="1">
       <c r="A117" s="31"/>
       <c r="B117" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25786,7 +25786,7 @@
       <c r="M117" s="13"/>
       <c r="N117" s="14"/>
     </row>
-    <row r="118" spans="1:14" ht="21.45">
+    <row r="118" spans="1:14" ht="21.45" hidden="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25821,7 +25821,7 @@
       <c r="M118" s="13"/>
       <c r="N118" s="14"/>
     </row>
-    <row r="119" spans="1:14" ht="46.3">
+    <row r="119" spans="1:14" ht="46.3" hidden="1">
       <c r="A119" s="31"/>
       <c r="B119" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25899,7 +25899,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="144">
+    <row r="121" spans="1:14" ht="144" hidden="1">
       <c r="A121" s="22"/>
       <c r="B121" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25940,7 +25940,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="21.45">
+    <row r="122" spans="1:14" ht="21.45" hidden="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25977,7 +25977,7 @@
       <c r="M122" s="13"/>
       <c r="N122" s="14"/>
     </row>
-    <row r="123" spans="1:14" ht="14.15">
+    <row r="123" spans="1:14" ht="14.15" hidden="1">
       <c r="A123" s="22"/>
       <c r="B123" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26012,7 +26012,7 @@
       <c r="M123" s="13"/>
       <c r="N123" s="14"/>
     </row>
-    <row r="124" spans="1:14" ht="41.15">
+    <row r="124" spans="1:14" ht="41.15" hidden="1">
       <c r="A124" s="22"/>
       <c r="B124" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26051,7 +26051,7 @@
       </c>
       <c r="N124" s="14"/>
     </row>
-    <row r="125" spans="1:14" ht="23.15">
+    <row r="125" spans="1:14" ht="23.15" hidden="1">
       <c r="A125" s="31"/>
       <c r="B125" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26168,7 +26168,7 @@
       <c r="M127" s="13"/>
       <c r="N127" s="14"/>
     </row>
-    <row r="128" spans="1:14" ht="20.6">
+    <row r="128" spans="1:14" ht="20.6" hidden="1">
       <c r="A128" s="27" t="s">
         <v>922</v>
       </c>
@@ -26248,7 +26248,7 @@
       </c>
       <c r="N129" s="14"/>
     </row>
-    <row r="130" spans="1:14" ht="82.3">
+    <row r="130" spans="1:14" ht="82.3" hidden="1">
       <c r="A130" s="27" t="s">
         <v>1095</v>
       </c>
@@ -26289,7 +26289,7 @@
       </c>
       <c r="N130" s="14"/>
     </row>
-    <row r="131" spans="1:14" ht="51.45">
+    <row r="131" spans="1:14" ht="51.45" hidden="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="str">
         <f t="shared" ref="B131:B194" si="2">IF(ISNUMBER(SEARCH("DONE",K131)),"DONE","")</f>
@@ -26328,7 +26328,7 @@
       <c r="M131" s="13"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="1:14" ht="51.45">
+    <row r="132" spans="1:14" ht="51.45" hidden="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26367,7 +26367,7 @@
       <c r="M132" s="13"/>
       <c r="N132" s="14"/>
     </row>
-    <row r="133" spans="1:14" ht="30.9">
+    <row r="133" spans="1:14" ht="30.9" hidden="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26408,7 +26408,7 @@
       </c>
       <c r="N133" s="14"/>
     </row>
-    <row r="134" spans="1:14" ht="20.6">
+    <row r="134" spans="1:14" ht="20.6" hidden="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26447,7 +26447,7 @@
       </c>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="1:14" ht="30.9">
+    <row r="135" spans="1:14" ht="30.9" hidden="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26486,7 +26486,7 @@
       </c>
       <c r="N135" s="14"/>
     </row>
-    <row r="136" spans="1:14" ht="14.15">
+    <row r="136" spans="1:14" ht="14.15" hidden="1">
       <c r="A136" s="27"/>
       <c r="B136" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26521,7 +26521,7 @@
       <c r="M136" s="13"/>
       <c r="N136" s="14"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" hidden="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26558,7 +26558,7 @@
       <c r="M137" s="13"/>
       <c r="N137" s="14"/>
     </row>
-    <row r="138" spans="1:14" ht="41.15">
+    <row r="138" spans="1:14" ht="41.15" hidden="1">
       <c r="A138" s="22"/>
       <c r="B138" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26593,7 +26593,7 @@
       <c r="M138" s="13"/>
       <c r="N138" s="14"/>
     </row>
-    <row r="139" spans="1:14" ht="41.15">
+    <row r="139" spans="1:14" ht="41.15" hidden="1">
       <c r="A139" s="22"/>
       <c r="B139" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26628,7 +26628,7 @@
       <c r="M139" s="13"/>
       <c r="N139" s="14"/>
     </row>
-    <row r="140" spans="1:14" ht="75">
+    <row r="140" spans="1:14" ht="75" hidden="1">
       <c r="A140" s="22"/>
       <c r="B140" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26661,7 +26661,7 @@
       <c r="M140" s="13"/>
       <c r="N140" s="14"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" hidden="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26700,7 +26700,7 @@
       <c r="M141" s="13"/>
       <c r="N141" s="14"/>
     </row>
-    <row r="142" spans="1:14" ht="21.45">
+    <row r="142" spans="1:14" ht="21.45" hidden="1">
       <c r="A142" s="22"/>
       <c r="B142" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26739,7 +26739,7 @@
       </c>
       <c r="N142" s="14"/>
     </row>
-    <row r="143" spans="1:14" ht="57.9">
+    <row r="143" spans="1:14" ht="57.9" hidden="1">
       <c r="A143" s="31"/>
       <c r="B143" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26778,7 +26778,7 @@
       </c>
       <c r="N143" s="14"/>
     </row>
-    <row r="144" spans="1:14" ht="51.45">
+    <row r="144" spans="1:14" ht="51.45" hidden="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26858,7 +26858,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="113.15">
+    <row r="146" spans="1:14" ht="113.15" hidden="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26899,7 +26899,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="41.15">
+    <row r="147" spans="1:14" ht="41.15" hidden="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26940,7 +26940,7 @@
       </c>
       <c r="N147" s="14"/>
     </row>
-    <row r="148" spans="1:14" ht="34.75">
+    <row r="148" spans="1:14" ht="34.75" hidden="1">
       <c r="A148" s="31"/>
       <c r="B148" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26981,7 +26981,7 @@
       </c>
       <c r="N148" s="14"/>
     </row>
-    <row r="149" spans="1:14" ht="51.45">
+    <row r="149" spans="1:14" ht="51.45" hidden="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27018,7 +27018,7 @@
       <c r="M149" s="13"/>
       <c r="N149" s="14"/>
     </row>
-    <row r="150" spans="1:14" ht="61.75">
+    <row r="150" spans="1:14" ht="61.75" hidden="1">
       <c r="A150" s="22"/>
       <c r="B150" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27096,7 +27096,7 @@
       </c>
       <c r="N151" s="14"/>
     </row>
-    <row r="152" spans="1:14" ht="21.45">
+    <row r="152" spans="1:14" ht="21.45" hidden="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27133,7 +27133,7 @@
       <c r="M152" s="13"/>
       <c r="N152" s="14"/>
     </row>
-    <row r="153" spans="1:14" ht="21.45">
+    <row r="153" spans="1:14" ht="21.45" hidden="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27170,7 +27170,7 @@
       <c r="M153" s="13"/>
       <c r="N153" s="14"/>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" hidden="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27207,7 +27207,7 @@
       <c r="M154" s="13"/>
       <c r="N154" s="14"/>
     </row>
-    <row r="155" spans="1:14" ht="21.45">
+    <row r="155" spans="1:14" ht="21.45" hidden="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27244,7 +27244,7 @@
       <c r="M155" s="13"/>
       <c r="N155" s="14"/>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" hidden="1">
       <c r="A156" s="27"/>
       <c r="B156" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27281,7 +27281,7 @@
       <c r="M156" s="13"/>
       <c r="N156" s="14"/>
     </row>
-    <row r="157" spans="1:14" ht="32.15">
+    <row r="157" spans="1:14" ht="32.15" hidden="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27318,7 +27318,7 @@
       <c r="M157" s="13"/>
       <c r="N157" s="14"/>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" hidden="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27353,7 +27353,7 @@
       <c r="M158" s="13"/>
       <c r="N158" s="14"/>
     </row>
-    <row r="159" spans="1:14" ht="21.45">
+    <row r="159" spans="1:14" ht="21.45" hidden="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27390,7 +27390,7 @@
       <c r="M159" s="13"/>
       <c r="N159" s="14"/>
     </row>
-    <row r="160" spans="1:14" ht="32.15">
+    <row r="160" spans="1:14" ht="32.15" hidden="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27427,7 +27427,7 @@
       <c r="M160" s="13"/>
       <c r="N160" s="14"/>
     </row>
-    <row r="161" spans="1:14" ht="20.6">
+    <row r="161" spans="1:14" ht="20.6" hidden="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27468,7 +27468,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" hidden="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27505,7 +27505,7 @@
       <c r="M162" s="13"/>
       <c r="N162" s="14"/>
     </row>
-    <row r="163" spans="1:14" ht="41.15">
+    <row r="163" spans="1:14" ht="41.15" hidden="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27548,7 +27548,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" hidden="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27589,7 +27589,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="20.6">
+    <row r="165" spans="1:14" ht="20.6" hidden="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27632,7 +27632,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" hidden="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27708,7 +27708,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" hidden="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27741,7 +27741,7 @@
       <c r="M168" s="13"/>
       <c r="N168" s="14"/>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" hidden="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27776,7 +27776,7 @@
       <c r="M169" s="13"/>
       <c r="N169" s="14"/>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" hidden="1">
       <c r="A170" s="31"/>
       <c r="B170" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27813,7 +27813,7 @@
       <c r="M170" s="13"/>
       <c r="N170" s="14"/>
     </row>
-    <row r="171" spans="1:14" ht="34.75">
+    <row r="171" spans="1:14" ht="34.75" hidden="1">
       <c r="A171" s="31"/>
       <c r="B171" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27850,7 +27850,7 @@
       <c r="M171" s="13"/>
       <c r="N171" s="14"/>
     </row>
-    <row r="172" spans="1:14" ht="42.9">
+    <row r="172" spans="1:14" ht="42.9" hidden="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27926,7 +27926,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="30.9">
+    <row r="174" spans="1:14" ht="30.9" hidden="1">
       <c r="A174" s="22"/>
       <c r="B174" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27963,7 +27963,7 @@
       <c r="M174" s="13"/>
       <c r="N174" s="14"/>
     </row>
-    <row r="175" spans="1:14" ht="20.6">
+    <row r="175" spans="1:14" ht="20.6" hidden="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28000,7 +28000,7 @@
       <c r="M175" s="13"/>
       <c r="N175" s="14"/>
     </row>
-    <row r="176" spans="1:14" ht="21.45">
+    <row r="176" spans="1:14" ht="21.45" hidden="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28037,7 +28037,7 @@
       <c r="M176" s="13"/>
       <c r="N176" s="14"/>
     </row>
-    <row r="177" spans="1:14" ht="30.9">
+    <row r="177" spans="1:14" ht="30.9" hidden="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28072,7 +28072,7 @@
       <c r="M177" s="13"/>
       <c r="N177" s="14"/>
     </row>
-    <row r="178" spans="1:14" ht="20.6">
+    <row r="178" spans="1:14" ht="20.6" hidden="1">
       <c r="A178" s="22"/>
       <c r="B178" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28144,7 +28144,7 @@
       </c>
       <c r="N179" s="14"/>
     </row>
-    <row r="180" spans="1:14" ht="21.45">
+    <row r="180" spans="1:14" ht="21.45" hidden="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28181,7 +28181,7 @@
       <c r="M180" s="13"/>
       <c r="N180" s="14"/>
     </row>
-    <row r="181" spans="1:14" ht="72">
+    <row r="181" spans="1:14" ht="72" hidden="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28218,7 +28218,7 @@
       <c r="M181" s="13"/>
       <c r="N181" s="14"/>
     </row>
-    <row r="182" spans="1:14" ht="30.9">
+    <row r="182" spans="1:14" ht="30.9" hidden="1">
       <c r="A182" s="22"/>
       <c r="B182" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28255,7 +28255,7 @@
       <c r="M182" s="13"/>
       <c r="N182" s="14"/>
     </row>
-    <row r="183" spans="1:14" ht="85.75">
+    <row r="183" spans="1:14" ht="85.75" hidden="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28290,7 +28290,7 @@
       <c r="M183" s="13"/>
       <c r="N183" s="14"/>
     </row>
-    <row r="184" spans="1:14" ht="246.45">
+    <row r="184" spans="1:14" ht="246.45" hidden="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28329,7 +28329,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="51.45">
+    <row r="185" spans="1:14" ht="51.45" hidden="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28368,7 +28368,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" hidden="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28405,7 +28405,7 @@
       <c r="M186" s="13"/>
       <c r="N186" s="14"/>
     </row>
-    <row r="187" spans="1:14" ht="21.45">
+    <row r="187" spans="1:14" ht="21.45" hidden="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28442,7 +28442,7 @@
       <c r="M187" s="13"/>
       <c r="N187" s="14"/>
     </row>
-    <row r="188" spans="1:14" ht="20.6">
+    <row r="188" spans="1:14" ht="20.6" hidden="1">
       <c r="A188" s="22"/>
       <c r="B188" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28477,7 +28477,7 @@
       <c r="M188" s="13"/>
       <c r="N188" s="14"/>
     </row>
-    <row r="189" spans="1:14" ht="30.9">
+    <row r="189" spans="1:14" ht="30.9" hidden="1">
       <c r="A189" s="22"/>
       <c r="B189" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28516,7 +28516,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="41.15">
+    <row r="190" spans="1:14" ht="41.15" hidden="1">
       <c r="A190" s="22"/>
       <c r="B190" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28553,7 +28553,7 @@
       <c r="M190" s="13"/>
       <c r="N190" s="14"/>
     </row>
-    <row r="191" spans="1:14" ht="30.9">
+    <row r="191" spans="1:14" ht="30.9" hidden="1">
       <c r="A191" s="27"/>
       <c r="B191" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28666,7 +28666,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="21.45">
+    <row r="194" spans="1:14" ht="21.45" hidden="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28775,7 +28775,7 @@
       <c r="M196" s="13"/>
       <c r="N196" s="14"/>
     </row>
-    <row r="197" spans="1:14" ht="53.6">
+    <row r="197" spans="1:14" ht="53.6" hidden="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4" t="str">
         <f t="shared" si="3"/>
@@ -28810,7 +28810,7 @@
       <c r="M197" s="13"/>
       <c r="N197" s="14"/>
     </row>
-    <row r="198" spans="1:14" ht="53.6">
+    <row r="198" spans="1:14" ht="53.6" hidden="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4" t="str">
         <f t="shared" si="3"/>
@@ -28882,7 +28882,7 @@
       <c r="M199" s="13"/>
       <c r="N199" s="14"/>
     </row>
-    <row r="200" spans="1:14" ht="30.9">
+    <row r="200" spans="1:14" ht="30.9" hidden="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4" t="str">
         <f t="shared" si="3"/>
@@ -28923,7 +28923,7 @@
       </c>
       <c r="N200" s="14"/>
     </row>
-    <row r="201" spans="1:14" ht="51.45">
+    <row r="201" spans="1:14" ht="51.45" hidden="1">
       <c r="A201" s="22"/>
       <c r="B201" s="4" t="str">
         <f t="shared" si="3"/>
@@ -28958,7 +28958,7 @@
       <c r="M201" s="13"/>
       <c r="N201" s="14"/>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" hidden="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29071,7 +29071,7 @@
       </c>
       <c r="N204" s="14"/>
     </row>
-    <row r="205" spans="1:14" ht="20.6">
+    <row r="205" spans="1:14" ht="20.6" hidden="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29110,7 +29110,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="20.6">
+    <row r="206" spans="1:14" ht="20.6" hidden="1">
       <c r="A206" s="22"/>
       <c r="B206" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29192,7 +29192,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" hidden="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29225,7 +29225,7 @@
       <c r="M208" s="13"/>
       <c r="N208" s="14"/>
     </row>
-    <row r="209" spans="1:14" ht="41.15">
+    <row r="209" spans="1:14" ht="41.15" hidden="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29266,7 +29266,7 @@
       </c>
       <c r="N209" s="14"/>
     </row>
-    <row r="210" spans="1:14" ht="32.15">
+    <row r="210" spans="1:14" ht="32.15" hidden="1">
       <c r="A210" s="22"/>
       <c r="B210" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29307,7 +29307,7 @@
       </c>
       <c r="N210" s="14"/>
     </row>
-    <row r="211" spans="1:14" ht="51.45">
+    <row r="211" spans="1:14" ht="51.45" hidden="1">
       <c r="A211" s="22"/>
       <c r="B211" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29342,7 +29342,7 @@
       <c r="M211" s="13"/>
       <c r="N211" s="14"/>
     </row>
-    <row r="212" spans="1:14" ht="42.9">
+    <row r="212" spans="1:14" ht="42.9" hidden="1">
       <c r="A212" s="4"/>
       <c r="B212" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29379,7 +29379,7 @@
       <c r="M212" s="13"/>
       <c r="N212" s="14"/>
     </row>
-    <row r="213" spans="1:14" ht="21.45">
+    <row r="213" spans="1:14" ht="21.45" hidden="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29500,7 +29500,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" hidden="1">
       <c r="A216" s="4"/>
       <c r="B216" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29537,7 +29537,7 @@
       <c r="M216" s="13"/>
       <c r="N216" s="14"/>
     </row>
-    <row r="217" spans="1:14" ht="41.15">
+    <row r="217" spans="1:14" ht="41.15" hidden="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29578,7 +29578,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="20.6">
+    <row r="218" spans="1:14" ht="20.6" hidden="1">
       <c r="A218" s="4"/>
       <c r="B218" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29619,7 +29619,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" hidden="1">
       <c r="A219" s="4"/>
       <c r="B219" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29656,7 +29656,7 @@
       <c r="M219" s="13"/>
       <c r="N219" s="14"/>
     </row>
-    <row r="220" spans="1:14" ht="82.3">
+    <row r="220" spans="1:14" ht="82.3" hidden="1">
       <c r="A220" s="4"/>
       <c r="B220" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29695,7 +29695,7 @@
       </c>
       <c r="N220" s="14"/>
     </row>
-    <row r="221" spans="1:14" ht="21.45">
+    <row r="221" spans="1:14" ht="21.45" hidden="1">
       <c r="A221" s="4"/>
       <c r="B221" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29777,7 +29777,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="51.45">
+    <row r="223" spans="1:14" ht="51.45" hidden="1">
       <c r="A223" s="4"/>
       <c r="B223" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29814,7 +29814,7 @@
       <c r="M223" s="13"/>
       <c r="N223" s="14"/>
     </row>
-    <row r="224" spans="1:14" ht="41.15">
+    <row r="224" spans="1:14" ht="41.15" hidden="1">
       <c r="A224" s="57"/>
       <c r="B224" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29855,7 +29855,7 @@
       </c>
       <c r="N224" s="14"/>
     </row>
-    <row r="225" spans="1:14" ht="23.15">
+    <row r="225" spans="1:14" ht="23.15" hidden="1">
       <c r="A225" s="22"/>
       <c r="B225" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29894,7 +29894,7 @@
       <c r="M225" s="13"/>
       <c r="N225" s="14"/>
     </row>
-    <row r="226" spans="1:14" ht="41.15">
+    <row r="226" spans="1:14" ht="41.15" hidden="1">
       <c r="A226" s="22"/>
       <c r="B226" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29935,7 +29935,7 @@
       </c>
       <c r="N226" s="14"/>
     </row>
-    <row r="227" spans="1:14" ht="34.75">
+    <row r="227" spans="1:14" ht="34.75" hidden="1">
       <c r="A227" s="57"/>
       <c r="B227" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29976,7 +29976,7 @@
       </c>
       <c r="N227" s="14"/>
     </row>
-    <row r="228" spans="1:14" ht="64.3">
+    <row r="228" spans="1:14" ht="64.3" hidden="1">
       <c r="A228" s="22"/>
       <c r="B228" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30093,7 +30093,7 @@
       </c>
       <c r="N230" s="14"/>
     </row>
-    <row r="231" spans="1:14" ht="41.15">
+    <row r="231" spans="1:14" ht="41.15" hidden="1">
       <c r="A231" s="22"/>
       <c r="B231" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30132,7 +30132,7 @@
       </c>
       <c r="N231" s="14"/>
     </row>
-    <row r="232" spans="1:14" ht="61.75">
+    <row r="232" spans="1:14" ht="61.75" hidden="1">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30173,7 +30173,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="20.6">
+    <row r="233" spans="1:14" ht="20.6" hidden="1">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30210,7 +30210,7 @@
       <c r="M233" s="13"/>
       <c r="N233" s="14"/>
     </row>
-    <row r="234" spans="1:14" ht="41.15">
+    <row r="234" spans="1:14" ht="41.15" hidden="1">
       <c r="A234" s="27"/>
       <c r="B234" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30245,7 +30245,7 @@
       <c r="M234" s="13"/>
       <c r="N234" s="14"/>
     </row>
-    <row r="235" spans="1:14" ht="41.15">
+    <row r="235" spans="1:14" ht="41.15" hidden="1">
       <c r="A235" s="27"/>
       <c r="B235" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30282,7 +30282,7 @@
       </c>
       <c r="N235" s="14"/>
     </row>
-    <row r="236" spans="1:14" ht="51.45">
+    <row r="236" spans="1:14" ht="51.45" hidden="1">
       <c r="A236" s="4"/>
       <c r="B236" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30323,7 +30323,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" hidden="1">
       <c r="A237" s="4"/>
       <c r="B237" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30360,7 +30360,7 @@
       <c r="M237" s="13"/>
       <c r="N237" s="14"/>
     </row>
-    <row r="238" spans="1:14" ht="21.45">
+    <row r="238" spans="1:14" ht="21.45" hidden="1">
       <c r="A238" s="4"/>
       <c r="B238" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30397,7 +30397,7 @@
       <c r="M238" s="13"/>
       <c r="N238" s="14"/>
     </row>
-    <row r="239" spans="1:14" ht="53.6">
+    <row r="239" spans="1:14" ht="53.6" hidden="1">
       <c r="A239" s="4"/>
       <c r="B239" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30434,7 +30434,7 @@
       <c r="M239" s="13"/>
       <c r="N239" s="14"/>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" hidden="1">
       <c r="A240" s="4"/>
       <c r="B240" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30471,7 +30471,7 @@
       <c r="M240" s="13"/>
       <c r="N240" s="14"/>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" hidden="1">
       <c r="A241" s="4"/>
       <c r="B241" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30508,7 +30508,7 @@
       <c r="M241" s="13"/>
       <c r="N241" s="14"/>
     </row>
-    <row r="242" spans="1:14" ht="41.15">
+    <row r="242" spans="1:14" ht="41.15" hidden="1">
       <c r="A242" s="57"/>
       <c r="B242" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30549,7 +30549,7 @@
       </c>
       <c r="N242" s="14"/>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" hidden="1">
       <c r="A243" s="4"/>
       <c r="B243" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30627,7 +30627,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="21.45">
+    <row r="245" spans="1:14" ht="21.45" hidden="1">
       <c r="A245" s="22"/>
       <c r="B245" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30660,7 +30660,7 @@
       <c r="M245" s="13"/>
       <c r="N245" s="14"/>
     </row>
-    <row r="246" spans="1:14" ht="20.6">
+    <row r="246" spans="1:14" ht="20.6" hidden="1">
       <c r="A246" s="4"/>
       <c r="B246" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30695,7 +30695,7 @@
       <c r="M246" s="13"/>
       <c r="N246" s="14"/>
     </row>
-    <row r="247" spans="1:14" ht="61.75">
+    <row r="247" spans="1:14" ht="61.75" hidden="1">
       <c r="A247" s="4"/>
       <c r="B247" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30734,7 +30734,7 @@
       </c>
       <c r="N247" s="14"/>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" hidden="1">
       <c r="A248" s="60" t="s">
         <v>1716</v>
       </c>
@@ -30775,7 +30775,7 @@
       </c>
       <c r="N248" s="14"/>
     </row>
-    <row r="249" spans="1:14" ht="21.45">
+    <row r="249" spans="1:14" ht="21.45" hidden="1">
       <c r="A249" s="4"/>
       <c r="B249" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30810,7 +30810,7 @@
       <c r="M249" s="13"/>
       <c r="N249" s="14"/>
     </row>
-    <row r="250" spans="1:14" ht="30.9">
+    <row r="250" spans="1:14" ht="30.9" hidden="1">
       <c r="A250" s="22"/>
       <c r="B250" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30849,7 +30849,7 @@
       </c>
       <c r="N250" s="14"/>
     </row>
-    <row r="251" spans="1:14" ht="23.15">
+    <row r="251" spans="1:14" ht="23.15" hidden="1">
       <c r="A251" s="31"/>
       <c r="B251" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30888,7 +30888,7 @@
       </c>
       <c r="N251" s="14"/>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" hidden="1">
       <c r="A252" s="31"/>
       <c r="B252" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30929,7 +30929,7 @@
       </c>
       <c r="N252" s="14"/>
     </row>
-    <row r="253" spans="1:14" ht="46.3">
+    <row r="253" spans="1:14" ht="46.3" hidden="1">
       <c r="A253" s="31"/>
       <c r="B253" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30970,7 +30970,7 @@
       </c>
       <c r="N253" s="14"/>
     </row>
-    <row r="254" spans="1:14" ht="46.3">
+    <row r="254" spans="1:14" ht="46.3" hidden="1">
       <c r="A254" s="31"/>
       <c r="B254" s="4" t="str">
         <f t="shared" si="3"/>
@@ -31011,7 +31011,7 @@
       </c>
       <c r="N254" s="14"/>
     </row>
-    <row r="255" spans="1:14" ht="34.75">
+    <row r="255" spans="1:14" ht="34.75" hidden="1">
       <c r="A255" s="31"/>
       <c r="B255" s="4" t="str">
         <f t="shared" si="3"/>
@@ -31050,7 +31050,7 @@
       <c r="M255" s="13"/>
       <c r="N255" s="14"/>
     </row>
-    <row r="256" spans="1:14" ht="92.6">
+    <row r="256" spans="1:14" ht="92.6" hidden="1">
       <c r="A256" s="31"/>
       <c r="B256" s="4" t="str">
         <f t="shared" si="3"/>
@@ -31091,7 +31091,7 @@
       </c>
       <c r="N256" s="14"/>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" hidden="1">
       <c r="A257" s="31"/>
       <c r="B257" s="4" t="str">
         <f t="shared" si="3"/>
@@ -31130,7 +31130,7 @@
       <c r="M257" s="13"/>
       <c r="N257" s="14"/>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" hidden="1">
       <c r="A258" s="62"/>
       <c r="B258" s="4" t="str">
         <f t="shared" si="3"/>
@@ -31169,7 +31169,7 @@
       </c>
       <c r="N258" s="14"/>
     </row>
-    <row r="259" spans="1:14" ht="46.3">
+    <row r="259" spans="1:14" ht="46.3" hidden="1">
       <c r="A259" s="63" t="s">
         <v>1750</v>
       </c>
@@ -31212,7 +31212,7 @@
       </c>
       <c r="N259" s="14"/>
     </row>
-    <row r="260" spans="1:14" ht="34.75">
+    <row r="260" spans="1:14" ht="34.75" hidden="1">
       <c r="A260" s="31"/>
       <c r="B260" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31253,7 +31253,7 @@
       </c>
       <c r="N260" s="14"/>
     </row>
-    <row r="261" spans="1:14" ht="150.44999999999999">
+    <row r="261" spans="1:14" ht="150.44999999999999" hidden="1">
       <c r="A261" s="31"/>
       <c r="B261" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31294,7 +31294,7 @@
       </c>
       <c r="N261" s="14"/>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" hidden="1">
       <c r="A262" s="31"/>
       <c r="B262" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31335,7 +31335,7 @@
       </c>
       <c r="N262" s="14"/>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" hidden="1">
       <c r="A263" s="31"/>
       <c r="B263" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31376,7 +31376,7 @@
       </c>
       <c r="N263" s="14"/>
     </row>
-    <row r="264" spans="1:14" ht="23.15">
+    <row r="264" spans="1:14" ht="23.15" hidden="1">
       <c r="A264" s="31"/>
       <c r="B264" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31415,7 +31415,7 @@
       <c r="M264" s="13"/>
       <c r="N264" s="14"/>
     </row>
-    <row r="265" spans="1:14" ht="92.6">
+    <row r="265" spans="1:14" ht="92.6" hidden="1">
       <c r="A265" s="31"/>
       <c r="B265" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31456,7 +31456,7 @@
       </c>
       <c r="N265" s="14"/>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" hidden="1">
       <c r="A266" s="4"/>
       <c r="B266" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31499,7 +31499,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="267" spans="1:14" ht="20.6">
+    <row r="267" spans="1:14" ht="20.6" hidden="1">
       <c r="A267" s="4"/>
       <c r="B267" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31536,7 +31536,7 @@
       <c r="M267" s="13"/>
       <c r="N267" s="14"/>
     </row>
-    <row r="268" spans="1:14" ht="124.3">
+    <row r="268" spans="1:14" ht="124.3" hidden="1">
       <c r="A268" s="31"/>
       <c r="B268" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31575,7 +31575,7 @@
       </c>
       <c r="N268" s="14"/>
     </row>
-    <row r="269" spans="1:14" ht="34.75">
+    <row r="269" spans="1:14" ht="34.75" hidden="1">
       <c r="A269" s="31"/>
       <c r="B269" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31616,7 +31616,7 @@
       </c>
       <c r="N269" s="14"/>
     </row>
-    <row r="270" spans="1:14" ht="34.75">
+    <row r="270" spans="1:14" ht="34.75" hidden="1">
       <c r="A270" s="31"/>
       <c r="B270" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31696,7 +31696,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="272" spans="1:14" ht="14.15">
+    <row r="272" spans="1:14" ht="14.15" hidden="1">
       <c r="A272" s="27" t="s">
         <v>922</v>
       </c>
@@ -31733,7 +31733,7 @@
       <c r="M272" s="13"/>
       <c r="N272" s="14"/>
     </row>
-    <row r="273" spans="1:14" ht="20.6">
+    <row r="273" spans="1:14" ht="20.6" hidden="1">
       <c r="A273" s="27" t="s">
         <v>922</v>
       </c>
@@ -31772,7 +31772,7 @@
       <c r="M273" s="13"/>
       <c r="N273" s="14"/>
     </row>
-    <row r="274" spans="1:14" ht="20.6">
+    <row r="274" spans="1:14" ht="20.6" hidden="1">
       <c r="A274" s="27" t="s">
         <v>922</v>
       </c>
@@ -31811,7 +31811,7 @@
       <c r="M274" s="13"/>
       <c r="N274" s="14"/>
     </row>
-    <row r="275" spans="1:14" ht="133.75">
+    <row r="275" spans="1:14" ht="133.75" hidden="1">
       <c r="A275" s="22"/>
       <c r="B275" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31848,7 +31848,7 @@
       <c r="M275" s="13"/>
       <c r="N275" s="14"/>
     </row>
-    <row r="276" spans="1:14" ht="23.15">
+    <row r="276" spans="1:14" ht="23.15" hidden="1">
       <c r="A276" s="31"/>
       <c r="B276" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31889,7 +31889,7 @@
       </c>
       <c r="N276" s="14"/>
     </row>
-    <row r="277" spans="1:14" ht="23.15">
+    <row r="277" spans="1:14" ht="23.15" hidden="1">
       <c r="A277" s="31"/>
       <c r="B277" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31967,7 +31967,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" hidden="1">
       <c r="A279" s="31"/>
       <c r="B279" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32006,7 +32006,7 @@
       <c r="M279" s="13"/>
       <c r="N279" s="14"/>
     </row>
-    <row r="280" spans="1:14" ht="23.15">
+    <row r="280" spans="1:14" ht="23.15" hidden="1">
       <c r="A280" s="31"/>
       <c r="B280" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32045,7 +32045,7 @@
       </c>
       <c r="N280" s="14"/>
     </row>
-    <row r="281" spans="1:14" ht="30.9">
+    <row r="281" spans="1:14" ht="30.9" hidden="1">
       <c r="A281" s="31"/>
       <c r="B281" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32086,7 +32086,7 @@
       </c>
       <c r="N281" s="14"/>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" hidden="1">
       <c r="A282" s="31"/>
       <c r="B282" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32127,7 +32127,7 @@
       </c>
       <c r="N282" s="14"/>
     </row>
-    <row r="283" spans="1:14" ht="136.75">
+    <row r="283" spans="1:14" ht="136.75" hidden="1">
       <c r="A283" s="31"/>
       <c r="B283" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32166,7 +32166,7 @@
       </c>
       <c r="N283" s="14"/>
     </row>
-    <row r="284" spans="1:14" ht="133.75">
+    <row r="284" spans="1:14" ht="133.75" hidden="1">
       <c r="A284" s="4"/>
       <c r="B284" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32240,7 +32240,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="32.15">
+    <row r="286" spans="1:14" ht="32.15" hidden="1">
       <c r="A286" s="4"/>
       <c r="B286" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32277,7 +32277,7 @@
       <c r="M286" s="13"/>
       <c r="N286" s="14"/>
     </row>
-    <row r="287" spans="1:14" ht="69.45">
+    <row r="287" spans="1:14" ht="69.45" hidden="1">
       <c r="A287" s="31"/>
       <c r="B287" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="N287" s="14"/>
     </row>
-    <row r="288" spans="1:14" ht="21.45">
+    <row r="288" spans="1:14" ht="21.45" hidden="1">
       <c r="A288" s="4"/>
       <c r="B288" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32353,7 +32353,7 @@
       <c r="M288" s="13"/>
       <c r="N288" s="14"/>
     </row>
-    <row r="289" spans="1:14" ht="32.15">
+    <row r="289" spans="1:14" ht="32.15" hidden="1">
       <c r="A289" s="4"/>
       <c r="B289" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32390,7 +32390,7 @@
       <c r="M289" s="13"/>
       <c r="N289" s="14"/>
     </row>
-    <row r="290" spans="1:14" ht="81">
+    <row r="290" spans="1:14" ht="81" hidden="1">
       <c r="A290" s="31"/>
       <c r="B290" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32427,7 +32427,7 @@
       <c r="M290" s="13"/>
       <c r="N290" s="14"/>
     </row>
-    <row r="291" spans="1:14" ht="30.9">
+    <row r="291" spans="1:14" ht="30.9" hidden="1">
       <c r="A291" s="4"/>
       <c r="B291" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32464,7 +32464,7 @@
       </c>
       <c r="N291" s="14"/>
     </row>
-    <row r="292" spans="1:14" ht="82.3">
+    <row r="292" spans="1:14" ht="82.3" hidden="1">
       <c r="A292" s="4"/>
       <c r="B292" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32499,7 +32499,7 @@
       <c r="M292" s="13"/>
       <c r="N292" s="14"/>
     </row>
-    <row r="293" spans="1:14" ht="21.45">
+    <row r="293" spans="1:14" ht="21.45" hidden="1">
       <c r="A293" s="4"/>
       <c r="B293" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32616,7 +32616,7 @@
       </c>
       <c r="N295" s="14"/>
     </row>
-    <row r="296" spans="1:14" ht="41.15">
+    <row r="296" spans="1:14" ht="41.15" hidden="1">
       <c r="A296" s="4"/>
       <c r="B296" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32653,7 +32653,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" hidden="1">
       <c r="A297" s="27" t="s">
         <v>922</v>
       </c>
@@ -32692,7 +32692,7 @@
       <c r="M297" s="13"/>
       <c r="N297" s="14"/>
     </row>
-    <row r="298" spans="1:14" ht="20.6">
+    <row r="298" spans="1:14" ht="20.6" hidden="1">
       <c r="A298" s="4"/>
       <c r="B298" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32729,7 +32729,7 @@
       <c r="M298" s="13"/>
       <c r="N298" s="14"/>
     </row>
-    <row r="299" spans="1:14" ht="23.15">
+    <row r="299" spans="1:14" ht="23.15" hidden="1">
       <c r="A299" s="4"/>
       <c r="B299" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32768,7 +32768,7 @@
       </c>
       <c r="N299" s="14"/>
     </row>
-    <row r="300" spans="1:14" ht="30.9">
+    <row r="300" spans="1:14" ht="30.9" hidden="1">
       <c r="A300" s="4"/>
       <c r="B300" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32811,7 +32811,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="301" spans="1:14" ht="123.45">
+    <row r="301" spans="1:14" ht="123.45" hidden="1">
       <c r="A301" s="4"/>
       <c r="B301" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32848,7 +32848,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="302" spans="1:14" ht="113.15">
+    <row r="302" spans="1:14" ht="113.15" hidden="1">
       <c r="A302" s="4"/>
       <c r="B302" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32885,7 +32885,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="303" spans="1:14" ht="339.45">
+    <row r="303" spans="1:14" ht="339.45" hidden="1">
       <c r="A303" s="22"/>
       <c r="B303" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32920,7 +32920,7 @@
       <c r="M303" s="13"/>
       <c r="N303" s="14"/>
     </row>
-    <row r="304" spans="1:14" ht="32.15">
+    <row r="304" spans="1:14" ht="32.15" hidden="1">
       <c r="A304" s="4"/>
       <c r="B304" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32957,7 +32957,7 @@
       </c>
       <c r="N304" s="14"/>
     </row>
-    <row r="305" spans="1:14" ht="154.30000000000001">
+    <row r="305" spans="1:14" ht="154.30000000000001" hidden="1">
       <c r="A305" s="4"/>
       <c r="B305" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33029,7 +33029,7 @@
       <c r="M306" s="13"/>
       <c r="N306" s="14"/>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" hidden="1">
       <c r="A307" s="4"/>
       <c r="B307" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33066,7 +33066,7 @@
       <c r="M307" s="13"/>
       <c r="N307" s="14"/>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" hidden="1">
       <c r="A308" s="4"/>
       <c r="B308" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33103,7 +33103,7 @@
       <c r="M308" s="13"/>
       <c r="N308" s="14"/>
     </row>
-    <row r="309" spans="1:14" ht="21.45">
+    <row r="309" spans="1:14" ht="21.45" hidden="1">
       <c r="A309" s="4"/>
       <c r="B309" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33144,7 +33144,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="310" spans="1:14" ht="42.9">
+    <row r="310" spans="1:14" ht="42.9" hidden="1">
       <c r="A310" s="74"/>
       <c r="B310" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33181,7 +33181,7 @@
       <c r="M310" s="13"/>
       <c r="N310" s="14"/>
     </row>
-    <row r="311" spans="1:14" ht="42.9">
+    <row r="311" spans="1:14" ht="42.9" hidden="1">
       <c r="A311" s="75"/>
       <c r="B311" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33218,7 +33218,7 @@
       <c r="M311" s="13"/>
       <c r="N311" s="14"/>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" hidden="1">
       <c r="A312" s="75"/>
       <c r="B312" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33255,7 +33255,7 @@
       <c r="M312" s="13"/>
       <c r="N312" s="14"/>
     </row>
-    <row r="313" spans="1:14" ht="20.6">
+    <row r="313" spans="1:14" ht="20.6" hidden="1">
       <c r="A313" s="75"/>
       <c r="B313" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33296,7 +33296,7 @@
       </c>
       <c r="N313" s="14"/>
     </row>
-    <row r="314" spans="1:14" ht="92.6">
+    <row r="314" spans="1:14" ht="92.6" hidden="1">
       <c r="A314" s="4"/>
       <c r="B314" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33337,7 +33337,7 @@
       </c>
       <c r="N314" s="14"/>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" hidden="1">
       <c r="A315" s="4"/>
       <c r="B315" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33374,7 +33374,7 @@
       <c r="M315" s="13"/>
       <c r="N315" s="14"/>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" hidden="1">
       <c r="A316" s="4"/>
       <c r="B316" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33411,7 +33411,7 @@
       <c r="M316" s="13"/>
       <c r="N316" s="14"/>
     </row>
-    <row r="317" spans="1:14" ht="41.15">
+    <row r="317" spans="1:14" ht="41.15" hidden="1">
       <c r="A317" s="4"/>
       <c r="B317" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33446,7 +33446,7 @@
       <c r="M317" s="13"/>
       <c r="N317" s="14"/>
     </row>
-    <row r="318" spans="1:14" ht="20.6">
+    <row r="318" spans="1:14" ht="20.6" hidden="1">
       <c r="A318" s="4"/>
       <c r="B318" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33483,7 +33483,7 @@
       <c r="M318" s="13"/>
       <c r="N318" s="14"/>
     </row>
-    <row r="319" spans="1:14" ht="46.3">
+    <row r="319" spans="1:14" ht="46.3" hidden="1">
       <c r="A319" s="31"/>
       <c r="B319" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33522,7 +33522,7 @@
       </c>
       <c r="N319" s="14"/>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" hidden="1">
       <c r="A320" s="4"/>
       <c r="B320" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33559,7 +33559,7 @@
       </c>
       <c r="N320" s="14"/>
     </row>
-    <row r="321" spans="1:14" ht="42.9">
+    <row r="321" spans="1:14" ht="42.9" hidden="1">
       <c r="A321" s="4"/>
       <c r="B321" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33637,7 +33637,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="323" spans="1:14" ht="21.45">
+    <row r="323" spans="1:14" ht="21.45" hidden="1">
       <c r="A323" s="4"/>
       <c r="B323" s="4" t="str">
         <f t="shared" ref="B323:B386" si="5">IF(ISNUMBER(SEARCH("DONE",K323)),"DONE","")</f>
@@ -33674,7 +33674,7 @@
       <c r="M323" s="13"/>
       <c r="N323" s="14"/>
     </row>
-    <row r="324" spans="1:14" ht="32.15">
+    <row r="324" spans="1:14" ht="32.15" hidden="1">
       <c r="A324" s="4"/>
       <c r="B324" s="4" t="str">
         <f t="shared" si="5"/>
@@ -33787,7 +33787,7 @@
       <c r="M326" s="13"/>
       <c r="N326" s="14"/>
     </row>
-    <row r="327" spans="1:14" ht="21.45">
+    <row r="327" spans="1:14" ht="21.45" hidden="1">
       <c r="A327" s="4"/>
       <c r="B327" s="4" t="str">
         <f t="shared" si="5"/>
@@ -33822,7 +33822,7 @@
       <c r="M327" s="13"/>
       <c r="N327" s="14"/>
     </row>
-    <row r="328" spans="1:14" ht="41.15">
+    <row r="328" spans="1:14" ht="41.15" hidden="1">
       <c r="A328" s="4"/>
       <c r="B328" s="4" t="str">
         <f t="shared" si="5"/>
@@ -33859,7 +33859,7 @@
       </c>
       <c r="N328" s="14"/>
     </row>
-    <row r="329" spans="1:14" ht="41.15">
+    <row r="329" spans="1:14" ht="41.15" hidden="1">
       <c r="A329" s="4"/>
       <c r="B329" s="4" t="str">
         <f t="shared" si="5"/>
@@ -33898,7 +33898,7 @@
       </c>
       <c r="N329" s="14"/>
     </row>
-    <row r="330" spans="1:14" ht="51.45">
+    <row r="330" spans="1:14" ht="51.45" hidden="1">
       <c r="A330" s="4"/>
       <c r="B330" s="4" t="str">
         <f t="shared" si="5"/>
@@ -33937,7 +33937,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="331" spans="1:14" ht="21.45">
+    <row r="331" spans="1:14" ht="21.45" hidden="1">
       <c r="A331" s="4"/>
       <c r="B331" s="4" t="str">
         <f t="shared" si="5"/>
@@ -33974,7 +33974,7 @@
       <c r="M331" s="13"/>
       <c r="N331" s="14"/>
     </row>
-    <row r="332" spans="1:14" ht="21.45">
+    <row r="332" spans="1:14" ht="21.45" hidden="1">
       <c r="A332" s="4"/>
       <c r="B332" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34011,7 +34011,7 @@
       <c r="M332" s="13"/>
       <c r="N332" s="14"/>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" hidden="1">
       <c r="A333" s="4"/>
       <c r="B333" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34048,7 +34048,7 @@
       <c r="M333" s="13"/>
       <c r="N333" s="14"/>
     </row>
-    <row r="334" spans="1:14" ht="30.9">
+    <row r="334" spans="1:14" ht="30.9" hidden="1">
       <c r="A334" s="4"/>
       <c r="B334" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34085,7 +34085,7 @@
       <c r="M334" s="13"/>
       <c r="N334" s="14"/>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" hidden="1">
       <c r="A335" s="4"/>
       <c r="B335" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34122,7 +34122,7 @@
       <c r="M335" s="13"/>
       <c r="N335" s="14"/>
     </row>
-    <row r="336" spans="1:14" ht="42.9">
+    <row r="336" spans="1:14" ht="42.9" hidden="1">
       <c r="A336" s="4"/>
       <c r="B336" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34159,7 +34159,7 @@
       <c r="M336" s="13"/>
       <c r="N336" s="14"/>
     </row>
-    <row r="337" spans="1:14" ht="30.9">
+    <row r="337" spans="1:14" ht="30.9" hidden="1">
       <c r="A337" s="4"/>
       <c r="B337" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34200,7 +34200,7 @@
       </c>
       <c r="N337" s="14"/>
     </row>
-    <row r="338" spans="1:14" ht="32.15">
+    <row r="338" spans="1:14" ht="32.15" hidden="1">
       <c r="A338" s="4"/>
       <c r="B338" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34237,7 +34237,7 @@
       <c r="M338" s="13"/>
       <c r="N338" s="14"/>
     </row>
-    <row r="339" spans="1:14" ht="51.45">
+    <row r="339" spans="1:14" ht="51.45" hidden="1">
       <c r="A339" s="4"/>
       <c r="B339" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34274,7 +34274,7 @@
       <c r="M339" s="13"/>
       <c r="N339" s="14"/>
     </row>
-    <row r="340" spans="1:14" ht="81">
+    <row r="340" spans="1:14" ht="81" hidden="1">
       <c r="A340" s="31"/>
       <c r="B340" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34313,7 +34313,7 @@
       </c>
       <c r="N340" s="14"/>
     </row>
-    <row r="341" spans="1:14" ht="46.3">
+    <row r="341" spans="1:14" ht="46.3" hidden="1">
       <c r="A341" s="31"/>
       <c r="B341" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34350,7 +34350,7 @@
       <c r="M341" s="13"/>
       <c r="N341" s="14"/>
     </row>
-    <row r="342" spans="1:14" ht="46.3">
+    <row r="342" spans="1:14" ht="46.3" hidden="1">
       <c r="A342" s="31"/>
       <c r="B342" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34389,7 +34389,7 @@
       </c>
       <c r="N342" s="14"/>
     </row>
-    <row r="343" spans="1:14" ht="370.3">
+    <row r="343" spans="1:14" ht="370.3" hidden="1">
       <c r="A343" s="4"/>
       <c r="B343" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34430,7 +34430,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="344" spans="1:14" ht="30.9">
+    <row r="344" spans="1:14" ht="30.9" hidden="1">
       <c r="A344" s="4"/>
       <c r="B344" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34467,7 +34467,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="345" spans="1:14" ht="30.9">
+    <row r="345" spans="1:14" ht="30.9" hidden="1">
       <c r="A345" s="4"/>
       <c r="B345" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34504,7 +34504,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="346" spans="1:14" ht="30.9">
+    <row r="346" spans="1:14" ht="30.9" hidden="1">
       <c r="A346" s="4"/>
       <c r="B346" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34541,7 +34541,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="347" spans="1:14" ht="21.45">
+    <row r="347" spans="1:14" ht="21.45" hidden="1">
       <c r="A347" s="4"/>
       <c r="B347" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34578,7 +34578,7 @@
       <c r="M347" s="13"/>
       <c r="N347" s="14"/>
     </row>
-    <row r="348" spans="1:14" ht="20.6">
+    <row r="348" spans="1:14" ht="20.6" hidden="1">
       <c r="A348" s="4"/>
       <c r="B348" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34617,7 +34617,7 @@
       </c>
       <c r="N348" s="14"/>
     </row>
-    <row r="349" spans="1:14" ht="32.15">
+    <row r="349" spans="1:14" ht="32.15" hidden="1">
       <c r="A349" s="4"/>
       <c r="B349" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34654,7 +34654,7 @@
       <c r="M349" s="13"/>
       <c r="N349" s="14"/>
     </row>
-    <row r="350" spans="1:14" ht="21.45">
+    <row r="350" spans="1:14" ht="21.45" hidden="1">
       <c r="A350" s="4"/>
       <c r="B350" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34691,7 +34691,7 @@
       <c r="M350" s="13"/>
       <c r="N350" s="14"/>
     </row>
-    <row r="351" spans="1:14" ht="21.45">
+    <row r="351" spans="1:14" ht="21.45" hidden="1">
       <c r="A351" s="4"/>
       <c r="B351" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34728,7 +34728,7 @@
       <c r="M351" s="13"/>
       <c r="N351" s="14"/>
     </row>
-    <row r="352" spans="1:14" ht="21.45">
+    <row r="352" spans="1:14" ht="21.45" hidden="1">
       <c r="A352" s="4"/>
       <c r="B352" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34765,7 +34765,7 @@
       <c r="M352" s="13"/>
       <c r="N352" s="14"/>
     </row>
-    <row r="353" spans="1:14" ht="41.15">
+    <row r="353" spans="1:14" ht="41.15" hidden="1">
       <c r="A353" s="4"/>
       <c r="B353" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34802,7 +34802,7 @@
       <c r="M353" s="13"/>
       <c r="N353" s="14"/>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" hidden="1">
       <c r="A354" s="4"/>
       <c r="B354" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34839,7 +34839,7 @@
       <c r="M354" s="13"/>
       <c r="N354" s="14"/>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" hidden="1">
       <c r="A355" s="4"/>
       <c r="B355" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34876,7 +34876,7 @@
       <c r="M355" s="13"/>
       <c r="N355" s="14"/>
     </row>
-    <row r="356" spans="1:14" ht="30.9">
+    <row r="356" spans="1:14" ht="30.9" hidden="1">
       <c r="A356" s="4"/>
       <c r="B356" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34917,7 +34917,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="30.9">
+    <row r="357" spans="1:14" ht="30.9" hidden="1">
       <c r="A357" s="4"/>
       <c r="B357" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34954,7 +34954,7 @@
       <c r="M357" s="13"/>
       <c r="N357" s="14"/>
     </row>
-    <row r="358" spans="1:14" ht="20.6">
+    <row r="358" spans="1:14" ht="20.6" hidden="1">
       <c r="A358" s="4"/>
       <c r="B358" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34991,7 +34991,7 @@
       <c r="M358" s="13"/>
       <c r="N358" s="14"/>
     </row>
-    <row r="359" spans="1:14" ht="41.15">
+    <row r="359" spans="1:14" ht="41.15" hidden="1">
       <c r="A359" s="4"/>
       <c r="B359" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35032,7 +35032,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="360" spans="1:14" ht="61.75">
+    <row r="360" spans="1:14" ht="61.75" hidden="1">
       <c r="A360" s="4"/>
       <c r="B360" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35071,7 +35071,7 @@
       </c>
       <c r="N360" s="14"/>
     </row>
-    <row r="361" spans="1:14" ht="51.45">
+    <row r="361" spans="1:14" ht="51.45" hidden="1">
       <c r="A361" s="31"/>
       <c r="B361" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35112,7 +35112,7 @@
       </c>
       <c r="N361" s="14"/>
     </row>
-    <row r="362" spans="1:14" ht="34.75">
+    <row r="362" spans="1:14" ht="34.75" hidden="1">
       <c r="A362" s="31"/>
       <c r="B362" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35149,7 +35149,7 @@
       <c r="M362" s="13"/>
       <c r="N362" s="14"/>
     </row>
-    <row r="363" spans="1:14" ht="30.9">
+    <row r="363" spans="1:14" ht="30.9" hidden="1">
       <c r="A363" s="4"/>
       <c r="B363" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35190,7 +35190,7 @@
       </c>
       <c r="N363" s="14"/>
     </row>
-    <row r="364" spans="1:14" ht="41.15">
+    <row r="364" spans="1:14" ht="41.15" hidden="1">
       <c r="A364" s="4"/>
       <c r="B364" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35229,7 +35229,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="82.3">
+    <row r="365" spans="1:14" ht="82.3" hidden="1">
       <c r="A365" s="4"/>
       <c r="B365" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35350,7 +35350,7 @@
       </c>
       <c r="N367" s="14"/>
     </row>
-    <row r="368" spans="1:14" ht="30.9">
+    <row r="368" spans="1:14" ht="30.9" hidden="1">
       <c r="A368" s="22"/>
       <c r="B368" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35391,7 +35391,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="369" spans="1:28" ht="20.6">
+    <row r="369" spans="1:28" ht="20.6" hidden="1">
       <c r="A369" s="4"/>
       <c r="B369" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35428,7 +35428,7 @@
       <c r="M369" s="13"/>
       <c r="N369" s="14"/>
     </row>
-    <row r="370" spans="1:28" ht="34.75">
+    <row r="370" spans="1:28" ht="34.75" hidden="1">
       <c r="A370" s="31"/>
       <c r="B370" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35465,7 +35465,7 @@
       <c r="M370" s="13"/>
       <c r="N370" s="14"/>
     </row>
-    <row r="371" spans="1:28" ht="92.6">
+    <row r="371" spans="1:28" ht="92.6" hidden="1">
       <c r="A371" s="4"/>
       <c r="B371" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35504,7 +35504,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="372" spans="1:28" ht="20.6">
+    <row r="372" spans="1:28" ht="20.6" hidden="1">
       <c r="A372" s="4"/>
       <c r="B372" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35541,7 +35541,7 @@
       </c>
       <c r="N372" s="14"/>
     </row>
-    <row r="373" spans="1:28" ht="30.9">
+    <row r="373" spans="1:28" ht="30.9" hidden="1">
       <c r="A373" s="4"/>
       <c r="B373" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35582,7 +35582,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="374" spans="1:28" ht="61.75">
+    <row r="374" spans="1:28" ht="61.75" hidden="1">
       <c r="A374" s="4"/>
       <c r="B374" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35625,7 +35625,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="375" spans="1:28" ht="21.45">
+    <row r="375" spans="1:28" ht="21.45" hidden="1">
       <c r="A375" s="4"/>
       <c r="B375" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35662,7 +35662,7 @@
       <c r="M375" s="13"/>
       <c r="N375" s="14"/>
     </row>
-    <row r="376" spans="1:28" ht="42.9">
+    <row r="376" spans="1:28" ht="42.9" hidden="1">
       <c r="A376" s="4"/>
       <c r="B376" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35699,7 +35699,7 @@
       <c r="M376" s="13"/>
       <c r="N376" s="14"/>
     </row>
-    <row r="377" spans="1:28" ht="92.6">
+    <row r="377" spans="1:28" ht="92.6" hidden="1">
       <c r="A377" s="4"/>
       <c r="B377" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35742,7 +35742,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="378" spans="1:28" ht="34.75">
+    <row r="378" spans="1:28" ht="34.75" hidden="1">
       <c r="A378" s="31"/>
       <c r="B378" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35779,7 +35779,7 @@
       <c r="M378" s="13"/>
       <c r="N378" s="14"/>
     </row>
-    <row r="379" spans="1:28" ht="127.3">
+    <row r="379" spans="1:28" ht="127.3" hidden="1">
       <c r="A379" s="31"/>
       <c r="B379" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35816,7 +35816,7 @@
       <c r="M379" s="13"/>
       <c r="N379" s="14"/>
     </row>
-    <row r="380" spans="1:28" ht="62.15">
+    <row r="380" spans="1:28" ht="62.15" hidden="1">
       <c r="A380" s="31"/>
       <c r="B380" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35853,7 +35853,7 @@
       <c r="M380" s="13"/>
       <c r="N380" s="14"/>
     </row>
-    <row r="381" spans="1:28" ht="61.75">
+    <row r="381" spans="1:28" ht="61.75" hidden="1">
       <c r="A381" s="4"/>
       <c r="B381" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35904,7 +35904,7 @@
       <c r="AA381" s="1"/>
       <c r="AB381" s="1"/>
     </row>
-    <row r="382" spans="1:28" ht="82.3">
+    <row r="382" spans="1:28" ht="82.3" hidden="1">
       <c r="A382" s="4"/>
       <c r="B382" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35945,7 +35945,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="383" spans="1:28" ht="51.45">
+    <row r="383" spans="1:28" ht="51.45" hidden="1">
       <c r="A383" s="22"/>
       <c r="B383" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35982,7 +35982,7 @@
       </c>
       <c r="N383" s="14"/>
     </row>
-    <row r="384" spans="1:28" ht="30.9">
+    <row r="384" spans="1:28" ht="30.9" hidden="1">
       <c r="A384" s="4"/>
       <c r="B384" s="4" t="str">
         <f t="shared" si="5"/>
@@ -36019,7 +36019,7 @@
       <c r="M384" s="13"/>
       <c r="N384" s="14"/>
     </row>
-    <row r="385" spans="1:14" ht="20.6">
+    <row r="385" spans="1:14" ht="20.6" hidden="1">
       <c r="A385" s="4"/>
       <c r="B385" s="4" t="str">
         <f t="shared" si="5"/>
@@ -36056,7 +36056,7 @@
       <c r="M385" s="13"/>
       <c r="N385" s="14"/>
     </row>
-    <row r="386" spans="1:14" ht="21.45">
+    <row r="386" spans="1:14" ht="21.45" hidden="1">
       <c r="A386" s="4"/>
       <c r="B386" s="4" t="str">
         <f t="shared" si="5"/>
@@ -36093,7 +36093,7 @@
       <c r="M386" s="13"/>
       <c r="N386" s="14"/>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" hidden="1">
       <c r="A387" s="4"/>
       <c r="B387" s="4" t="str">
         <f t="shared" ref="B387:B450" si="6">IF(ISNUMBER(SEARCH("DONE",K387)),"DONE","")</f>
@@ -36130,7 +36130,7 @@
       <c r="M387" s="13"/>
       <c r="N387" s="14"/>
     </row>
-    <row r="388" spans="1:14" ht="42.9">
+    <row r="388" spans="1:14" ht="42.9" hidden="1">
       <c r="A388" s="4"/>
       <c r="B388" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36167,7 +36167,7 @@
       <c r="M388" s="13"/>
       <c r="N388" s="14"/>
     </row>
-    <row r="389" spans="1:14" ht="21.45">
+    <row r="389" spans="1:14" ht="21.45" hidden="1">
       <c r="A389" s="4"/>
       <c r="B389" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36204,7 +36204,7 @@
       <c r="M389" s="13"/>
       <c r="N389" s="14"/>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" hidden="1">
       <c r="A390" s="4"/>
       <c r="B390" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36241,7 +36241,7 @@
       <c r="M390" s="13"/>
       <c r="N390" s="14"/>
     </row>
-    <row r="391" spans="1:14" ht="20.6">
+    <row r="391" spans="1:14" ht="20.6" hidden="1">
       <c r="A391" s="4"/>
       <c r="B391" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36317,7 +36317,7 @@
       </c>
       <c r="N392" s="14"/>
     </row>
-    <row r="393" spans="1:14" ht="41.15">
+    <row r="393" spans="1:14" ht="41.15" hidden="1">
       <c r="A393" s="4"/>
       <c r="B393" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36354,7 +36354,7 @@
       <c r="M393" s="13"/>
       <c r="N393" s="14"/>
     </row>
-    <row r="394" spans="1:14" ht="42.9">
+    <row r="394" spans="1:14" ht="42.9" hidden="1">
       <c r="A394" s="4"/>
       <c r="B394" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36391,7 +36391,7 @@
       <c r="M394" s="13"/>
       <c r="N394" s="14"/>
     </row>
-    <row r="395" spans="1:14" ht="42.9">
+    <row r="395" spans="1:14" ht="42.9" hidden="1">
       <c r="A395" s="4"/>
       <c r="B395" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36428,7 +36428,7 @@
       <c r="M395" s="13"/>
       <c r="N395" s="14"/>
     </row>
-    <row r="396" spans="1:14" ht="57.9">
+    <row r="396" spans="1:14" ht="57.9" hidden="1">
       <c r="A396" s="31"/>
       <c r="B396" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36465,7 +36465,7 @@
       <c r="M396" s="13"/>
       <c r="N396" s="14"/>
     </row>
-    <row r="397" spans="1:14" ht="46.3">
+    <row r="397" spans="1:14" ht="46.3" hidden="1">
       <c r="A397" s="31"/>
       <c r="B397" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36502,7 +36502,7 @@
       <c r="M397" s="13"/>
       <c r="N397" s="14"/>
     </row>
-    <row r="398" spans="1:14" ht="30.9">
+    <row r="398" spans="1:14" ht="30.9" hidden="1">
       <c r="A398" s="22"/>
       <c r="B398" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36574,7 +36574,7 @@
       </c>
       <c r="N399" s="14"/>
     </row>
-    <row r="400" spans="1:14" ht="51.45">
+    <row r="400" spans="1:14" ht="51.45" hidden="1">
       <c r="A400" s="4"/>
       <c r="B400" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36611,7 +36611,7 @@
       <c r="M400" s="13"/>
       <c r="N400" s="14"/>
     </row>
-    <row r="401" spans="1:14" ht="21.45">
+    <row r="401" spans="1:14" ht="21.45" hidden="1">
       <c r="A401" s="4"/>
       <c r="B401" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36648,7 +36648,7 @@
       <c r="M401" s="13"/>
       <c r="N401" s="14"/>
     </row>
-    <row r="402" spans="1:14" ht="32.15">
+    <row r="402" spans="1:14" ht="32.15" hidden="1">
       <c r="A402" s="4"/>
       <c r="B402" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36685,7 +36685,7 @@
       <c r="M402" s="13"/>
       <c r="N402" s="14"/>
     </row>
-    <row r="403" spans="1:14" ht="21.45">
+    <row r="403" spans="1:14" ht="21.45" hidden="1">
       <c r="A403" s="4"/>
       <c r="B403" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36722,7 +36722,7 @@
       <c r="M403" s="13"/>
       <c r="N403" s="14"/>
     </row>
-    <row r="404" spans="1:14" ht="21.45">
+    <row r="404" spans="1:14" ht="21.45" hidden="1">
       <c r="A404" s="4"/>
       <c r="B404" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36759,7 +36759,7 @@
       <c r="M404" s="13"/>
       <c r="N404" s="14"/>
     </row>
-    <row r="405" spans="1:14" ht="20.6">
+    <row r="405" spans="1:14" ht="20.6" hidden="1">
       <c r="A405" s="4"/>
       <c r="B405" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="N406" s="14"/>
     </row>
-    <row r="407" spans="1:14" ht="41.15">
+    <row r="407" spans="1:14" ht="41.15" hidden="1">
       <c r="A407" s="4"/>
       <c r="B407" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36872,7 +36872,7 @@
       <c r="M407" s="13"/>
       <c r="N407" s="14"/>
     </row>
-    <row r="408" spans="1:14" ht="41.15">
+    <row r="408" spans="1:14" ht="41.15" hidden="1">
       <c r="A408" s="4"/>
       <c r="B408" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36909,7 +36909,7 @@
       <c r="M408" s="13"/>
       <c r="N408" s="14"/>
     </row>
-    <row r="409" spans="1:14" ht="61.75">
+    <row r="409" spans="1:14" ht="61.75" hidden="1">
       <c r="A409" s="4"/>
       <c r="B409" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36946,7 +36946,7 @@
       <c r="M409" s="13"/>
       <c r="N409" s="14"/>
     </row>
-    <row r="410" spans="1:14" ht="21.45">
+    <row r="410" spans="1:14" ht="21.45" hidden="1">
       <c r="A410" s="4"/>
       <c r="B410" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36983,7 +36983,7 @@
       <c r="M410" s="13"/>
       <c r="N410" s="14"/>
     </row>
-    <row r="411" spans="1:14" ht="21.45">
+    <row r="411" spans="1:14" ht="21.45" hidden="1">
       <c r="A411" s="4"/>
       <c r="B411" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37020,7 +37020,7 @@
       <c r="M411" s="13"/>
       <c r="N411" s="14"/>
     </row>
-    <row r="412" spans="1:14" ht="32.15">
+    <row r="412" spans="1:14" ht="32.15" hidden="1">
       <c r="A412" s="4"/>
       <c r="B412" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37057,7 +37057,7 @@
       <c r="M412" s="13"/>
       <c r="N412" s="14"/>
     </row>
-    <row r="413" spans="1:14" ht="64.3">
+    <row r="413" spans="1:14" ht="64.3" hidden="1">
       <c r="A413" s="4"/>
       <c r="B413" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37094,7 +37094,7 @@
       <c r="M413" s="13"/>
       <c r="N413" s="14"/>
     </row>
-    <row r="414" spans="1:14" ht="42.9">
+    <row r="414" spans="1:14" ht="42.9" hidden="1">
       <c r="A414" s="4"/>
       <c r="B414" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37131,7 +37131,7 @@
       <c r="M414" s="13"/>
       <c r="N414" s="14"/>
     </row>
-    <row r="415" spans="1:14" ht="32.15">
+    <row r="415" spans="1:14" ht="32.15" hidden="1">
       <c r="A415" s="4"/>
       <c r="B415" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37166,7 +37166,7 @@
       <c r="M415" s="13"/>
       <c r="N415" s="14"/>
     </row>
-    <row r="416" spans="1:14" ht="42.9">
+    <row r="416" spans="1:14" ht="42.9" hidden="1">
       <c r="A416" s="4"/>
       <c r="B416" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37203,7 +37203,7 @@
       <c r="M416" s="13"/>
       <c r="N416" s="14"/>
     </row>
-    <row r="417" spans="1:14" ht="42.9">
+    <row r="417" spans="1:14" ht="42.9" hidden="1">
       <c r="A417" s="4"/>
       <c r="B417" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37240,7 +37240,7 @@
       <c r="M417" s="13"/>
       <c r="N417" s="14"/>
     </row>
-    <row r="418" spans="1:14" ht="53.6">
+    <row r="418" spans="1:14" ht="53.6" hidden="1">
       <c r="A418" s="4"/>
       <c r="B418" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37277,7 +37277,7 @@
       <c r="M418" s="13"/>
       <c r="N418" s="14"/>
     </row>
-    <row r="419" spans="1:14" ht="51.45">
+    <row r="419" spans="1:14" ht="51.45" hidden="1">
       <c r="A419" s="4"/>
       <c r="B419" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37312,7 +37312,7 @@
       <c r="M419" s="13"/>
       <c r="N419" s="14"/>
     </row>
-    <row r="420" spans="1:14" ht="41.15">
+    <row r="420" spans="1:14" ht="41.15" hidden="1">
       <c r="A420" s="22"/>
       <c r="B420" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37347,7 +37347,7 @@
       <c r="M420" s="13"/>
       <c r="N420" s="14"/>
     </row>
-    <row r="421" spans="1:14" ht="30.9">
+    <row r="421" spans="1:14" ht="30.9" hidden="1">
       <c r="A421" s="22"/>
       <c r="B421" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37382,7 +37382,7 @@
       <c r="M421" s="13"/>
       <c r="N421" s="14"/>
     </row>
-    <row r="422" spans="1:14" ht="46.3">
+    <row r="422" spans="1:14" ht="46.3" hidden="1">
       <c r="A422" s="31"/>
       <c r="B422" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37540,7 +37540,7 @@
       </c>
       <c r="N425" s="14"/>
     </row>
-    <row r="426" spans="1:14" ht="51.45">
+    <row r="426" spans="1:14" ht="51.45" hidden="1">
       <c r="A426" s="4"/>
       <c r="B426" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37575,7 +37575,7 @@
       <c r="M426" s="13"/>
       <c r="N426" s="14"/>
     </row>
-    <row r="427" spans="1:14" ht="51.45">
+    <row r="427" spans="1:14" ht="51.45" hidden="1">
       <c r="A427" s="22"/>
       <c r="B427" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37610,7 +37610,7 @@
       <c r="M427" s="13"/>
       <c r="N427" s="14"/>
     </row>
-    <row r="428" spans="1:14" ht="82.3">
+    <row r="428" spans="1:14" ht="82.3" hidden="1">
       <c r="A428" s="22"/>
       <c r="B428" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37645,7 +37645,7 @@
       <c r="M428" s="13"/>
       <c r="N428" s="14"/>
     </row>
-    <row r="429" spans="1:14" ht="21.45">
+    <row r="429" spans="1:14" ht="21.45" hidden="1">
       <c r="A429" s="4"/>
       <c r="B429" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37682,7 +37682,7 @@
       <c r="M429" s="13"/>
       <c r="N429" s="14"/>
     </row>
-    <row r="430" spans="1:14" ht="42.9">
+    <row r="430" spans="1:14" ht="42.9" hidden="1">
       <c r="A430" s="4"/>
       <c r="B430" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37719,7 +37719,7 @@
       <c r="M430" s="13"/>
       <c r="N430" s="14"/>
     </row>
-    <row r="431" spans="1:14" ht="32.15">
+    <row r="431" spans="1:14" ht="32.15" hidden="1">
       <c r="A431" s="4"/>
       <c r="B431" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37756,7 +37756,7 @@
       <c r="M431" s="13"/>
       <c r="N431" s="14"/>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" hidden="1">
       <c r="A432" s="4"/>
       <c r="B432" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37793,7 +37793,7 @@
       <c r="M432" s="13"/>
       <c r="N432" s="14"/>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" hidden="1">
       <c r="A433" s="4"/>
       <c r="B433" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37830,7 +37830,7 @@
       <c r="M433" s="13"/>
       <c r="N433" s="14"/>
     </row>
-    <row r="434" spans="1:14" ht="30.9">
+    <row r="434" spans="1:14" ht="30.9" hidden="1">
       <c r="A434" s="4"/>
       <c r="B434" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37867,7 +37867,7 @@
       <c r="M434" s="13"/>
       <c r="N434" s="14"/>
     </row>
-    <row r="435" spans="1:14" ht="20.6">
+    <row r="435" spans="1:14" ht="20.6" hidden="1">
       <c r="A435" s="4"/>
       <c r="B435" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37904,7 +37904,7 @@
       <c r="M435" s="13"/>
       <c r="N435" s="14"/>
     </row>
-    <row r="436" spans="1:14" ht="41.15">
+    <row r="436" spans="1:14" ht="41.15" hidden="1">
       <c r="A436" s="4"/>
       <c r="B436" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37943,7 +37943,7 @@
       </c>
       <c r="N436" s="14"/>
     </row>
-    <row r="437" spans="1:14" ht="162">
+    <row r="437" spans="1:14" ht="162" hidden="1">
       <c r="A437" s="31"/>
       <c r="B437" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37982,7 +37982,7 @@
       </c>
       <c r="N437" s="14"/>
     </row>
-    <row r="438" spans="1:14" ht="34.75">
+    <row r="438" spans="1:14" ht="34.75" hidden="1">
       <c r="A438" s="31"/>
       <c r="B438" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38019,7 +38019,7 @@
       <c r="M438" s="13"/>
       <c r="N438" s="14"/>
     </row>
-    <row r="439" spans="1:14" ht="51.45">
+    <row r="439" spans="1:14" ht="51.45" hidden="1">
       <c r="A439" s="4"/>
       <c r="B439" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38054,7 +38054,7 @@
       </c>
       <c r="N439" s="14"/>
     </row>
-    <row r="440" spans="1:14" ht="42.9">
+    <row r="440" spans="1:14" ht="42.9" hidden="1">
       <c r="A440" s="4"/>
       <c r="B440" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38091,7 +38091,7 @@
       <c r="M440" s="13"/>
       <c r="N440" s="14"/>
     </row>
-    <row r="441" spans="1:14" ht="21.45">
+    <row r="441" spans="1:14" ht="21.45" hidden="1">
       <c r="A441" s="4"/>
       <c r="B441" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38128,7 +38128,7 @@
       <c r="M441" s="13"/>
       <c r="N441" s="14"/>
     </row>
-    <row r="442" spans="1:14" ht="32.15">
+    <row r="442" spans="1:14" ht="32.15" hidden="1">
       <c r="A442" s="4"/>
       <c r="B442" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38165,7 +38165,7 @@
       <c r="M442" s="13"/>
       <c r="N442" s="14"/>
     </row>
-    <row r="443" spans="1:14" ht="42.9">
+    <row r="443" spans="1:14" ht="42.9" hidden="1">
       <c r="A443" s="4"/>
       <c r="B443" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38202,7 +38202,7 @@
       <c r="M443" s="13"/>
       <c r="N443" s="14"/>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" hidden="1">
       <c r="A444" s="4"/>
       <c r="B444" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38239,7 +38239,7 @@
       <c r="M444" s="13"/>
       <c r="N444" s="14"/>
     </row>
-    <row r="445" spans="1:14" ht="30.9">
+    <row r="445" spans="1:14" ht="30.9" hidden="1">
       <c r="A445" s="4"/>
       <c r="B445" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38276,7 +38276,7 @@
       <c r="M445" s="13"/>
       <c r="N445" s="14"/>
     </row>
-    <row r="446" spans="1:14" ht="34.75">
+    <row r="446" spans="1:14" ht="34.75" hidden="1">
       <c r="A446" s="31"/>
       <c r="B446" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38315,7 +38315,7 @@
       <c r="M446" s="13"/>
       <c r="N446" s="14"/>
     </row>
-    <row r="447" spans="1:14" ht="162">
+    <row r="447" spans="1:14" ht="162" hidden="1">
       <c r="A447" s="31"/>
       <c r="B447" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38352,7 +38352,7 @@
       <c r="M447" s="13"/>
       <c r="N447" s="14"/>
     </row>
-    <row r="448" spans="1:14" ht="30.9">
+    <row r="448" spans="1:14" ht="30.9" hidden="1">
       <c r="A448" s="22"/>
       <c r="B448" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38391,7 +38391,7 @@
       </c>
       <c r="N448" s="14"/>
     </row>
-    <row r="449" spans="1:14" ht="30.9">
+    <row r="449" spans="1:14" ht="30.9" hidden="1">
       <c r="A449" s="4"/>
       <c r="B449" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38426,7 +38426,7 @@
       <c r="M449" s="13"/>
       <c r="N449" s="14"/>
     </row>
-    <row r="450" spans="1:14" ht="20.6">
+    <row r="450" spans="1:14" ht="20.6" hidden="1">
       <c r="A450" s="22"/>
       <c r="B450" s="4" t="str">
         <f t="shared" si="6"/>
@@ -38463,7 +38463,7 @@
       </c>
       <c r="N450" s="14"/>
     </row>
-    <row r="451" spans="1:14" ht="49.75">
+    <row r="451" spans="1:14" ht="49.75" hidden="1">
       <c r="A451" s="31"/>
       <c r="B451" s="4" t="str">
         <f t="shared" ref="B451:B488" si="7">IF(ISNUMBER(SEARCH("DONE",K451)),"DONE","")</f>
@@ -38504,7 +38504,7 @@
       </c>
       <c r="N451" s="14"/>
     </row>
-    <row r="452" spans="1:14" ht="20.6">
+    <row r="452" spans="1:14" ht="20.6" hidden="1">
       <c r="A452" s="4"/>
       <c r="B452" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38543,7 +38543,7 @@
       </c>
       <c r="N452" s="14"/>
     </row>
-    <row r="453" spans="1:14" ht="21.45">
+    <row r="453" spans="1:14" ht="21.45" hidden="1">
       <c r="A453" s="4"/>
       <c r="B453" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38578,7 +38578,7 @@
       <c r="M453" s="13"/>
       <c r="N453" s="14"/>
     </row>
-    <row r="454" spans="1:14" ht="72">
+    <row r="454" spans="1:14" ht="72" hidden="1">
       <c r="A454" s="4"/>
       <c r="B454" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38619,7 +38619,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="455" spans="1:14" ht="21.45">
+    <row r="455" spans="1:14" ht="21.45" hidden="1">
       <c r="A455" s="4"/>
       <c r="B455" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38654,7 +38654,7 @@
       <c r="M455" s="13"/>
       <c r="N455" s="14"/>
     </row>
-    <row r="456" spans="1:14" ht="41.15">
+    <row r="456" spans="1:14" ht="41.15" hidden="1">
       <c r="A456" s="4"/>
       <c r="B456" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38693,7 +38693,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="457" spans="1:14" ht="144">
+    <row r="457" spans="1:14" ht="144" hidden="1">
       <c r="A457" s="4"/>
       <c r="B457" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38732,7 +38732,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="458" spans="1:14" ht="21.45">
+    <row r="458" spans="1:14" ht="21.45" hidden="1">
       <c r="A458" s="4"/>
       <c r="B458" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38769,7 +38769,7 @@
       <c r="M458" s="13"/>
       <c r="N458" s="14"/>
     </row>
-    <row r="459" spans="1:14" ht="21.45">
+    <row r="459" spans="1:14" ht="21.45" hidden="1">
       <c r="A459" s="4"/>
       <c r="B459" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38806,7 +38806,7 @@
       <c r="M459" s="13"/>
       <c r="N459" s="14"/>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" hidden="1">
       <c r="A460" s="4"/>
       <c r="B460" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38843,7 +38843,7 @@
       <c r="M460" s="13"/>
       <c r="N460" s="14"/>
     </row>
-    <row r="461" spans="1:14" ht="20.6">
+    <row r="461" spans="1:14" ht="20.6" hidden="1">
       <c r="A461" s="4"/>
       <c r="B461" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38880,7 +38880,7 @@
       <c r="M461" s="13"/>
       <c r="N461" s="14"/>
     </row>
-    <row r="462" spans="1:14" ht="14.15">
+    <row r="462" spans="1:14" ht="14.15" hidden="1">
       <c r="A462" s="22"/>
       <c r="B462" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38915,7 +38915,7 @@
       <c r="M462" s="13"/>
       <c r="N462" s="14"/>
     </row>
-    <row r="463" spans="1:14" ht="69.45">
+    <row r="463" spans="1:14" ht="69.45" hidden="1">
       <c r="A463" s="31"/>
       <c r="B463" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38952,7 +38952,7 @@
       <c r="M463" s="13"/>
       <c r="N463" s="14"/>
     </row>
-    <row r="464" spans="1:14" ht="111.9">
+    <row r="464" spans="1:14" ht="111.9" hidden="1">
       <c r="A464" s="31"/>
       <c r="B464" s="4" t="str">
         <f t="shared" si="7"/>
@@ -38987,7 +38987,7 @@
       <c r="M464" s="13"/>
       <c r="N464" s="14"/>
     </row>
-    <row r="465" spans="1:14" ht="42.9">
+    <row r="465" spans="1:14" ht="42.9" hidden="1">
       <c r="A465" s="4"/>
       <c r="B465" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39022,7 +39022,7 @@
       <c r="M465" s="13"/>
       <c r="N465" s="14"/>
     </row>
-    <row r="466" spans="1:14" ht="20.6">
+    <row r="466" spans="1:14" ht="20.6" hidden="1">
       <c r="A466" s="22"/>
       <c r="B466" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39057,7 +39057,7 @@
       <c r="M466" s="13"/>
       <c r="N466" s="14"/>
     </row>
-    <row r="467" spans="1:14" ht="41.15">
+    <row r="467" spans="1:14" ht="41.15" hidden="1">
       <c r="A467" s="22"/>
       <c r="B467" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39096,7 +39096,7 @@
       </c>
       <c r="N467" s="14"/>
     </row>
-    <row r="468" spans="1:14" ht="34.75">
+    <row r="468" spans="1:14" ht="34.75" hidden="1">
       <c r="A468" s="31"/>
       <c r="B468" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39125,7 +39125,7 @@
       <c r="M468" s="13"/>
       <c r="N468" s="14"/>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" hidden="1">
       <c r="A469" s="4"/>
       <c r="B469" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39158,7 +39158,7 @@
       <c r="M469" s="13"/>
       <c r="N469" s="14"/>
     </row>
-    <row r="470" spans="1:14" ht="104.15">
+    <row r="470" spans="1:14" ht="104.15" hidden="1">
       <c r="A470" s="31"/>
       <c r="B470" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39193,7 +39193,7 @@
       <c r="M470" s="13"/>
       <c r="N470" s="14"/>
     </row>
-    <row r="471" spans="1:14" ht="21.45">
+    <row r="471" spans="1:14" ht="21.45" hidden="1">
       <c r="A471" s="4"/>
       <c r="B471" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39230,7 +39230,7 @@
       <c r="M471" s="13"/>
       <c r="N471" s="14"/>
     </row>
-    <row r="472" spans="1:14" ht="30.9">
+    <row r="472" spans="1:14" ht="30.9" hidden="1">
       <c r="A472" s="22"/>
       <c r="B472" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39271,7 +39271,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="473" spans="1:14" ht="30.9">
+    <row r="473" spans="1:14" ht="30.9" hidden="1">
       <c r="A473" s="4"/>
       <c r="B473" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39310,7 +39310,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="474" spans="1:14" ht="57.9">
+    <row r="474" spans="1:14" ht="57.9" hidden="1">
       <c r="A474" s="31"/>
       <c r="B474" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39347,7 +39347,7 @@
       </c>
       <c r="N474" s="14"/>
     </row>
-    <row r="475" spans="1:14" ht="32.15">
+    <row r="475" spans="1:14" ht="32.15" hidden="1">
       <c r="A475" s="4"/>
       <c r="B475" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39384,7 +39384,7 @@
       <c r="M475" s="13"/>
       <c r="N475" s="14"/>
     </row>
-    <row r="476" spans="1:14" ht="32.15">
+    <row r="476" spans="1:14" ht="32.15" hidden="1">
       <c r="A476" s="4"/>
       <c r="B476" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39421,7 +39421,7 @@
       <c r="M476" s="13"/>
       <c r="N476" s="14"/>
     </row>
-    <row r="477" spans="1:14" ht="267.45">
+    <row r="477" spans="1:14" ht="267.45" hidden="1">
       <c r="A477" s="22"/>
       <c r="B477" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39460,7 +39460,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="478" spans="1:14" ht="92.6">
+    <row r="478" spans="1:14" ht="92.6" hidden="1">
       <c r="A478" s="31"/>
       <c r="B478" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39499,7 +39499,7 @@
       </c>
       <c r="N478" s="14"/>
     </row>
-    <row r="479" spans="1:14" ht="30.9">
+    <row r="479" spans="1:14" ht="30.9" hidden="1">
       <c r="A479" s="4"/>
       <c r="B479" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39534,7 +39534,7 @@
       <c r="M479" s="13"/>
       <c r="N479" s="14"/>
     </row>
-    <row r="480" spans="1:14" ht="30.9">
+    <row r="480" spans="1:14" ht="30.9" hidden="1">
       <c r="A480" s="4"/>
       <c r="B480" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39571,7 +39571,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="481" spans="1:14" ht="30.9">
+    <row r="481" spans="1:14" ht="30.9" hidden="1">
       <c r="A481" s="4"/>
       <c r="B481" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39608,7 +39608,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="482" spans="1:14" ht="41.15">
+    <row r="482" spans="1:14" ht="41.15" hidden="1">
       <c r="A482" s="27"/>
       <c r="B482" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39647,7 +39647,7 @@
       </c>
       <c r="N482" s="14"/>
     </row>
-    <row r="483" spans="1:14" ht="20.6">
+    <row r="483" spans="1:14" ht="20.6" hidden="1">
       <c r="A483" s="4"/>
       <c r="B483" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39684,7 +39684,7 @@
       </c>
       <c r="N483" s="14"/>
     </row>
-    <row r="484" spans="1:14" ht="61.75">
+    <row r="484" spans="1:14" ht="61.75" hidden="1">
       <c r="A484" s="4"/>
       <c r="B484" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39719,7 +39719,7 @@
       </c>
       <c r="N484" s="14"/>
     </row>
-    <row r="485" spans="1:14" ht="41.15">
+    <row r="485" spans="1:14" ht="41.15" hidden="1">
       <c r="A485" s="4"/>
       <c r="B485" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39756,7 +39756,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="486" spans="1:14" ht="20.6">
+    <row r="486" spans="1:14" ht="20.6" hidden="1">
       <c r="A486" s="4"/>
       <c r="B486" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39787,7 +39787,7 @@
       <c r="M486" s="13"/>
       <c r="N486" s="14"/>
     </row>
-    <row r="487" spans="1:14" ht="30.9">
+    <row r="487" spans="1:14" ht="30.9" hidden="1">
       <c r="A487" s="4"/>
       <c r="B487" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39818,7 +39818,7 @@
       <c r="M487" s="13"/>
       <c r="N487" s="14"/>
     </row>
-    <row r="488" spans="1:14" ht="20.6">
+    <row r="488" spans="1:14" ht="20.6" hidden="1">
       <c r="A488" s="4"/>
       <c r="B488" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39849,7 +39849,7 @@
       <c r="M488" s="13"/>
       <c r="N488" s="14"/>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" hidden="1">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="23" t="s">
@@ -39867,7 +39867,7 @@
       <c r="M489" s="13"/>
       <c r="N489" s="14"/>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" hidden="1">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="23" t="s">
@@ -39885,7 +39885,7 @@
       <c r="M490" s="13"/>
       <c r="N490" s="14"/>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" hidden="1">
       <c r="A491" s="31"/>
       <c r="B491" s="31"/>
       <c r="C491" s="114"/>
@@ -39901,7 +39901,7 @@
       <c r="M491" s="13"/>
       <c r="N491" s="14"/>
     </row>
-    <row r="492" spans="1:14" ht="14.15">
+    <row r="492" spans="1:14" ht="14.15" hidden="1">
       <c r="A492" s="31"/>
       <c r="B492" s="31"/>
       <c r="C492" s="124"/>
@@ -39917,7 +39917,7 @@
       <c r="M492" s="13"/>
       <c r="N492" s="14"/>
     </row>
-    <row r="493" spans="1:14" ht="14.15">
+    <row r="493" spans="1:14" ht="14.15" hidden="1">
       <c r="A493" s="31"/>
       <c r="B493" s="31"/>
       <c r="C493" s="124"/>
@@ -39933,7 +39933,7 @@
       <c r="M493" s="13"/>
       <c r="N493" s="14"/>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" hidden="1">
       <c r="A494" s="31"/>
       <c r="B494" s="31"/>
       <c r="C494" s="126" t="s">
@@ -39951,7 +39951,7 @@
       <c r="M494" s="13"/>
       <c r="N494" s="14"/>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" hidden="1">
       <c r="A495" s="31"/>
       <c r="B495" s="31"/>
       <c r="C495" s="127"/>
@@ -39967,7 +39967,7 @@
       <c r="M495" s="13"/>
       <c r="N495" s="14"/>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" hidden="1">
       <c r="A496" s="31"/>
       <c r="B496" s="31"/>
       <c r="C496" s="126" t="s">
@@ -39985,7 +39985,7 @@
       <c r="M496" s="13"/>
       <c r="N496" s="14"/>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" hidden="1">
       <c r="A497" s="31"/>
       <c r="B497" s="31"/>
       <c r="C497" s="127"/>
@@ -40001,7 +40001,7 @@
       <c r="M497" s="13"/>
       <c r="N497" s="14"/>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" hidden="1">
       <c r="A498" s="31"/>
       <c r="B498" s="31"/>
       <c r="C498" s="126" t="s">
@@ -40019,7 +40019,7 @@
       <c r="M498" s="13"/>
       <c r="N498" s="14"/>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" hidden="1">
       <c r="A499" s="31"/>
       <c r="B499" s="31"/>
       <c r="C499" s="127"/>
@@ -40035,7 +40035,7 @@
       <c r="M499" s="13"/>
       <c r="N499" s="14"/>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" hidden="1">
       <c r="A500" s="31"/>
       <c r="B500" s="31"/>
       <c r="C500" s="126" t="s">
@@ -40053,7 +40053,7 @@
       <c r="M500" s="13"/>
       <c r="N500" s="14"/>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" hidden="1">
       <c r="A501" s="31"/>
       <c r="B501" s="31"/>
       <c r="C501" s="128"/>
@@ -40069,7 +40069,7 @@
       <c r="M501" s="13"/>
       <c r="N501" s="14"/>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" hidden="1">
       <c r="A502" s="31"/>
       <c r="B502" s="31"/>
       <c r="C502" s="128"/>
@@ -40085,7 +40085,7 @@
       <c r="M502" s="13"/>
       <c r="N502" s="14"/>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" hidden="1">
       <c r="A503" s="31"/>
       <c r="B503" s="31"/>
       <c r="C503" s="128"/>
@@ -40101,7 +40101,7 @@
       <c r="M503" s="13"/>
       <c r="N503" s="14"/>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" hidden="1">
       <c r="A504" s="31"/>
       <c r="B504" s="31"/>
       <c r="C504" s="128"/>
@@ -40117,7 +40117,7 @@
       <c r="M504" s="13"/>
       <c r="N504" s="14"/>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" hidden="1">
       <c r="A505" s="31"/>
       <c r="B505" s="31"/>
       <c r="C505" s="128"/>
@@ -40133,7 +40133,7 @@
       <c r="M505" s="13"/>
       <c r="N505" s="14"/>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" hidden="1">
       <c r="A506" s="31"/>
       <c r="B506" s="31"/>
       <c r="C506" s="128"/>
@@ -40149,7 +40149,7 @@
       <c r="M506" s="13"/>
       <c r="N506" s="14"/>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" hidden="1">
       <c r="A507" s="31"/>
       <c r="B507" s="31"/>
       <c r="C507" s="128"/>
@@ -40165,7 +40165,7 @@
       <c r="M507" s="13"/>
       <c r="N507" s="14"/>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" hidden="1">
       <c r="A508" s="31"/>
       <c r="B508" s="31"/>
       <c r="C508" s="128"/>
@@ -40181,7 +40181,7 @@
       <c r="M508" s="13"/>
       <c r="N508" s="14"/>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" hidden="1">
       <c r="A509" s="31"/>
       <c r="B509" s="31"/>
       <c r="C509" s="128"/>
@@ -40197,7 +40197,7 @@
       <c r="M509" s="13"/>
       <c r="N509" s="14"/>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" hidden="1">
       <c r="A510" s="31"/>
       <c r="B510" s="31"/>
       <c r="C510" s="128"/>
@@ -40213,7 +40213,7 @@
       <c r="M510" s="13"/>
       <c r="N510" s="14"/>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" hidden="1">
       <c r="A511" s="31"/>
       <c r="B511" s="31"/>
       <c r="C511" s="128"/>
@@ -40229,7 +40229,7 @@
       <c r="M511" s="13"/>
       <c r="N511" s="14"/>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" hidden="1">
       <c r="A512" s="31"/>
       <c r="B512" s="31"/>
       <c r="C512" s="128"/>
@@ -40245,7 +40245,7 @@
       <c r="M512" s="13"/>
       <c r="N512" s="14"/>
     </row>
-    <row r="513" spans="1:14">
+    <row r="513" spans="1:14" hidden="1">
       <c r="A513" s="31"/>
       <c r="B513" s="31"/>
       <c r="C513" s="128"/>
@@ -40261,7 +40261,7 @@
       <c r="M513" s="13"/>
       <c r="N513" s="14"/>
     </row>
-    <row r="514" spans="1:14">
+    <row r="514" spans="1:14" hidden="1">
       <c r="A514" s="31"/>
       <c r="B514" s="31"/>
       <c r="C514" s="128"/>
@@ -40277,7 +40277,7 @@
       <c r="M514" s="13"/>
       <c r="N514" s="14"/>
     </row>
-    <row r="515" spans="1:14">
+    <row r="515" spans="1:14" hidden="1">
       <c r="A515" s="31"/>
       <c r="B515" s="31"/>
       <c r="C515" s="128"/>
@@ -40293,7 +40293,7 @@
       <c r="M515" s="13"/>
       <c r="N515" s="14"/>
     </row>
-    <row r="516" spans="1:14">
+    <row r="516" spans="1:14" hidden="1">
       <c r="A516" s="31"/>
       <c r="B516" s="31"/>
       <c r="C516" s="128"/>
@@ -40309,7 +40309,7 @@
       <c r="M516" s="13"/>
       <c r="N516" s="14"/>
     </row>
-    <row r="517" spans="1:14">
+    <row r="517" spans="1:14" hidden="1">
       <c r="A517" s="31"/>
       <c r="B517" s="31"/>
       <c r="C517" s="128"/>
@@ -40325,7 +40325,7 @@
       <c r="M517" s="13"/>
       <c r="N517" s="14"/>
     </row>
-    <row r="518" spans="1:14">
+    <row r="518" spans="1:14" hidden="1">
       <c r="A518" s="31"/>
       <c r="B518" s="31"/>
       <c r="C518" s="128"/>
@@ -40341,7 +40341,7 @@
       <c r="M518" s="13"/>
       <c r="N518" s="14"/>
     </row>
-    <row r="519" spans="1:14">
+    <row r="519" spans="1:14" hidden="1">
       <c r="A519" s="31"/>
       <c r="B519" s="31"/>
       <c r="C519" s="128"/>
@@ -40357,7 +40357,7 @@
       <c r="M519" s="13"/>
       <c r="N519" s="14"/>
     </row>
-    <row r="520" spans="1:14">
+    <row r="520" spans="1:14" hidden="1">
       <c r="A520" s="31"/>
       <c r="B520" s="31"/>
       <c r="C520" s="128"/>
@@ -40373,7 +40373,7 @@
       <c r="M520" s="13"/>
       <c r="N520" s="14"/>
     </row>
-    <row r="521" spans="1:14">
+    <row r="521" spans="1:14" hidden="1">
       <c r="A521" s="31"/>
       <c r="B521" s="31"/>
       <c r="C521" s="128"/>
@@ -40389,7 +40389,7 @@
       <c r="M521" s="13"/>
       <c r="N521" s="14"/>
     </row>
-    <row r="522" spans="1:14">
+    <row r="522" spans="1:14" hidden="1">
       <c r="A522" s="31"/>
       <c r="B522" s="31"/>
       <c r="C522" s="128"/>
@@ -40405,7 +40405,7 @@
       <c r="M522" s="13"/>
       <c r="N522" s="14"/>
     </row>
-    <row r="523" spans="1:14">
+    <row r="523" spans="1:14" hidden="1">
       <c r="A523" s="31"/>
       <c r="B523" s="31"/>
       <c r="C523" s="128"/>
@@ -40421,7 +40421,7 @@
       <c r="M523" s="13"/>
       <c r="N523" s="14"/>
     </row>
-    <row r="524" spans="1:14">
+    <row r="524" spans="1:14" hidden="1">
       <c r="A524" s="31"/>
       <c r="B524" s="31"/>
       <c r="C524" s="128"/>
@@ -40437,7 +40437,7 @@
       <c r="M524" s="13"/>
       <c r="N524" s="14"/>
     </row>
-    <row r="525" spans="1:14">
+    <row r="525" spans="1:14" hidden="1">
       <c r="A525" s="31"/>
       <c r="B525" s="31"/>
       <c r="C525" s="128"/>
@@ -40453,7 +40453,7 @@
       <c r="M525" s="13"/>
       <c r="N525" s="14"/>
     </row>
-    <row r="526" spans="1:14">
+    <row r="526" spans="1:14" hidden="1">
       <c r="A526" s="31"/>
       <c r="B526" s="31"/>
       <c r="C526" s="128"/>
@@ -40469,7 +40469,7 @@
       <c r="M526" s="13"/>
       <c r="N526" s="14"/>
     </row>
-    <row r="527" spans="1:14">
+    <row r="527" spans="1:14" hidden="1">
       <c r="A527" s="31"/>
       <c r="B527" s="31"/>
       <c r="C527" s="128"/>
@@ -40485,7 +40485,7 @@
       <c r="M527" s="13"/>
       <c r="N527" s="14"/>
     </row>
-    <row r="528" spans="1:14">
+    <row r="528" spans="1:14" hidden="1">
       <c r="A528" s="31"/>
       <c r="B528" s="31"/>
       <c r="C528" s="128"/>
@@ -40501,7 +40501,7 @@
       <c r="M528" s="13"/>
       <c r="N528" s="14"/>
     </row>
-    <row r="529" spans="1:14">
+    <row r="529" spans="1:14" hidden="1">
       <c r="A529" s="31"/>
       <c r="B529" s="31"/>
       <c r="C529" s="128"/>
@@ -40517,7 +40517,7 @@
       <c r="M529" s="13"/>
       <c r="N529" s="14"/>
     </row>
-    <row r="530" spans="1:14">
+    <row r="530" spans="1:14" hidden="1">
       <c r="A530" s="31"/>
       <c r="B530" s="31"/>
       <c r="C530" s="128"/>
@@ -40533,7 +40533,7 @@
       <c r="M530" s="13"/>
       <c r="N530" s="14"/>
     </row>
-    <row r="531" spans="1:14">
+    <row r="531" spans="1:14" hidden="1">
       <c r="A531" s="31"/>
       <c r="B531" s="31"/>
       <c r="C531" s="128"/>
@@ -40549,7 +40549,7 @@
       <c r="M531" s="13"/>
       <c r="N531" s="14"/>
     </row>
-    <row r="532" spans="1:14">
+    <row r="532" spans="1:14" hidden="1">
       <c r="A532" s="31"/>
       <c r="B532" s="31"/>
       <c r="C532" s="128"/>
@@ -40565,7 +40565,7 @@
       <c r="M532" s="13"/>
       <c r="N532" s="14"/>
     </row>
-    <row r="533" spans="1:14">
+    <row r="533" spans="1:14" hidden="1">
       <c r="A533" s="31"/>
       <c r="B533" s="31"/>
       <c r="C533" s="128"/>
@@ -40581,7 +40581,7 @@
       <c r="M533" s="13"/>
       <c r="N533" s="14"/>
     </row>
-    <row r="534" spans="1:14">
+    <row r="534" spans="1:14" hidden="1">
       <c r="A534" s="31"/>
       <c r="B534" s="31"/>
       <c r="C534" s="128"/>
@@ -40597,7 +40597,7 @@
       <c r="M534" s="13"/>
       <c r="N534" s="14"/>
     </row>
-    <row r="535" spans="1:14">
+    <row r="535" spans="1:14" hidden="1">
       <c r="A535" s="31"/>
       <c r="B535" s="31"/>
       <c r="C535" s="128"/>
@@ -40613,7 +40613,7 @@
       <c r="M535" s="13"/>
       <c r="N535" s="14"/>
     </row>
-    <row r="536" spans="1:14">
+    <row r="536" spans="1:14" hidden="1">
       <c r="A536" s="31"/>
       <c r="B536" s="31"/>
       <c r="C536" s="128"/>
@@ -40629,7 +40629,7 @@
       <c r="M536" s="13"/>
       <c r="N536" s="14"/>
     </row>
-    <row r="537" spans="1:14">
+    <row r="537" spans="1:14" hidden="1">
       <c r="A537" s="31"/>
       <c r="B537" s="31"/>
       <c r="C537" s="128"/>
@@ -40645,7 +40645,7 @@
       <c r="M537" s="13"/>
       <c r="N537" s="14"/>
     </row>
-    <row r="538" spans="1:14">
+    <row r="538" spans="1:14" hidden="1">
       <c r="A538" s="31"/>
       <c r="B538" s="31"/>
       <c r="C538" s="128"/>
@@ -40661,7 +40661,7 @@
       <c r="M538" s="13"/>
       <c r="N538" s="14"/>
     </row>
-    <row r="539" spans="1:14">
+    <row r="539" spans="1:14" hidden="1">
       <c r="A539" s="31"/>
       <c r="B539" s="31"/>
       <c r="C539" s="128"/>
@@ -40677,7 +40677,7 @@
       <c r="M539" s="13"/>
       <c r="N539" s="14"/>
     </row>
-    <row r="540" spans="1:14">
+    <row r="540" spans="1:14" hidden="1">
       <c r="A540" s="31"/>
       <c r="B540" s="31"/>
       <c r="C540" s="128"/>
@@ -40693,7 +40693,7 @@
       <c r="M540" s="13"/>
       <c r="N540" s="14"/>
     </row>
-    <row r="541" spans="1:14">
+    <row r="541" spans="1:14" hidden="1">
       <c r="A541" s="31"/>
       <c r="B541" s="31"/>
       <c r="C541" s="128"/>
@@ -40709,7 +40709,7 @@
       <c r="M541" s="13"/>
       <c r="N541" s="14"/>
     </row>
-    <row r="542" spans="1:14">
+    <row r="542" spans="1:14" hidden="1">
       <c r="A542" s="31"/>
       <c r="B542" s="31"/>
       <c r="C542" s="128"/>
@@ -40725,7 +40725,7 @@
       <c r="M542" s="13"/>
       <c r="N542" s="14"/>
     </row>
-    <row r="543" spans="1:14">
+    <row r="543" spans="1:14" hidden="1">
       <c r="A543" s="31"/>
       <c r="B543" s="31"/>
       <c r="C543" s="128"/>
@@ -40741,7 +40741,7 @@
       <c r="M543" s="13"/>
       <c r="N543" s="14"/>
     </row>
-    <row r="544" spans="1:14">
+    <row r="544" spans="1:14" hidden="1">
       <c r="A544" s="31"/>
       <c r="B544" s="31"/>
       <c r="C544" s="128"/>
@@ -40757,7 +40757,7 @@
       <c r="M544" s="13"/>
       <c r="N544" s="14"/>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" hidden="1">
       <c r="A545" s="31"/>
       <c r="B545" s="31"/>
       <c r="C545" s="128"/>
@@ -40773,7 +40773,7 @@
       <c r="M545" s="13"/>
       <c r="N545" s="14"/>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" hidden="1">
       <c r="A546" s="31"/>
       <c r="B546" s="31"/>
       <c r="C546" s="128"/>
@@ -40789,7 +40789,7 @@
       <c r="M546" s="13"/>
       <c r="N546" s="14"/>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" hidden="1">
       <c r="A547" s="31"/>
       <c r="B547" s="31"/>
       <c r="C547" s="128"/>
@@ -40805,7 +40805,7 @@
       <c r="M547" s="13"/>
       <c r="N547" s="14"/>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" hidden="1">
       <c r="A548" s="31"/>
       <c r="B548" s="31"/>
       <c r="C548" s="128"/>
@@ -40821,7 +40821,7 @@
       <c r="M548" s="13"/>
       <c r="N548" s="14"/>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" hidden="1">
       <c r="A549" s="31"/>
       <c r="B549" s="31"/>
       <c r="C549" s="128"/>
@@ -40837,7 +40837,7 @@
       <c r="M549" s="13"/>
       <c r="N549" s="14"/>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" hidden="1">
       <c r="A550" s="31"/>
       <c r="B550" s="31"/>
       <c r="C550" s="128"/>
@@ -40853,7 +40853,7 @@
       <c r="M550" s="13"/>
       <c r="N550" s="14"/>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" hidden="1">
       <c r="A551" s="31"/>
       <c r="B551" s="31"/>
       <c r="C551" s="128"/>
@@ -40869,7 +40869,7 @@
       <c r="M551" s="13"/>
       <c r="N551" s="14"/>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" hidden="1">
       <c r="A552" s="31"/>
       <c r="B552" s="31"/>
       <c r="C552" s="128"/>
@@ -40885,7 +40885,7 @@
       <c r="M552" s="13"/>
       <c r="N552" s="14"/>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" hidden="1">
       <c r="A553" s="31"/>
       <c r="B553" s="31"/>
       <c r="C553" s="128"/>
@@ -40901,7 +40901,7 @@
       <c r="M553" s="13"/>
       <c r="N553" s="14"/>
     </row>
-    <row r="554" spans="1:14">
+    <row r="554" spans="1:14" hidden="1">
       <c r="A554" s="31"/>
       <c r="B554" s="31"/>
       <c r="C554" s="128"/>
@@ -40917,7 +40917,7 @@
       <c r="M554" s="13"/>
       <c r="N554" s="14"/>
     </row>
-    <row r="555" spans="1:14">
+    <row r="555" spans="1:14" hidden="1">
       <c r="A555" s="31"/>
       <c r="B555" s="31"/>
       <c r="C555" s="128"/>
@@ -40933,7 +40933,7 @@
       <c r="M555" s="13"/>
       <c r="N555" s="14"/>
     </row>
-    <row r="556" spans="1:14">
+    <row r="556" spans="1:14" hidden="1">
       <c r="A556" s="31"/>
       <c r="B556" s="31"/>
       <c r="C556" s="128"/>
@@ -40949,7 +40949,7 @@
       <c r="M556" s="13"/>
       <c r="N556" s="14"/>
     </row>
-    <row r="557" spans="1:14">
+    <row r="557" spans="1:14" hidden="1">
       <c r="A557" s="31"/>
       <c r="B557" s="31"/>
       <c r="C557" s="128"/>
@@ -40965,7 +40965,7 @@
       <c r="M557" s="13"/>
       <c r="N557" s="14"/>
     </row>
-    <row r="558" spans="1:14">
+    <row r="558" spans="1:14" hidden="1">
       <c r="A558" s="31"/>
       <c r="B558" s="31"/>
       <c r="C558" s="128"/>
@@ -40981,7 +40981,7 @@
       <c r="M558" s="13"/>
       <c r="N558" s="14"/>
     </row>
-    <row r="559" spans="1:14">
+    <row r="559" spans="1:14" hidden="1">
       <c r="A559" s="31"/>
       <c r="B559" s="31"/>
       <c r="C559" s="128"/>
@@ -40997,7 +40997,7 @@
       <c r="M559" s="13"/>
       <c r="N559" s="14"/>
     </row>
-    <row r="560" spans="1:14">
+    <row r="560" spans="1:14" hidden="1">
       <c r="A560" s="31"/>
       <c r="B560" s="31"/>
       <c r="C560" s="128"/>
@@ -41013,7 +41013,7 @@
       <c r="M560" s="13"/>
       <c r="N560" s="14"/>
     </row>
-    <row r="561" spans="1:14">
+    <row r="561" spans="1:14" hidden="1">
       <c r="A561" s="31"/>
       <c r="B561" s="31"/>
       <c r="C561" s="128"/>
@@ -41029,7 +41029,7 @@
       <c r="M561" s="13"/>
       <c r="N561" s="14"/>
     </row>
-    <row r="562" spans="1:14">
+    <row r="562" spans="1:14" hidden="1">
       <c r="A562" s="31"/>
       <c r="B562" s="31"/>
       <c r="C562" s="128"/>
@@ -41045,7 +41045,7 @@
       <c r="M562" s="13"/>
       <c r="N562" s="14"/>
     </row>
-    <row r="563" spans="1:14">
+    <row r="563" spans="1:14" hidden="1">
       <c r="A563" s="31"/>
       <c r="B563" s="31"/>
       <c r="C563" s="128"/>
@@ -41061,7 +41061,7 @@
       <c r="M563" s="13"/>
       <c r="N563" s="14"/>
     </row>
-    <row r="564" spans="1:14">
+    <row r="564" spans="1:14" hidden="1">
       <c r="A564" s="31"/>
       <c r="B564" s="31"/>
       <c r="C564" s="128"/>
@@ -41077,7 +41077,7 @@
       <c r="M564" s="13"/>
       <c r="N564" s="14"/>
     </row>
-    <row r="565" spans="1:14">
+    <row r="565" spans="1:14" hidden="1">
       <c r="A565" s="31"/>
       <c r="B565" s="31"/>
       <c r="C565" s="128"/>
@@ -41093,7 +41093,7 @@
       <c r="M565" s="13"/>
       <c r="N565" s="14"/>
     </row>
-    <row r="566" spans="1:14">
+    <row r="566" spans="1:14" hidden="1">
       <c r="A566" s="31"/>
       <c r="B566" s="31"/>
       <c r="C566" s="128"/>
@@ -41109,7 +41109,7 @@
       <c r="M566" s="13"/>
       <c r="N566" s="14"/>
     </row>
-    <row r="567" spans="1:14">
+    <row r="567" spans="1:14" hidden="1">
       <c r="A567" s="31"/>
       <c r="B567" s="31"/>
       <c r="C567" s="128"/>
@@ -41125,7 +41125,7 @@
       <c r="M567" s="13"/>
       <c r="N567" s="14"/>
     </row>
-    <row r="568" spans="1:14">
+    <row r="568" spans="1:14" hidden="1">
       <c r="A568" s="31"/>
       <c r="B568" s="31"/>
       <c r="C568" s="128"/>
@@ -41141,7 +41141,7 @@
       <c r="M568" s="13"/>
       <c r="N568" s="14"/>
     </row>
-    <row r="569" spans="1:14">
+    <row r="569" spans="1:14" hidden="1">
       <c r="A569" s="31"/>
       <c r="B569" s="31"/>
       <c r="C569" s="128"/>
@@ -41157,7 +41157,7 @@
       <c r="M569" s="13"/>
       <c r="N569" s="14"/>
     </row>
-    <row r="570" spans="1:14">
+    <row r="570" spans="1:14" hidden="1">
       <c r="A570" s="31"/>
       <c r="B570" s="31"/>
       <c r="C570" s="128"/>
@@ -41173,7 +41173,7 @@
       <c r="M570" s="13"/>
       <c r="N570" s="14"/>
     </row>
-    <row r="571" spans="1:14">
+    <row r="571" spans="1:14" hidden="1">
       <c r="A571" s="31"/>
       <c r="B571" s="31"/>
       <c r="C571" s="128"/>
@@ -41189,7 +41189,7 @@
       <c r="M571" s="13"/>
       <c r="N571" s="14"/>
     </row>
-    <row r="572" spans="1:14">
+    <row r="572" spans="1:14" hidden="1">
       <c r="A572" s="31"/>
       <c r="B572" s="31"/>
       <c r="C572" s="128"/>
@@ -41205,7 +41205,7 @@
       <c r="M572" s="13"/>
       <c r="N572" s="14"/>
     </row>
-    <row r="573" spans="1:14">
+    <row r="573" spans="1:14" hidden="1">
       <c r="A573" s="31"/>
       <c r="B573" s="31"/>
       <c r="C573" s="128"/>
@@ -41221,7 +41221,7 @@
       <c r="M573" s="13"/>
       <c r="N573" s="14"/>
     </row>
-    <row r="574" spans="1:14">
+    <row r="574" spans="1:14" hidden="1">
       <c r="A574" s="31"/>
       <c r="B574" s="31"/>
       <c r="C574" s="128"/>
@@ -41237,7 +41237,7 @@
       <c r="M574" s="13"/>
       <c r="N574" s="14"/>
     </row>
-    <row r="575" spans="1:14">
+    <row r="575" spans="1:14" hidden="1">
       <c r="A575" s="31"/>
       <c r="B575" s="31"/>
       <c r="C575" s="128"/>
@@ -41253,7 +41253,7 @@
       <c r="M575" s="13"/>
       <c r="N575" s="14"/>
     </row>
-    <row r="576" spans="1:14">
+    <row r="576" spans="1:14" hidden="1">
       <c r="A576" s="31"/>
       <c r="B576" s="31"/>
       <c r="C576" s="128"/>
@@ -41269,7 +41269,7 @@
       <c r="M576" s="13"/>
       <c r="N576" s="14"/>
     </row>
-    <row r="577" spans="1:14">
+    <row r="577" spans="1:14" hidden="1">
       <c r="A577" s="31"/>
       <c r="B577" s="31"/>
       <c r="C577" s="128"/>
@@ -41285,7 +41285,7 @@
       <c r="M577" s="13"/>
       <c r="N577" s="14"/>
     </row>
-    <row r="578" spans="1:14">
+    <row r="578" spans="1:14" hidden="1">
       <c r="A578" s="31"/>
       <c r="B578" s="31"/>
       <c r="C578" s="128"/>
@@ -41301,7 +41301,7 @@
       <c r="M578" s="13"/>
       <c r="N578" s="14"/>
     </row>
-    <row r="579" spans="1:14">
+    <row r="579" spans="1:14" hidden="1">
       <c r="A579" s="31"/>
       <c r="B579" s="31"/>
       <c r="C579" s="128"/>
@@ -41317,7 +41317,7 @@
       <c r="M579" s="13"/>
       <c r="N579" s="14"/>
     </row>
-    <row r="580" spans="1:14">
+    <row r="580" spans="1:14" hidden="1">
       <c r="A580" s="31"/>
       <c r="B580" s="31"/>
       <c r="C580" s="128"/>
@@ -41333,7 +41333,7 @@
       <c r="M580" s="13"/>
       <c r="N580" s="14"/>
     </row>
-    <row r="581" spans="1:14">
+    <row r="581" spans="1:14" hidden="1">
       <c r="A581" s="31"/>
       <c r="B581" s="31"/>
       <c r="C581" s="128"/>
@@ -41349,7 +41349,7 @@
       <c r="M581" s="13"/>
       <c r="N581" s="14"/>
     </row>
-    <row r="582" spans="1:14">
+    <row r="582" spans="1:14" hidden="1">
       <c r="A582" s="31"/>
       <c r="B582" s="31"/>
       <c r="C582" s="128"/>
@@ -41365,7 +41365,7 @@
       <c r="M582" s="13"/>
       <c r="N582" s="14"/>
     </row>
-    <row r="583" spans="1:14">
+    <row r="583" spans="1:14" hidden="1">
       <c r="A583" s="31"/>
       <c r="B583" s="31"/>
       <c r="C583" s="128"/>
@@ -41381,7 +41381,7 @@
       <c r="M583" s="13"/>
       <c r="N583" s="14"/>
     </row>
-    <row r="584" spans="1:14">
+    <row r="584" spans="1:14" hidden="1">
       <c r="A584" s="31"/>
       <c r="B584" s="31"/>
       <c r="C584" s="128"/>
@@ -41397,7 +41397,7 @@
       <c r="M584" s="13"/>
       <c r="N584" s="14"/>
     </row>
-    <row r="585" spans="1:14">
+    <row r="585" spans="1:14" hidden="1">
       <c r="A585" s="31"/>
       <c r="B585" s="31"/>
       <c r="C585" s="128"/>
@@ -41413,7 +41413,7 @@
       <c r="M585" s="13"/>
       <c r="N585" s="14"/>
     </row>
-    <row r="586" spans="1:14">
+    <row r="586" spans="1:14" hidden="1">
       <c r="A586" s="31"/>
       <c r="B586" s="31"/>
       <c r="C586" s="128"/>
@@ -41429,7 +41429,7 @@
       <c r="M586" s="13"/>
       <c r="N586" s="14"/>
     </row>
-    <row r="587" spans="1:14">
+    <row r="587" spans="1:14" hidden="1">
       <c r="A587" s="31"/>
       <c r="B587" s="31"/>
       <c r="C587" s="128"/>
@@ -41445,7 +41445,7 @@
       <c r="M587" s="13"/>
       <c r="N587" s="14"/>
     </row>
-    <row r="588" spans="1:14">
+    <row r="588" spans="1:14" hidden="1">
       <c r="A588" s="31"/>
       <c r="B588" s="31"/>
       <c r="C588" s="128"/>
@@ -41461,7 +41461,7 @@
       <c r="M588" s="13"/>
       <c r="N588" s="14"/>
     </row>
-    <row r="589" spans="1:14">
+    <row r="589" spans="1:14" hidden="1">
       <c r="A589" s="31"/>
       <c r="B589" s="31"/>
       <c r="C589" s="128"/>
@@ -41477,7 +41477,7 @@
       <c r="M589" s="13"/>
       <c r="N589" s="14"/>
     </row>
-    <row r="590" spans="1:14">
+    <row r="590" spans="1:14" hidden="1">
       <c r="A590" s="31"/>
       <c r="B590" s="31"/>
       <c r="C590" s="128"/>
@@ -41493,7 +41493,7 @@
       <c r="M590" s="13"/>
       <c r="N590" s="14"/>
     </row>
-    <row r="591" spans="1:14">
+    <row r="591" spans="1:14" hidden="1">
       <c r="A591" s="31"/>
       <c r="B591" s="31"/>
       <c r="C591" s="128"/>
@@ -41509,7 +41509,7 @@
       <c r="M591" s="13"/>
       <c r="N591" s="14"/>
     </row>
-    <row r="592" spans="1:14">
+    <row r="592" spans="1:14" hidden="1">
       <c r="A592" s="31"/>
       <c r="B592" s="31"/>
       <c r="C592" s="128"/>
@@ -41525,7 +41525,7 @@
       <c r="M592" s="13"/>
       <c r="N592" s="14"/>
     </row>
-    <row r="593" spans="1:14">
+    <row r="593" spans="1:14" hidden="1">
       <c r="A593" s="31"/>
       <c r="B593" s="31"/>
       <c r="C593" s="128"/>
@@ -41541,7 +41541,7 @@
       <c r="M593" s="13"/>
       <c r="N593" s="14"/>
     </row>
-    <row r="594" spans="1:14">
+    <row r="594" spans="1:14" hidden="1">
       <c r="A594" s="31"/>
       <c r="B594" s="31"/>
       <c r="C594" s="128"/>
@@ -41557,7 +41557,7 @@
       <c r="M594" s="13"/>
       <c r="N594" s="14"/>
     </row>
-    <row r="595" spans="1:14">
+    <row r="595" spans="1:14" hidden="1">
       <c r="A595" s="31"/>
       <c r="B595" s="31"/>
       <c r="C595" s="128"/>
@@ -41573,7 +41573,7 @@
       <c r="M595" s="13"/>
       <c r="N595" s="14"/>
     </row>
-    <row r="596" spans="1:14">
+    <row r="596" spans="1:14" hidden="1">
       <c r="A596" s="31"/>
       <c r="B596" s="31"/>
       <c r="C596" s="128"/>
@@ -41589,7 +41589,7 @@
       <c r="M596" s="13"/>
       <c r="N596" s="14"/>
     </row>
-    <row r="597" spans="1:14">
+    <row r="597" spans="1:14" hidden="1">
       <c r="A597" s="31"/>
       <c r="B597" s="31"/>
       <c r="C597" s="128"/>
@@ -41605,7 +41605,7 @@
       <c r="M597" s="13"/>
       <c r="N597" s="14"/>
     </row>
-    <row r="598" spans="1:14">
+    <row r="598" spans="1:14" hidden="1">
       <c r="A598" s="31"/>
       <c r="B598" s="31"/>
       <c r="C598" s="128"/>
@@ -41621,7 +41621,7 @@
       <c r="M598" s="13"/>
       <c r="N598" s="14"/>
     </row>
-    <row r="599" spans="1:14">
+    <row r="599" spans="1:14" hidden="1">
       <c r="A599" s="31"/>
       <c r="B599" s="31"/>
       <c r="C599" s="128"/>
@@ -41637,7 +41637,7 @@
       <c r="M599" s="13"/>
       <c r="N599" s="14"/>
     </row>
-    <row r="600" spans="1:14">
+    <row r="600" spans="1:14" hidden="1">
       <c r="A600" s="31"/>
       <c r="B600" s="31"/>
       <c r="C600" s="128"/>
@@ -41653,7 +41653,7 @@
       <c r="M600" s="13"/>
       <c r="N600" s="14"/>
     </row>
-    <row r="601" spans="1:14">
+    <row r="601" spans="1:14" hidden="1">
       <c r="A601" s="31"/>
       <c r="B601" s="31"/>
       <c r="C601" s="128"/>
@@ -41669,7 +41669,7 @@
       <c r="M601" s="13"/>
       <c r="N601" s="14"/>
     </row>
-    <row r="602" spans="1:14">
+    <row r="602" spans="1:14" hidden="1">
       <c r="A602" s="31"/>
       <c r="B602" s="31"/>
       <c r="C602" s="128"/>
@@ -41685,7 +41685,7 @@
       <c r="M602" s="13"/>
       <c r="N602" s="14"/>
     </row>
-    <row r="603" spans="1:14">
+    <row r="603" spans="1:14" hidden="1">
       <c r="A603" s="31"/>
       <c r="B603" s="31"/>
       <c r="C603" s="128"/>
@@ -41701,7 +41701,7 @@
       <c r="M603" s="13"/>
       <c r="N603" s="14"/>
     </row>
-    <row r="604" spans="1:14">
+    <row r="604" spans="1:14" hidden="1">
       <c r="A604" s="31"/>
       <c r="B604" s="31"/>
       <c r="C604" s="128"/>
@@ -41717,7 +41717,7 @@
       <c r="M604" s="13"/>
       <c r="N604" s="14"/>
     </row>
-    <row r="605" spans="1:14">
+    <row r="605" spans="1:14" hidden="1">
       <c r="A605" s="31"/>
       <c r="B605" s="31"/>
       <c r="C605" s="128"/>
@@ -41733,7 +41733,7 @@
       <c r="M605" s="13"/>
       <c r="N605" s="14"/>
     </row>
-    <row r="606" spans="1:14">
+    <row r="606" spans="1:14" hidden="1">
       <c r="A606" s="31"/>
       <c r="B606" s="31"/>
       <c r="C606" s="128"/>
@@ -41749,7 +41749,7 @@
       <c r="M606" s="13"/>
       <c r="N606" s="14"/>
     </row>
-    <row r="607" spans="1:14">
+    <row r="607" spans="1:14" hidden="1">
       <c r="A607" s="31"/>
       <c r="B607" s="31"/>
       <c r="C607" s="128"/>
@@ -41765,7 +41765,7 @@
       <c r="M607" s="13"/>
       <c r="N607" s="14"/>
     </row>
-    <row r="608" spans="1:14">
+    <row r="608" spans="1:14" hidden="1">
       <c r="A608" s="31"/>
       <c r="B608" s="31"/>
       <c r="C608" s="128"/>
@@ -41781,7 +41781,7 @@
       <c r="M608" s="13"/>
       <c r="N608" s="14"/>
     </row>
-    <row r="609" spans="1:14">
+    <row r="609" spans="1:14" hidden="1">
       <c r="A609" s="31"/>
       <c r="B609" s="31"/>
       <c r="C609" s="128"/>
@@ -41797,7 +41797,7 @@
       <c r="M609" s="13"/>
       <c r="N609" s="14"/>
     </row>
-    <row r="610" spans="1:14">
+    <row r="610" spans="1:14" hidden="1">
       <c r="A610" s="31"/>
       <c r="B610" s="31"/>
       <c r="C610" s="128"/>
@@ -41813,7 +41813,7 @@
       <c r="M610" s="13"/>
       <c r="N610" s="14"/>
     </row>
-    <row r="611" spans="1:14">
+    <row r="611" spans="1:14" hidden="1">
       <c r="A611" s="31"/>
       <c r="B611" s="31"/>
       <c r="C611" s="128"/>
@@ -41829,7 +41829,7 @@
       <c r="M611" s="13"/>
       <c r="N611" s="14"/>
     </row>
-    <row r="612" spans="1:14">
+    <row r="612" spans="1:14" hidden="1">
       <c r="A612" s="31"/>
       <c r="B612" s="31"/>
       <c r="C612" s="128"/>
@@ -41845,7 +41845,7 @@
       <c r="M612" s="13"/>
       <c r="N612" s="14"/>
     </row>
-    <row r="613" spans="1:14">
+    <row r="613" spans="1:14" hidden="1">
       <c r="A613" s="31"/>
       <c r="B613" s="31"/>
       <c r="C613" s="128"/>
@@ -41861,7 +41861,7 @@
       <c r="M613" s="13"/>
       <c r="N613" s="14"/>
     </row>
-    <row r="614" spans="1:14">
+    <row r="614" spans="1:14" hidden="1">
       <c r="A614" s="31"/>
       <c r="B614" s="31"/>
       <c r="C614" s="128"/>
@@ -41877,7 +41877,7 @@
       <c r="M614" s="13"/>
       <c r="N614" s="14"/>
     </row>
-    <row r="615" spans="1:14">
+    <row r="615" spans="1:14" hidden="1">
       <c r="A615" s="31"/>
       <c r="B615" s="31"/>
       <c r="C615" s="128"/>
@@ -41893,7 +41893,7 @@
       <c r="M615" s="13"/>
       <c r="N615" s="14"/>
     </row>
-    <row r="616" spans="1:14">
+    <row r="616" spans="1:14" hidden="1">
       <c r="A616" s="31"/>
       <c r="B616" s="31"/>
       <c r="C616" s="128"/>
@@ -41909,7 +41909,7 @@
       <c r="M616" s="13"/>
       <c r="N616" s="14"/>
     </row>
-    <row r="617" spans="1:14">
+    <row r="617" spans="1:14" hidden="1">
       <c r="A617" s="31"/>
       <c r="B617" s="31"/>
       <c r="C617" s="128"/>
@@ -41925,7 +41925,7 @@
       <c r="M617" s="13"/>
       <c r="N617" s="14"/>
     </row>
-    <row r="618" spans="1:14">
+    <row r="618" spans="1:14" hidden="1">
       <c r="A618" s="31"/>
       <c r="B618" s="31"/>
       <c r="C618" s="128"/>
@@ -41941,7 +41941,7 @@
       <c r="M618" s="13"/>
       <c r="N618" s="14"/>
     </row>
-    <row r="619" spans="1:14">
+    <row r="619" spans="1:14" hidden="1">
       <c r="A619" s="31"/>
       <c r="B619" s="31"/>
       <c r="C619" s="128"/>
@@ -41957,7 +41957,7 @@
       <c r="M619" s="13"/>
       <c r="N619" s="14"/>
     </row>
-    <row r="620" spans="1:14">
+    <row r="620" spans="1:14" hidden="1">
       <c r="A620" s="31"/>
       <c r="B620" s="31"/>
       <c r="C620" s="128"/>
@@ -41973,7 +41973,7 @@
       <c r="M620" s="13"/>
       <c r="N620" s="14"/>
     </row>
-    <row r="621" spans="1:14">
+    <row r="621" spans="1:14" hidden="1">
       <c r="A621" s="31"/>
       <c r="B621" s="31"/>
       <c r="C621" s="128"/>
@@ -41989,7 +41989,7 @@
       <c r="M621" s="13"/>
       <c r="N621" s="14"/>
     </row>
-    <row r="622" spans="1:14">
+    <row r="622" spans="1:14" hidden="1">
       <c r="A622" s="31"/>
       <c r="B622" s="31"/>
       <c r="C622" s="128"/>
@@ -42005,7 +42005,7 @@
       <c r="M622" s="13"/>
       <c r="N622" s="14"/>
     </row>
-    <row r="623" spans="1:14">
+    <row r="623" spans="1:14" hidden="1">
       <c r="A623" s="31"/>
       <c r="B623" s="31"/>
       <c r="C623" s="128"/>
@@ -42021,7 +42021,7 @@
       <c r="M623" s="13"/>
       <c r="N623" s="14"/>
     </row>
-    <row r="624" spans="1:14">
+    <row r="624" spans="1:14" hidden="1">
       <c r="A624" s="31"/>
       <c r="B624" s="31"/>
       <c r="C624" s="128"/>
@@ -42037,7 +42037,7 @@
       <c r="M624" s="13"/>
       <c r="N624" s="14"/>
     </row>
-    <row r="625" spans="1:14">
+    <row r="625" spans="1:14" hidden="1">
       <c r="A625" s="31"/>
       <c r="B625" s="31"/>
       <c r="C625" s="128"/>
@@ -42053,7 +42053,7 @@
       <c r="M625" s="13"/>
       <c r="N625" s="14"/>
     </row>
-    <row r="626" spans="1:14">
+    <row r="626" spans="1:14" hidden="1">
       <c r="A626" s="31"/>
       <c r="B626" s="31"/>
       <c r="C626" s="128"/>
@@ -42069,7 +42069,7 @@
       <c r="M626" s="13"/>
       <c r="N626" s="14"/>
     </row>
-    <row r="627" spans="1:14">
+    <row r="627" spans="1:14" hidden="1">
       <c r="A627" s="31"/>
       <c r="B627" s="31"/>
       <c r="C627" s="128"/>
@@ -42085,7 +42085,7 @@
       <c r="M627" s="13"/>
       <c r="N627" s="14"/>
     </row>
-    <row r="628" spans="1:14">
+    <row r="628" spans="1:14" hidden="1">
       <c r="A628" s="31"/>
       <c r="B628" s="31"/>
       <c r="C628" s="128"/>
@@ -42101,7 +42101,7 @@
       <c r="M628" s="13"/>
       <c r="N628" s="14"/>
     </row>
-    <row r="629" spans="1:14">
+    <row r="629" spans="1:14" hidden="1">
       <c r="A629" s="31"/>
       <c r="B629" s="31"/>
       <c r="C629" s="128"/>
@@ -42117,7 +42117,7 @@
       <c r="M629" s="13"/>
       <c r="N629" s="14"/>
     </row>
-    <row r="630" spans="1:14">
+    <row r="630" spans="1:14" hidden="1">
       <c r="A630" s="31"/>
       <c r="B630" s="31"/>
       <c r="C630" s="128"/>
@@ -42133,7 +42133,7 @@
       <c r="M630" s="13"/>
       <c r="N630" s="14"/>
     </row>
-    <row r="631" spans="1:14">
+    <row r="631" spans="1:14" hidden="1">
       <c r="A631" s="31"/>
       <c r="B631" s="31"/>
       <c r="C631" s="128"/>
@@ -42149,7 +42149,7 @@
       <c r="M631" s="13"/>
       <c r="N631" s="14"/>
     </row>
-    <row r="632" spans="1:14">
+    <row r="632" spans="1:14" hidden="1">
       <c r="A632" s="31"/>
       <c r="B632" s="31"/>
       <c r="C632" s="128"/>
@@ -42165,7 +42165,7 @@
       <c r="M632" s="13"/>
       <c r="N632" s="14"/>
     </row>
-    <row r="633" spans="1:14">
+    <row r="633" spans="1:14" hidden="1">
       <c r="A633" s="31"/>
       <c r="B633" s="31"/>
       <c r="C633" s="128"/>
@@ -42181,7 +42181,7 @@
       <c r="M633" s="13"/>
       <c r="N633" s="14"/>
     </row>
-    <row r="634" spans="1:14">
+    <row r="634" spans="1:14" hidden="1">
       <c r="A634" s="31"/>
       <c r="B634" s="31"/>
       <c r="C634" s="128"/>
@@ -42197,7 +42197,7 @@
       <c r="M634" s="13"/>
       <c r="N634" s="14"/>
     </row>
-    <row r="635" spans="1:14">
+    <row r="635" spans="1:14" hidden="1">
       <c r="A635" s="31"/>
       <c r="B635" s="31"/>
       <c r="C635" s="128"/>
@@ -42213,7 +42213,7 @@
       <c r="M635" s="13"/>
       <c r="N635" s="14"/>
     </row>
-    <row r="636" spans="1:14">
+    <row r="636" spans="1:14" hidden="1">
       <c r="A636" s="31"/>
       <c r="B636" s="31"/>
       <c r="C636" s="128"/>
@@ -42229,7 +42229,7 @@
       <c r="M636" s="13"/>
       <c r="N636" s="14"/>
     </row>
-    <row r="637" spans="1:14">
+    <row r="637" spans="1:14" hidden="1">
       <c r="A637" s="31"/>
       <c r="B637" s="31"/>
       <c r="C637" s="128"/>
@@ -42245,7 +42245,7 @@
       <c r="M637" s="13"/>
       <c r="N637" s="14"/>
     </row>
-    <row r="638" spans="1:14">
+    <row r="638" spans="1:14" hidden="1">
       <c r="A638" s="31"/>
       <c r="B638" s="31"/>
       <c r="C638" s="128"/>
@@ -42261,7 +42261,7 @@
       <c r="M638" s="13"/>
       <c r="N638" s="14"/>
     </row>
-    <row r="639" spans="1:14">
+    <row r="639" spans="1:14" hidden="1">
       <c r="A639" s="31"/>
       <c r="B639" s="31"/>
       <c r="C639" s="128"/>
@@ -42277,7 +42277,7 @@
       <c r="M639" s="13"/>
       <c r="N639" s="14"/>
     </row>
-    <row r="640" spans="1:14">
+    <row r="640" spans="1:14" hidden="1">
       <c r="A640" s="31"/>
       <c r="B640" s="31"/>
       <c r="C640" s="128"/>
@@ -42293,7 +42293,7 @@
       <c r="M640" s="13"/>
       <c r="N640" s="14"/>
     </row>
-    <row r="641" spans="1:14">
+    <row r="641" spans="1:14" hidden="1">
       <c r="A641" s="31"/>
       <c r="B641" s="31"/>
       <c r="C641" s="128"/>
@@ -42309,7 +42309,7 @@
       <c r="M641" s="13"/>
       <c r="N641" s="14"/>
     </row>
-    <row r="642" spans="1:14">
+    <row r="642" spans="1:14" hidden="1">
       <c r="A642" s="31"/>
       <c r="B642" s="31"/>
       <c r="C642" s="128"/>
@@ -42325,7 +42325,7 @@
       <c r="M642" s="13"/>
       <c r="N642" s="14"/>
     </row>
-    <row r="643" spans="1:14">
+    <row r="643" spans="1:14" hidden="1">
       <c r="A643" s="31"/>
       <c r="B643" s="31"/>
       <c r="C643" s="128"/>
@@ -42341,7 +42341,7 @@
       <c r="M643" s="13"/>
       <c r="N643" s="14"/>
     </row>
-    <row r="644" spans="1:14">
+    <row r="644" spans="1:14" hidden="1">
       <c r="A644" s="31"/>
       <c r="B644" s="31"/>
       <c r="C644" s="128"/>
@@ -42357,7 +42357,7 @@
       <c r="M644" s="13"/>
       <c r="N644" s="14"/>
     </row>
-    <row r="645" spans="1:14">
+    <row r="645" spans="1:14" hidden="1">
       <c r="A645" s="31"/>
       <c r="B645" s="31"/>
       <c r="C645" s="128"/>
@@ -42373,7 +42373,7 @@
       <c r="M645" s="13"/>
       <c r="N645" s="14"/>
     </row>
-    <row r="646" spans="1:14">
+    <row r="646" spans="1:14" hidden="1">
       <c r="A646" s="31"/>
       <c r="B646" s="31"/>
       <c r="C646" s="128"/>
@@ -42389,7 +42389,7 @@
       <c r="M646" s="13"/>
       <c r="N646" s="14"/>
     </row>
-    <row r="647" spans="1:14">
+    <row r="647" spans="1:14" hidden="1">
       <c r="A647" s="31"/>
       <c r="B647" s="31"/>
       <c r="C647" s="128"/>
@@ -42405,7 +42405,7 @@
       <c r="M647" s="13"/>
       <c r="N647" s="14"/>
     </row>
-    <row r="648" spans="1:14">
+    <row r="648" spans="1:14" hidden="1">
       <c r="A648" s="31"/>
       <c r="B648" s="31"/>
       <c r="C648" s="128"/>
@@ -42421,7 +42421,7 @@
       <c r="M648" s="13"/>
       <c r="N648" s="14"/>
     </row>
-    <row r="649" spans="1:14">
+    <row r="649" spans="1:14" hidden="1">
       <c r="A649" s="31"/>
       <c r="B649" s="31"/>
       <c r="C649" s="128"/>
@@ -42437,7 +42437,7 @@
       <c r="M649" s="13"/>
       <c r="N649" s="14"/>
     </row>
-    <row r="650" spans="1:14">
+    <row r="650" spans="1:14" hidden="1">
       <c r="A650" s="31"/>
       <c r="B650" s="31"/>
       <c r="C650" s="128"/>
@@ -42453,7 +42453,7 @@
       <c r="M650" s="13"/>
       <c r="N650" s="14"/>
     </row>
-    <row r="651" spans="1:14">
+    <row r="651" spans="1:14" hidden="1">
       <c r="A651" s="31"/>
       <c r="B651" s="31"/>
       <c r="C651" s="128"/>
@@ -42469,7 +42469,7 @@
       <c r="M651" s="13"/>
       <c r="N651" s="14"/>
     </row>
-    <row r="652" spans="1:14">
+    <row r="652" spans="1:14" hidden="1">
       <c r="A652" s="31"/>
       <c r="B652" s="31"/>
       <c r="C652" s="128"/>
@@ -42485,7 +42485,7 @@
       <c r="M652" s="13"/>
       <c r="N652" s="14"/>
     </row>
-    <row r="653" spans="1:14">
+    <row r="653" spans="1:14" hidden="1">
       <c r="A653" s="31"/>
       <c r="B653" s="31"/>
       <c r="C653" s="128"/>
@@ -42501,7 +42501,7 @@
       <c r="M653" s="13"/>
       <c r="N653" s="14"/>
     </row>
-    <row r="654" spans="1:14">
+    <row r="654" spans="1:14" hidden="1">
       <c r="A654" s="31"/>
       <c r="B654" s="31"/>
       <c r="C654" s="128"/>
@@ -42517,7 +42517,7 @@
       <c r="M654" s="13"/>
       <c r="N654" s="14"/>
     </row>
-    <row r="655" spans="1:14">
+    <row r="655" spans="1:14" hidden="1">
       <c r="A655" s="31"/>
       <c r="B655" s="31"/>
       <c r="C655" s="128"/>
@@ -42533,7 +42533,7 @@
       <c r="M655" s="13"/>
       <c r="N655" s="14"/>
     </row>
-    <row r="656" spans="1:14">
+    <row r="656" spans="1:14" hidden="1">
       <c r="A656" s="31"/>
       <c r="B656" s="31"/>
       <c r="C656" s="128"/>
@@ -42549,7 +42549,7 @@
       <c r="M656" s="13"/>
       <c r="N656" s="14"/>
     </row>
-    <row r="657" spans="1:14">
+    <row r="657" spans="1:14" hidden="1">
       <c r="A657" s="31"/>
       <c r="B657" s="31"/>
       <c r="C657" s="128"/>
@@ -42565,7 +42565,7 @@
       <c r="M657" s="13"/>
       <c r="N657" s="14"/>
     </row>
-    <row r="658" spans="1:14">
+    <row r="658" spans="1:14" hidden="1">
       <c r="A658" s="31"/>
       <c r="B658" s="31"/>
       <c r="C658" s="128"/>
@@ -42581,7 +42581,7 @@
       <c r="M658" s="13"/>
       <c r="N658" s="14"/>
     </row>
-    <row r="659" spans="1:14">
+    <row r="659" spans="1:14" hidden="1">
       <c r="A659" s="31"/>
       <c r="B659" s="31"/>
       <c r="C659" s="128"/>
@@ -42597,7 +42597,7 @@
       <c r="M659" s="13"/>
       <c r="N659" s="14"/>
     </row>
-    <row r="660" spans="1:14">
+    <row r="660" spans="1:14" hidden="1">
       <c r="A660" s="31"/>
       <c r="B660" s="31"/>
       <c r="C660" s="128"/>
@@ -42613,7 +42613,7 @@
       <c r="M660" s="13"/>
       <c r="N660" s="14"/>
     </row>
-    <row r="661" spans="1:14">
+    <row r="661" spans="1:14" hidden="1">
       <c r="A661" s="31"/>
       <c r="B661" s="31"/>
       <c r="C661" s="128"/>
@@ -42629,7 +42629,7 @@
       <c r="M661" s="13"/>
       <c r="N661" s="14"/>
     </row>
-    <row r="662" spans="1:14">
+    <row r="662" spans="1:14" hidden="1">
       <c r="A662" s="31"/>
       <c r="B662" s="31"/>
       <c r="C662" s="128"/>
@@ -42645,7 +42645,7 @@
       <c r="M662" s="13"/>
       <c r="N662" s="14"/>
     </row>
-    <row r="663" spans="1:14">
+    <row r="663" spans="1:14" hidden="1">
       <c r="A663" s="31"/>
       <c r="B663" s="31"/>
       <c r="C663" s="128"/>
@@ -42661,7 +42661,7 @@
       <c r="M663" s="13"/>
       <c r="N663" s="14"/>
     </row>
-    <row r="664" spans="1:14">
+    <row r="664" spans="1:14" hidden="1">
       <c r="A664" s="31"/>
       <c r="B664" s="31"/>
       <c r="C664" s="128"/>
@@ -42677,7 +42677,7 @@
       <c r="M664" s="13"/>
       <c r="N664" s="14"/>
     </row>
-    <row r="665" spans="1:14">
+    <row r="665" spans="1:14" hidden="1">
       <c r="A665" s="31"/>
       <c r="B665" s="31"/>
       <c r="C665" s="128"/>
@@ -42693,7 +42693,7 @@
       <c r="M665" s="13"/>
       <c r="N665" s="14"/>
     </row>
-    <row r="666" spans="1:14">
+    <row r="666" spans="1:14" hidden="1">
       <c r="A666" s="31"/>
       <c r="B666" s="31"/>
       <c r="C666" s="128"/>
@@ -42709,7 +42709,7 @@
       <c r="M666" s="13"/>
       <c r="N666" s="14"/>
     </row>
-    <row r="667" spans="1:14">
+    <row r="667" spans="1:14" hidden="1">
       <c r="A667" s="31"/>
       <c r="B667" s="31"/>
       <c r="C667" s="128"/>
@@ -42725,7 +42725,7 @@
       <c r="M667" s="13"/>
       <c r="N667" s="14"/>
     </row>
-    <row r="668" spans="1:14">
+    <row r="668" spans="1:14" hidden="1">
       <c r="A668" s="31"/>
       <c r="B668" s="31"/>
       <c r="C668" s="128"/>
@@ -42741,7 +42741,7 @@
       <c r="M668" s="13"/>
       <c r="N668" s="14"/>
     </row>
-    <row r="669" spans="1:14">
+    <row r="669" spans="1:14" hidden="1">
       <c r="A669" s="31"/>
       <c r="B669" s="31"/>
       <c r="C669" s="128"/>
@@ -42757,7 +42757,7 @@
       <c r="M669" s="13"/>
       <c r="N669" s="14"/>
     </row>
-    <row r="670" spans="1:14">
+    <row r="670" spans="1:14" hidden="1">
       <c r="A670" s="31"/>
       <c r="B670" s="31"/>
       <c r="C670" s="128"/>
@@ -42773,7 +42773,7 @@
       <c r="M670" s="13"/>
       <c r="N670" s="14"/>
     </row>
-    <row r="671" spans="1:14">
+    <row r="671" spans="1:14" hidden="1">
       <c r="A671" s="31"/>
       <c r="B671" s="31"/>
       <c r="C671" s="128"/>
@@ -42789,7 +42789,7 @@
       <c r="M671" s="13"/>
       <c r="N671" s="14"/>
     </row>
-    <row r="672" spans="1:14">
+    <row r="672" spans="1:14" hidden="1">
       <c r="A672" s="31"/>
       <c r="B672" s="31"/>
       <c r="C672" s="128"/>
@@ -42805,7 +42805,7 @@
       <c r="M672" s="13"/>
       <c r="N672" s="14"/>
     </row>
-    <row r="673" spans="1:14">
+    <row r="673" spans="1:14" hidden="1">
       <c r="A673" s="31"/>
       <c r="B673" s="31"/>
       <c r="C673" s="128"/>
@@ -42821,7 +42821,7 @@
       <c r="M673" s="13"/>
       <c r="N673" s="14"/>
     </row>
-    <row r="674" spans="1:14">
+    <row r="674" spans="1:14" hidden="1">
       <c r="A674" s="31"/>
       <c r="B674" s="31"/>
       <c r="C674" s="128"/>
@@ -42837,7 +42837,7 @@
       <c r="M674" s="13"/>
       <c r="N674" s="14"/>
     </row>
-    <row r="675" spans="1:14">
+    <row r="675" spans="1:14" hidden="1">
       <c r="A675" s="31"/>
       <c r="B675" s="31"/>
       <c r="C675" s="128"/>
@@ -42853,7 +42853,7 @@
       <c r="M675" s="13"/>
       <c r="N675" s="14"/>
     </row>
-    <row r="676" spans="1:14">
+    <row r="676" spans="1:14" hidden="1">
       <c r="A676" s="31"/>
       <c r="B676" s="31"/>
       <c r="C676" s="128"/>
@@ -42869,7 +42869,7 @@
       <c r="M676" s="13"/>
       <c r="N676" s="14"/>
     </row>
-    <row r="677" spans="1:14">
+    <row r="677" spans="1:14" hidden="1">
       <c r="A677" s="31"/>
       <c r="B677" s="31"/>
       <c r="C677" s="128"/>
@@ -42885,7 +42885,7 @@
       <c r="M677" s="13"/>
       <c r="N677" s="14"/>
     </row>
-    <row r="678" spans="1:14">
+    <row r="678" spans="1:14" hidden="1">
       <c r="A678" s="31"/>
       <c r="B678" s="31"/>
       <c r="C678" s="128"/>
@@ -42901,7 +42901,7 @@
       <c r="M678" s="13"/>
       <c r="N678" s="14"/>
     </row>
-    <row r="679" spans="1:14">
+    <row r="679" spans="1:14" hidden="1">
       <c r="A679" s="31"/>
       <c r="B679" s="31"/>
       <c r="C679" s="128"/>
@@ -42917,7 +42917,7 @@
       <c r="M679" s="13"/>
       <c r="N679" s="14"/>
     </row>
-    <row r="680" spans="1:14">
+    <row r="680" spans="1:14" hidden="1">
       <c r="A680" s="31"/>
       <c r="B680" s="31"/>
       <c r="C680" s="128"/>
@@ -42933,7 +42933,7 @@
       <c r="M680" s="13"/>
       <c r="N680" s="14"/>
     </row>
-    <row r="681" spans="1:14">
+    <row r="681" spans="1:14" hidden="1">
       <c r="A681" s="31"/>
       <c r="B681" s="31"/>
       <c r="C681" s="128"/>
@@ -42949,7 +42949,7 @@
       <c r="M681" s="13"/>
       <c r="N681" s="14"/>
     </row>
-    <row r="682" spans="1:14">
+    <row r="682" spans="1:14" hidden="1">
       <c r="A682" s="31"/>
       <c r="B682" s="31"/>
       <c r="C682" s="128"/>
@@ -42965,7 +42965,7 @@
       <c r="M682" s="13"/>
       <c r="N682" s="14"/>
     </row>
-    <row r="683" spans="1:14">
+    <row r="683" spans="1:14" hidden="1">
       <c r="A683" s="31"/>
       <c r="B683" s="31"/>
       <c r="C683" s="128"/>
@@ -42981,7 +42981,7 @@
       <c r="M683" s="13"/>
       <c r="N683" s="14"/>
     </row>
-    <row r="684" spans="1:14">
+    <row r="684" spans="1:14" hidden="1">
       <c r="A684" s="31"/>
       <c r="B684" s="31"/>
       <c r="C684" s="128"/>
@@ -42997,7 +42997,7 @@
       <c r="M684" s="13"/>
       <c r="N684" s="14"/>
     </row>
-    <row r="685" spans="1:14">
+    <row r="685" spans="1:14" hidden="1">
       <c r="A685" s="31"/>
       <c r="B685" s="31"/>
       <c r="C685" s="128"/>
@@ -43013,7 +43013,7 @@
       <c r="M685" s="13"/>
       <c r="N685" s="14"/>
     </row>
-    <row r="686" spans="1:14">
+    <row r="686" spans="1:14" hidden="1">
       <c r="A686" s="31"/>
       <c r="B686" s="31"/>
       <c r="C686" s="128"/>
@@ -43029,7 +43029,7 @@
       <c r="M686" s="13"/>
       <c r="N686" s="14"/>
     </row>
-    <row r="687" spans="1:14">
+    <row r="687" spans="1:14" hidden="1">
       <c r="A687" s="31"/>
       <c r="B687" s="31"/>
       <c r="C687" s="128"/>
@@ -43045,7 +43045,7 @@
       <c r="M687" s="13"/>
       <c r="N687" s="14"/>
     </row>
-    <row r="688" spans="1:14">
+    <row r="688" spans="1:14" hidden="1">
       <c r="A688" s="31"/>
       <c r="B688" s="31"/>
       <c r="C688" s="128"/>
@@ -43061,7 +43061,7 @@
       <c r="M688" s="13"/>
       <c r="N688" s="14"/>
     </row>
-    <row r="689" spans="1:14">
+    <row r="689" spans="1:14" hidden="1">
       <c r="A689" s="31"/>
       <c r="B689" s="31"/>
       <c r="C689" s="128"/>
@@ -43077,7 +43077,7 @@
       <c r="M689" s="13"/>
       <c r="N689" s="14"/>
     </row>
-    <row r="690" spans="1:14">
+    <row r="690" spans="1:14" hidden="1">
       <c r="A690" s="31"/>
       <c r="B690" s="31"/>
       <c r="C690" s="128"/>
@@ -43093,7 +43093,7 @@
       <c r="M690" s="13"/>
       <c r="N690" s="14"/>
     </row>
-    <row r="691" spans="1:14">
+    <row r="691" spans="1:14" hidden="1">
       <c r="A691" s="31"/>
       <c r="B691" s="31"/>
       <c r="C691" s="128"/>
@@ -43109,7 +43109,7 @@
       <c r="M691" s="13"/>
       <c r="N691" s="14"/>
     </row>
-    <row r="692" spans="1:14">
+    <row r="692" spans="1:14" hidden="1">
       <c r="A692" s="31"/>
       <c r="B692" s="31"/>
       <c r="C692" s="128"/>
@@ -43125,7 +43125,7 @@
       <c r="M692" s="13"/>
       <c r="N692" s="14"/>
     </row>
-    <row r="693" spans="1:14">
+    <row r="693" spans="1:14" hidden="1">
       <c r="A693" s="31"/>
       <c r="B693" s="31"/>
       <c r="C693" s="128"/>
@@ -43141,7 +43141,7 @@
       <c r="M693" s="13"/>
       <c r="N693" s="14"/>
     </row>
-    <row r="694" spans="1:14">
+    <row r="694" spans="1:14" hidden="1">
       <c r="A694" s="31"/>
       <c r="B694" s="31"/>
       <c r="C694" s="128"/>
@@ -43157,7 +43157,7 @@
       <c r="M694" s="13"/>
       <c r="N694" s="14"/>
     </row>
-    <row r="695" spans="1:14">
+    <row r="695" spans="1:14" hidden="1">
       <c r="A695" s="31"/>
       <c r="B695" s="31"/>
       <c r="C695" s="128"/>
@@ -43173,7 +43173,7 @@
       <c r="M695" s="13"/>
       <c r="N695" s="14"/>
     </row>
-    <row r="696" spans="1:14">
+    <row r="696" spans="1:14" hidden="1">
       <c r="A696" s="31"/>
       <c r="B696" s="31"/>
       <c r="C696" s="128"/>
@@ -43189,7 +43189,7 @@
       <c r="M696" s="13"/>
       <c r="N696" s="14"/>
     </row>
-    <row r="697" spans="1:14">
+    <row r="697" spans="1:14" hidden="1">
       <c r="A697" s="31"/>
       <c r="B697" s="31"/>
       <c r="C697" s="128"/>
@@ -43205,7 +43205,7 @@
       <c r="M697" s="13"/>
       <c r="N697" s="14"/>
     </row>
-    <row r="698" spans="1:14">
+    <row r="698" spans="1:14" hidden="1">
       <c r="A698" s="31"/>
       <c r="B698" s="31"/>
       <c r="C698" s="128"/>
@@ -43221,7 +43221,7 @@
       <c r="M698" s="13"/>
       <c r="N698" s="14"/>
     </row>
-    <row r="699" spans="1:14">
+    <row r="699" spans="1:14" hidden="1">
       <c r="A699" s="31"/>
       <c r="B699" s="31"/>
       <c r="C699" s="128"/>
@@ -43237,7 +43237,7 @@
       <c r="M699" s="13"/>
       <c r="N699" s="14"/>
     </row>
-    <row r="700" spans="1:14">
+    <row r="700" spans="1:14" hidden="1">
       <c r="A700" s="31"/>
       <c r="B700" s="31"/>
       <c r="C700" s="128"/>
@@ -43253,7 +43253,7 @@
       <c r="M700" s="13"/>
       <c r="N700" s="14"/>
     </row>
-    <row r="701" spans="1:14">
+    <row r="701" spans="1:14" hidden="1">
       <c r="A701" s="31"/>
       <c r="B701" s="31"/>
       <c r="C701" s="128"/>
@@ -43269,7 +43269,7 @@
       <c r="M701" s="13"/>
       <c r="N701" s="14"/>
     </row>
-    <row r="702" spans="1:14">
+    <row r="702" spans="1:14" hidden="1">
       <c r="A702" s="31"/>
       <c r="B702" s="31"/>
       <c r="C702" s="128"/>
@@ -43285,7 +43285,7 @@
       <c r="M702" s="13"/>
       <c r="N702" s="14"/>
     </row>
-    <row r="703" spans="1:14">
+    <row r="703" spans="1:14" hidden="1">
       <c r="A703" s="31"/>
       <c r="B703" s="31"/>
       <c r="C703" s="128"/>
@@ -43301,7 +43301,7 @@
       <c r="M703" s="13"/>
       <c r="N703" s="14"/>
     </row>
-    <row r="704" spans="1:14">
+    <row r="704" spans="1:14" hidden="1">
       <c r="A704" s="31"/>
       <c r="B704" s="31"/>
       <c r="C704" s="128"/>
@@ -43317,7 +43317,7 @@
       <c r="M704" s="13"/>
       <c r="N704" s="14"/>
     </row>
-    <row r="705" spans="1:14">
+    <row r="705" spans="1:14" hidden="1">
       <c r="A705" s="31"/>
       <c r="B705" s="31"/>
       <c r="C705" s="128"/>
@@ -43333,7 +43333,7 @@
       <c r="M705" s="13"/>
       <c r="N705" s="14"/>
     </row>
-    <row r="706" spans="1:14">
+    <row r="706" spans="1:14" hidden="1">
       <c r="A706" s="31"/>
       <c r="B706" s="31"/>
       <c r="C706" s="128"/>
@@ -43349,7 +43349,7 @@
       <c r="M706" s="13"/>
       <c r="N706" s="14"/>
     </row>
-    <row r="707" spans="1:14">
+    <row r="707" spans="1:14" hidden="1">
       <c r="A707" s="31"/>
       <c r="B707" s="31"/>
       <c r="C707" s="128"/>
@@ -43365,7 +43365,7 @@
       <c r="M707" s="13"/>
       <c r="N707" s="14"/>
     </row>
-    <row r="708" spans="1:14">
+    <row r="708" spans="1:14" hidden="1">
       <c r="A708" s="31"/>
       <c r="B708" s="31"/>
       <c r="C708" s="128"/>
@@ -43381,7 +43381,7 @@
       <c r="M708" s="13"/>
       <c r="N708" s="14"/>
     </row>
-    <row r="709" spans="1:14">
+    <row r="709" spans="1:14" hidden="1">
       <c r="A709" s="31"/>
       <c r="B709" s="31"/>
       <c r="C709" s="128"/>
@@ -43397,7 +43397,7 @@
       <c r="M709" s="13"/>
       <c r="N709" s="14"/>
     </row>
-    <row r="710" spans="1:14">
+    <row r="710" spans="1:14" hidden="1">
       <c r="A710" s="31"/>
       <c r="B710" s="31"/>
       <c r="C710" s="128"/>
@@ -43413,7 +43413,7 @@
       <c r="M710" s="13"/>
       <c r="N710" s="14"/>
     </row>
-    <row r="711" spans="1:14">
+    <row r="711" spans="1:14" hidden="1">
       <c r="A711" s="31"/>
       <c r="B711" s="31"/>
       <c r="C711" s="128"/>
@@ -43429,7 +43429,7 @@
       <c r="M711" s="13"/>
       <c r="N711" s="14"/>
     </row>
-    <row r="712" spans="1:14">
+    <row r="712" spans="1:14" hidden="1">
       <c r="A712" s="31"/>
       <c r="B712" s="31"/>
       <c r="C712" s="128"/>
@@ -43445,7 +43445,7 @@
       <c r="M712" s="13"/>
       <c r="N712" s="14"/>
     </row>
-    <row r="713" spans="1:14">
+    <row r="713" spans="1:14" hidden="1">
       <c r="A713" s="31"/>
       <c r="B713" s="31"/>
       <c r="C713" s="128"/>
@@ -43461,7 +43461,7 @@
       <c r="M713" s="13"/>
       <c r="N713" s="14"/>
     </row>
-    <row r="714" spans="1:14">
+    <row r="714" spans="1:14" hidden="1">
       <c r="A714" s="31"/>
       <c r="B714" s="31"/>
       <c r="C714" s="128"/>
@@ -43477,7 +43477,7 @@
       <c r="M714" s="13"/>
       <c r="N714" s="14"/>
     </row>
-    <row r="715" spans="1:14">
+    <row r="715" spans="1:14" hidden="1">
       <c r="A715" s="31"/>
       <c r="B715" s="31"/>
       <c r="C715" s="128"/>
@@ -43493,7 +43493,7 @@
       <c r="M715" s="13"/>
       <c r="N715" s="14"/>
     </row>
-    <row r="716" spans="1:14">
+    <row r="716" spans="1:14" hidden="1">
       <c r="A716" s="31"/>
       <c r="B716" s="31"/>
       <c r="C716" s="128"/>
@@ -43509,7 +43509,7 @@
       <c r="M716" s="13"/>
       <c r="N716" s="14"/>
     </row>
-    <row r="717" spans="1:14">
+    <row r="717" spans="1:14" hidden="1">
       <c r="A717" s="31"/>
       <c r="B717" s="31"/>
       <c r="C717" s="128"/>
@@ -43525,7 +43525,7 @@
       <c r="M717" s="13"/>
       <c r="N717" s="14"/>
     </row>
-    <row r="718" spans="1:14">
+    <row r="718" spans="1:14" hidden="1">
       <c r="A718" s="31"/>
       <c r="B718" s="31"/>
       <c r="C718" s="128"/>
@@ -43541,7 +43541,7 @@
       <c r="M718" s="13"/>
       <c r="N718" s="14"/>
     </row>
-    <row r="719" spans="1:14">
+    <row r="719" spans="1:14" hidden="1">
       <c r="A719" s="31"/>
       <c r="B719" s="31"/>
       <c r="C719" s="128"/>
@@ -43557,7 +43557,7 @@
       <c r="M719" s="13"/>
       <c r="N719" s="14"/>
     </row>
-    <row r="720" spans="1:14">
+    <row r="720" spans="1:14" hidden="1">
       <c r="A720" s="31"/>
       <c r="B720" s="31"/>
       <c r="C720" s="128"/>
@@ -43573,7 +43573,7 @@
       <c r="M720" s="13"/>
       <c r="N720" s="14"/>
     </row>
-    <row r="721" spans="1:14">
+    <row r="721" spans="1:14" hidden="1">
       <c r="A721" s="31"/>
       <c r="B721" s="31"/>
       <c r="C721" s="128"/>
@@ -43589,7 +43589,7 @@
       <c r="M721" s="13"/>
       <c r="N721" s="14"/>
     </row>
-    <row r="722" spans="1:14">
+    <row r="722" spans="1:14" hidden="1">
       <c r="A722" s="31"/>
       <c r="B722" s="31"/>
       <c r="C722" s="128"/>
@@ -43605,7 +43605,7 @@
       <c r="M722" s="13"/>
       <c r="N722" s="14"/>
     </row>
-    <row r="723" spans="1:14">
+    <row r="723" spans="1:14" hidden="1">
       <c r="A723" s="31"/>
       <c r="B723" s="31"/>
       <c r="C723" s="128"/>
@@ -43621,7 +43621,7 @@
       <c r="M723" s="13"/>
       <c r="N723" s="14"/>
     </row>
-    <row r="724" spans="1:14">
+    <row r="724" spans="1:14" hidden="1">
       <c r="A724" s="31"/>
       <c r="B724" s="31"/>
       <c r="C724" s="128"/>
@@ -43637,7 +43637,7 @@
       <c r="M724" s="13"/>
       <c r="N724" s="14"/>
     </row>
-    <row r="725" spans="1:14">
+    <row r="725" spans="1:14" hidden="1">
       <c r="A725" s="31"/>
       <c r="B725" s="31"/>
       <c r="C725" s="128"/>
@@ -43653,7 +43653,7 @@
       <c r="M725" s="13"/>
       <c r="N725" s="14"/>
     </row>
-    <row r="726" spans="1:14">
+    <row r="726" spans="1:14" hidden="1">
       <c r="A726" s="31"/>
       <c r="B726" s="31"/>
       <c r="C726" s="128"/>
@@ -43669,7 +43669,7 @@
       <c r="M726" s="13"/>
       <c r="N726" s="14"/>
     </row>
-    <row r="727" spans="1:14">
+    <row r="727" spans="1:14" hidden="1">
       <c r="A727" s="31"/>
       <c r="B727" s="31"/>
       <c r="C727" s="128"/>
@@ -43685,7 +43685,7 @@
       <c r="M727" s="13"/>
       <c r="N727" s="14"/>
     </row>
-    <row r="728" spans="1:14">
+    <row r="728" spans="1:14" hidden="1">
       <c r="A728" s="31"/>
       <c r="B728" s="31"/>
       <c r="C728" s="128"/>
@@ -43701,7 +43701,7 @@
       <c r="M728" s="13"/>
       <c r="N728" s="14"/>
     </row>
-    <row r="729" spans="1:14">
+    <row r="729" spans="1:14" hidden="1">
       <c r="A729" s="31"/>
       <c r="B729" s="31"/>
       <c r="C729" s="128"/>
@@ -43717,7 +43717,7 @@
       <c r="M729" s="13"/>
       <c r="N729" s="14"/>
     </row>
-    <row r="730" spans="1:14">
+    <row r="730" spans="1:14" hidden="1">
       <c r="A730" s="31"/>
       <c r="B730" s="31"/>
       <c r="C730" s="128"/>
@@ -43733,7 +43733,7 @@
       <c r="M730" s="13"/>
       <c r="N730" s="14"/>
     </row>
-    <row r="731" spans="1:14">
+    <row r="731" spans="1:14" hidden="1">
       <c r="A731" s="31"/>
       <c r="B731" s="31"/>
       <c r="C731" s="128"/>
@@ -43749,7 +43749,7 @@
       <c r="M731" s="13"/>
       <c r="N731" s="14"/>
     </row>
-    <row r="732" spans="1:14">
+    <row r="732" spans="1:14" hidden="1">
       <c r="A732" s="31"/>
       <c r="B732" s="31"/>
       <c r="C732" s="128"/>
@@ -43765,7 +43765,7 @@
       <c r="M732" s="13"/>
       <c r="N732" s="14"/>
     </row>
-    <row r="733" spans="1:14">
+    <row r="733" spans="1:14" hidden="1">
       <c r="A733" s="31"/>
       <c r="B733" s="31"/>
       <c r="C733" s="128"/>
@@ -43781,7 +43781,7 @@
       <c r="M733" s="13"/>
       <c r="N733" s="14"/>
     </row>
-    <row r="734" spans="1:14">
+    <row r="734" spans="1:14" hidden="1">
       <c r="A734" s="31"/>
       <c r="B734" s="31"/>
       <c r="C734" s="128"/>
@@ -43797,7 +43797,7 @@
       <c r="M734" s="13"/>
       <c r="N734" s="14"/>
     </row>
-    <row r="735" spans="1:14">
+    <row r="735" spans="1:14" hidden="1">
       <c r="A735" s="31"/>
       <c r="B735" s="31"/>
       <c r="C735" s="128"/>
@@ -43813,7 +43813,7 @@
       <c r="M735" s="13"/>
       <c r="N735" s="14"/>
     </row>
-    <row r="736" spans="1:14">
+    <row r="736" spans="1:14" hidden="1">
       <c r="A736" s="31"/>
       <c r="B736" s="31"/>
       <c r="C736" s="128"/>
@@ -43829,7 +43829,7 @@
       <c r="M736" s="13"/>
       <c r="N736" s="14"/>
     </row>
-    <row r="737" spans="1:14">
+    <row r="737" spans="1:14" hidden="1">
       <c r="A737" s="31"/>
       <c r="B737" s="31"/>
       <c r="C737" s="128"/>
@@ -43845,7 +43845,7 @@
       <c r="M737" s="13"/>
       <c r="N737" s="14"/>
     </row>
-    <row r="738" spans="1:14">
+    <row r="738" spans="1:14" hidden="1">
       <c r="A738" s="31"/>
       <c r="B738" s="31"/>
       <c r="C738" s="128"/>
@@ -43861,7 +43861,7 @@
       <c r="M738" s="13"/>
       <c r="N738" s="14"/>
     </row>
-    <row r="739" spans="1:14">
+    <row r="739" spans="1:14" hidden="1">
       <c r="A739" s="31"/>
       <c r="B739" s="31"/>
       <c r="C739" s="128"/>
@@ -43877,7 +43877,7 @@
       <c r="M739" s="13"/>
       <c r="N739" s="14"/>
     </row>
-    <row r="740" spans="1:14">
+    <row r="740" spans="1:14" hidden="1">
       <c r="A740" s="31"/>
       <c r="B740" s="31"/>
       <c r="C740" s="128"/>
@@ -43893,7 +43893,7 @@
       <c r="M740" s="13"/>
       <c r="N740" s="14"/>
     </row>
-    <row r="741" spans="1:14">
+    <row r="741" spans="1:14" hidden="1">
       <c r="A741" s="31"/>
       <c r="B741" s="31"/>
       <c r="C741" s="128"/>
@@ -43909,7 +43909,7 @@
       <c r="M741" s="13"/>
       <c r="N741" s="14"/>
     </row>
-    <row r="742" spans="1:14">
+    <row r="742" spans="1:14" hidden="1">
       <c r="A742" s="31"/>
       <c r="B742" s="31"/>
       <c r="C742" s="128"/>
@@ -43925,7 +43925,7 @@
       <c r="M742" s="13"/>
       <c r="N742" s="14"/>
     </row>
-    <row r="743" spans="1:14">
+    <row r="743" spans="1:14" hidden="1">
       <c r="A743" s="31"/>
       <c r="B743" s="31"/>
       <c r="C743" s="128"/>
@@ -43941,7 +43941,7 @@
       <c r="M743" s="13"/>
       <c r="N743" s="14"/>
     </row>
-    <row r="744" spans="1:14">
+    <row r="744" spans="1:14" hidden="1">
       <c r="A744" s="31"/>
       <c r="B744" s="31"/>
       <c r="C744" s="128"/>
@@ -43957,7 +43957,7 @@
       <c r="M744" s="13"/>
       <c r="N744" s="14"/>
     </row>
-    <row r="745" spans="1:14">
+    <row r="745" spans="1:14" hidden="1">
       <c r="A745" s="31"/>
       <c r="B745" s="31"/>
       <c r="C745" s="128"/>
@@ -43973,7 +43973,7 @@
       <c r="M745" s="13"/>
       <c r="N745" s="14"/>
     </row>
-    <row r="746" spans="1:14">
+    <row r="746" spans="1:14" hidden="1">
       <c r="A746" s="31"/>
       <c r="B746" s="31"/>
       <c r="C746" s="128"/>
@@ -43989,7 +43989,7 @@
       <c r="M746" s="13"/>
       <c r="N746" s="14"/>
     </row>
-    <row r="747" spans="1:14">
+    <row r="747" spans="1:14" hidden="1">
       <c r="A747" s="31"/>
       <c r="B747" s="31"/>
       <c r="C747" s="128"/>
@@ -44005,7 +44005,7 @@
       <c r="M747" s="13"/>
       <c r="N747" s="14"/>
     </row>
-    <row r="748" spans="1:14">
+    <row r="748" spans="1:14" hidden="1">
       <c r="A748" s="31"/>
       <c r="B748" s="31"/>
       <c r="C748" s="128"/>
@@ -44021,7 +44021,7 @@
       <c r="M748" s="13"/>
       <c r="N748" s="14"/>
     </row>
-    <row r="749" spans="1:14">
+    <row r="749" spans="1:14" hidden="1">
       <c r="A749" s="31"/>
       <c r="B749" s="31"/>
       <c r="C749" s="128"/>
@@ -44037,7 +44037,7 @@
       <c r="M749" s="13"/>
       <c r="N749" s="14"/>
     </row>
-    <row r="750" spans="1:14">
+    <row r="750" spans="1:14" hidden="1">
       <c r="A750" s="31"/>
       <c r="B750" s="31"/>
       <c r="C750" s="128"/>
@@ -44053,7 +44053,7 @@
       <c r="M750" s="13"/>
       <c r="N750" s="14"/>
     </row>
-    <row r="751" spans="1:14">
+    <row r="751" spans="1:14" hidden="1">
       <c r="A751" s="31"/>
       <c r="B751" s="31"/>
       <c r="C751" s="128"/>
@@ -44069,7 +44069,7 @@
       <c r="M751" s="13"/>
       <c r="N751" s="14"/>
     </row>
-    <row r="752" spans="1:14">
+    <row r="752" spans="1:14" hidden="1">
       <c r="A752" s="31"/>
       <c r="B752" s="31"/>
       <c r="C752" s="128"/>
@@ -44085,7 +44085,7 @@
       <c r="M752" s="13"/>
       <c r="N752" s="14"/>
     </row>
-    <row r="753" spans="1:14">
+    <row r="753" spans="1:14" hidden="1">
       <c r="A753" s="31"/>
       <c r="B753" s="31"/>
       <c r="C753" s="128"/>
@@ -44101,7 +44101,7 @@
       <c r="M753" s="13"/>
       <c r="N753" s="14"/>
     </row>
-    <row r="754" spans="1:14">
+    <row r="754" spans="1:14" hidden="1">
       <c r="A754" s="31"/>
       <c r="B754" s="31"/>
       <c r="C754" s="128"/>
@@ -44117,7 +44117,7 @@
       <c r="M754" s="13"/>
       <c r="N754" s="14"/>
     </row>
-    <row r="755" spans="1:14">
+    <row r="755" spans="1:14" hidden="1">
       <c r="A755" s="31"/>
       <c r="B755" s="31"/>
       <c r="C755" s="128"/>
@@ -44133,7 +44133,7 @@
       <c r="M755" s="13"/>
       <c r="N755" s="14"/>
     </row>
-    <row r="756" spans="1:14">
+    <row r="756" spans="1:14" hidden="1">
       <c r="A756" s="31"/>
       <c r="B756" s="31"/>
       <c r="C756" s="128"/>
@@ -44149,7 +44149,7 @@
       <c r="M756" s="13"/>
       <c r="N756" s="14"/>
     </row>
-    <row r="757" spans="1:14">
+    <row r="757" spans="1:14" hidden="1">
       <c r="A757" s="31"/>
       <c r="B757" s="31"/>
       <c r="C757" s="128"/>
@@ -44165,7 +44165,7 @@
       <c r="M757" s="13"/>
       <c r="N757" s="14"/>
     </row>
-    <row r="758" spans="1:14">
+    <row r="758" spans="1:14" hidden="1">
       <c r="A758" s="31"/>
       <c r="B758" s="31"/>
       <c r="C758" s="128"/>
@@ -44181,7 +44181,7 @@
       <c r="M758" s="13"/>
       <c r="N758" s="14"/>
     </row>
-    <row r="759" spans="1:14">
+    <row r="759" spans="1:14" hidden="1">
       <c r="A759" s="31"/>
       <c r="B759" s="31"/>
       <c r="C759" s="128"/>
@@ -44197,7 +44197,7 @@
       <c r="M759" s="13"/>
       <c r="N759" s="14"/>
     </row>
-    <row r="760" spans="1:14">
+    <row r="760" spans="1:14" hidden="1">
       <c r="A760" s="31"/>
       <c r="B760" s="31"/>
       <c r="C760" s="128"/>
@@ -44213,7 +44213,7 @@
       <c r="M760" s="13"/>
       <c r="N760" s="14"/>
     </row>
-    <row r="761" spans="1:14">
+    <row r="761" spans="1:14" hidden="1">
       <c r="A761" s="31"/>
       <c r="B761" s="31"/>
       <c r="C761" s="128"/>
@@ -44229,7 +44229,7 @@
       <c r="M761" s="13"/>
       <c r="N761" s="14"/>
     </row>
-    <row r="762" spans="1:14">
+    <row r="762" spans="1:14" hidden="1">
       <c r="A762" s="31"/>
       <c r="B762" s="31"/>
       <c r="C762" s="128"/>
@@ -44245,7 +44245,7 @@
       <c r="M762" s="13"/>
       <c r="N762" s="14"/>
     </row>
-    <row r="763" spans="1:14">
+    <row r="763" spans="1:14" hidden="1">
       <c r="A763" s="31"/>
       <c r="B763" s="31"/>
       <c r="C763" s="128"/>
@@ -44261,7 +44261,7 @@
       <c r="M763" s="13"/>
       <c r="N763" s="14"/>
     </row>
-    <row r="764" spans="1:14">
+    <row r="764" spans="1:14" hidden="1">
       <c r="A764" s="31"/>
       <c r="B764" s="31"/>
       <c r="C764" s="128"/>
@@ -44277,7 +44277,7 @@
       <c r="M764" s="13"/>
       <c r="N764" s="14"/>
     </row>
-    <row r="765" spans="1:14">
+    <row r="765" spans="1:14" hidden="1">
       <c r="A765" s="31"/>
       <c r="B765" s="31"/>
       <c r="C765" s="128"/>
@@ -44293,7 +44293,7 @@
       <c r="M765" s="13"/>
       <c r="N765" s="14"/>
     </row>
-    <row r="766" spans="1:14">
+    <row r="766" spans="1:14" hidden="1">
       <c r="A766" s="31"/>
       <c r="B766" s="31"/>
       <c r="C766" s="128"/>
@@ -44309,7 +44309,7 @@
       <c r="M766" s="13"/>
       <c r="N766" s="14"/>
     </row>
-    <row r="767" spans="1:14">
+    <row r="767" spans="1:14" hidden="1">
       <c r="A767" s="31"/>
       <c r="B767" s="31"/>
       <c r="C767" s="128"/>
@@ -44325,7 +44325,7 @@
       <c r="M767" s="13"/>
       <c r="N767" s="14"/>
     </row>
-    <row r="768" spans="1:14">
+    <row r="768" spans="1:14" hidden="1">
       <c r="A768" s="31"/>
       <c r="B768" s="31"/>
       <c r="C768" s="128"/>
@@ -44341,7 +44341,7 @@
       <c r="M768" s="13"/>
       <c r="N768" s="14"/>
     </row>
-    <row r="769" spans="1:14">
+    <row r="769" spans="1:14" hidden="1">
       <c r="A769" s="31"/>
       <c r="B769" s="31"/>
       <c r="C769" s="128"/>
@@ -44357,7 +44357,7 @@
       <c r="M769" s="13"/>
       <c r="N769" s="14"/>
     </row>
-    <row r="770" spans="1:14">
+    <row r="770" spans="1:14" hidden="1">
       <c r="A770" s="31"/>
       <c r="B770" s="31"/>
       <c r="C770" s="128"/>
@@ -44373,7 +44373,7 @@
       <c r="M770" s="13"/>
       <c r="N770" s="14"/>
     </row>
-    <row r="771" spans="1:14">
+    <row r="771" spans="1:14" hidden="1">
       <c r="A771" s="31"/>
       <c r="B771" s="31"/>
       <c r="C771" s="128"/>
@@ -44389,7 +44389,7 @@
       <c r="M771" s="13"/>
       <c r="N771" s="14"/>
     </row>
-    <row r="772" spans="1:14">
+    <row r="772" spans="1:14" hidden="1">
       <c r="A772" s="31"/>
       <c r="B772" s="31"/>
       <c r="C772" s="128"/>
@@ -44405,7 +44405,7 @@
       <c r="M772" s="13"/>
       <c r="N772" s="14"/>
     </row>
-    <row r="773" spans="1:14">
+    <row r="773" spans="1:14" hidden="1">
       <c r="A773" s="31"/>
       <c r="B773" s="31"/>
       <c r="C773" s="128"/>
@@ -44421,7 +44421,7 @@
       <c r="M773" s="13"/>
       <c r="N773" s="14"/>
     </row>
-    <row r="774" spans="1:14">
+    <row r="774" spans="1:14" hidden="1">
       <c r="A774" s="31"/>
       <c r="B774" s="31"/>
       <c r="C774" s="128"/>
@@ -44437,7 +44437,7 @@
       <c r="M774" s="13"/>
       <c r="N774" s="14"/>
     </row>
-    <row r="775" spans="1:14">
+    <row r="775" spans="1:14" hidden="1">
       <c r="A775" s="31"/>
       <c r="B775" s="31"/>
       <c r="C775" s="128"/>
@@ -44453,7 +44453,7 @@
       <c r="M775" s="13"/>
       <c r="N775" s="14"/>
     </row>
-    <row r="776" spans="1:14">
+    <row r="776" spans="1:14" hidden="1">
       <c r="A776" s="31"/>
       <c r="B776" s="31"/>
       <c r="C776" s="128"/>
@@ -44469,7 +44469,7 @@
       <c r="M776" s="13"/>
       <c r="N776" s="14"/>
     </row>
-    <row r="777" spans="1:14">
+    <row r="777" spans="1:14" hidden="1">
       <c r="A777" s="31"/>
       <c r="B777" s="31"/>
       <c r="C777" s="128"/>
@@ -44485,7 +44485,7 @@
       <c r="M777" s="13"/>
       <c r="N777" s="14"/>
     </row>
-    <row r="778" spans="1:14">
+    <row r="778" spans="1:14" hidden="1">
       <c r="A778" s="31"/>
       <c r="B778" s="31"/>
       <c r="C778" s="128"/>
@@ -44501,7 +44501,7 @@
       <c r="M778" s="13"/>
       <c r="N778" s="14"/>
     </row>
-    <row r="779" spans="1:14">
+    <row r="779" spans="1:14" hidden="1">
       <c r="A779" s="31"/>
       <c r="B779" s="31"/>
       <c r="C779" s="128"/>
@@ -44517,7 +44517,7 @@
       <c r="M779" s="13"/>
       <c r="N779" s="14"/>
     </row>
-    <row r="780" spans="1:14">
+    <row r="780" spans="1:14" hidden="1">
       <c r="A780" s="31"/>
       <c r="B780" s="31"/>
       <c r="C780" s="128"/>
@@ -44533,7 +44533,7 @@
       <c r="M780" s="13"/>
       <c r="N780" s="14"/>
     </row>
-    <row r="781" spans="1:14">
+    <row r="781" spans="1:14" hidden="1">
       <c r="A781" s="31"/>
       <c r="B781" s="31"/>
       <c r="C781" s="128"/>
@@ -44549,7 +44549,7 @@
       <c r="M781" s="13"/>
       <c r="N781" s="14"/>
     </row>
-    <row r="782" spans="1:14">
+    <row r="782" spans="1:14" hidden="1">
       <c r="A782" s="31"/>
       <c r="B782" s="31"/>
       <c r="C782" s="128"/>
@@ -44565,7 +44565,7 @@
       <c r="M782" s="13"/>
       <c r="N782" s="14"/>
     </row>
-    <row r="783" spans="1:14">
+    <row r="783" spans="1:14" hidden="1">
       <c r="A783" s="31"/>
       <c r="B783" s="31"/>
       <c r="C783" s="128"/>
@@ -44581,7 +44581,7 @@
       <c r="M783" s="13"/>
       <c r="N783" s="14"/>
     </row>
-    <row r="784" spans="1:14">
+    <row r="784" spans="1:14" hidden="1">
       <c r="A784" s="31"/>
       <c r="B784" s="31"/>
       <c r="C784" s="128"/>
@@ -44597,7 +44597,7 @@
       <c r="M784" s="13"/>
       <c r="N784" s="14"/>
     </row>
-    <row r="785" spans="1:14">
+    <row r="785" spans="1:14" hidden="1">
       <c r="A785" s="31"/>
       <c r="B785" s="31"/>
       <c r="C785" s="128"/>
@@ -44613,7 +44613,7 @@
       <c r="M785" s="13"/>
       <c r="N785" s="14"/>
     </row>
-    <row r="786" spans="1:14">
+    <row r="786" spans="1:14" hidden="1">
       <c r="A786" s="31"/>
       <c r="B786" s="31"/>
       <c r="C786" s="128"/>
@@ -44629,7 +44629,7 @@
       <c r="M786" s="13"/>
       <c r="N786" s="14"/>
     </row>
-    <row r="787" spans="1:14">
+    <row r="787" spans="1:14" hidden="1">
       <c r="A787" s="31"/>
       <c r="B787" s="31"/>
       <c r="C787" s="128"/>
@@ -44645,7 +44645,7 @@
       <c r="M787" s="13"/>
       <c r="N787" s="14"/>
     </row>
-    <row r="788" spans="1:14">
+    <row r="788" spans="1:14" hidden="1">
       <c r="A788" s="31"/>
       <c r="B788" s="31"/>
       <c r="C788" s="128"/>
@@ -44661,7 +44661,7 @@
       <c r="M788" s="13"/>
       <c r="N788" s="14"/>
     </row>
-    <row r="789" spans="1:14">
+    <row r="789" spans="1:14" hidden="1">
       <c r="A789" s="31"/>
       <c r="B789" s="31"/>
       <c r="C789" s="128"/>
@@ -44677,7 +44677,7 @@
       <c r="M789" s="13"/>
       <c r="N789" s="14"/>
     </row>
-    <row r="790" spans="1:14">
+    <row r="790" spans="1:14" hidden="1">
       <c r="A790" s="31"/>
       <c r="B790" s="31"/>
       <c r="C790" s="128"/>
@@ -44693,7 +44693,7 @@
       <c r="M790" s="13"/>
       <c r="N790" s="14"/>
     </row>
-    <row r="791" spans="1:14">
+    <row r="791" spans="1:14" hidden="1">
       <c r="A791" s="31"/>
       <c r="B791" s="31"/>
       <c r="C791" s="128"/>
@@ -44709,7 +44709,7 @@
       <c r="M791" s="13"/>
       <c r="N791" s="14"/>
     </row>
-    <row r="792" spans="1:14">
+    <row r="792" spans="1:14" hidden="1">
       <c r="A792" s="31"/>
       <c r="B792" s="31"/>
       <c r="C792" s="128"/>
@@ -44725,7 +44725,7 @@
       <c r="M792" s="13"/>
       <c r="N792" s="14"/>
     </row>
-    <row r="793" spans="1:14">
+    <row r="793" spans="1:14" hidden="1">
       <c r="A793" s="31"/>
       <c r="B793" s="31"/>
       <c r="C793" s="128"/>
@@ -44741,7 +44741,7 @@
       <c r="M793" s="13"/>
       <c r="N793" s="14"/>
     </row>
-    <row r="794" spans="1:14">
+    <row r="794" spans="1:14" hidden="1">
       <c r="A794" s="31"/>
       <c r="B794" s="31"/>
       <c r="C794" s="128"/>
@@ -44757,7 +44757,7 @@
       <c r="M794" s="13"/>
       <c r="N794" s="14"/>
     </row>
-    <row r="795" spans="1:14">
+    <row r="795" spans="1:14" hidden="1">
       <c r="A795" s="31"/>
       <c r="B795" s="31"/>
       <c r="C795" s="128"/>
@@ -44773,7 +44773,7 @@
       <c r="M795" s="13"/>
       <c r="N795" s="14"/>
     </row>
-    <row r="796" spans="1:14">
+    <row r="796" spans="1:14" hidden="1">
       <c r="A796" s="31"/>
       <c r="B796" s="31"/>
       <c r="C796" s="128"/>
@@ -44789,7 +44789,7 @@
       <c r="M796" s="13"/>
       <c r="N796" s="14"/>
     </row>
-    <row r="797" spans="1:14">
+    <row r="797" spans="1:14" hidden="1">
       <c r="A797" s="31"/>
       <c r="B797" s="31"/>
       <c r="C797" s="128"/>
@@ -44805,7 +44805,7 @@
       <c r="M797" s="13"/>
       <c r="N797" s="14"/>
     </row>
-    <row r="798" spans="1:14">
+    <row r="798" spans="1:14" hidden="1">
       <c r="A798" s="31"/>
       <c r="B798" s="31"/>
       <c r="C798" s="128"/>
@@ -44821,7 +44821,7 @@
       <c r="M798" s="13"/>
       <c r="N798" s="14"/>
     </row>
-    <row r="799" spans="1:14">
+    <row r="799" spans="1:14" hidden="1">
       <c r="A799" s="31"/>
       <c r="B799" s="31"/>
       <c r="C799" s="128"/>
@@ -44837,7 +44837,7 @@
       <c r="M799" s="13"/>
       <c r="N799" s="14"/>
     </row>
-    <row r="800" spans="1:14">
+    <row r="800" spans="1:14" hidden="1">
       <c r="A800" s="31"/>
       <c r="B800" s="31"/>
       <c r="C800" s="128"/>
@@ -44853,7 +44853,7 @@
       <c r="M800" s="13"/>
       <c r="N800" s="14"/>
     </row>
-    <row r="801" spans="1:14">
+    <row r="801" spans="1:14" hidden="1">
       <c r="A801" s="31"/>
       <c r="B801" s="31"/>
       <c r="C801" s="128"/>
@@ -44869,7 +44869,7 @@
       <c r="M801" s="13"/>
       <c r="N801" s="14"/>
     </row>
-    <row r="802" spans="1:14">
+    <row r="802" spans="1:14" hidden="1">
       <c r="A802" s="31"/>
       <c r="B802" s="31"/>
       <c r="C802" s="128"/>
@@ -44885,7 +44885,7 @@
       <c r="M802" s="13"/>
       <c r="N802" s="14"/>
     </row>
-    <row r="803" spans="1:14">
+    <row r="803" spans="1:14" hidden="1">
       <c r="A803" s="31"/>
       <c r="B803" s="31"/>
       <c r="C803" s="128"/>
@@ -44901,7 +44901,7 @@
       <c r="M803" s="13"/>
       <c r="N803" s="14"/>
     </row>
-    <row r="804" spans="1:14">
+    <row r="804" spans="1:14" hidden="1">
       <c r="A804" s="31"/>
       <c r="B804" s="31"/>
       <c r="C804" s="128"/>
@@ -44917,7 +44917,7 @@
       <c r="M804" s="13"/>
       <c r="N804" s="14"/>
     </row>
-    <row r="805" spans="1:14">
+    <row r="805" spans="1:14" hidden="1">
       <c r="A805" s="31"/>
       <c r="B805" s="31"/>
       <c r="C805" s="128"/>
@@ -44933,7 +44933,7 @@
       <c r="M805" s="13"/>
       <c r="N805" s="14"/>
     </row>
-    <row r="806" spans="1:14">
+    <row r="806" spans="1:14" hidden="1">
       <c r="A806" s="31"/>
       <c r="B806" s="31"/>
       <c r="C806" s="128"/>
@@ -44949,7 +44949,7 @@
       <c r="M806" s="13"/>
       <c r="N806" s="14"/>
     </row>
-    <row r="807" spans="1:14">
+    <row r="807" spans="1:14" hidden="1">
       <c r="A807" s="31"/>
       <c r="B807" s="31"/>
       <c r="C807" s="128"/>
@@ -44965,7 +44965,7 @@
       <c r="M807" s="13"/>
       <c r="N807" s="14"/>
     </row>
-    <row r="808" spans="1:14">
+    <row r="808" spans="1:14" hidden="1">
       <c r="A808" s="31"/>
       <c r="B808" s="31"/>
       <c r="C808" s="128"/>
@@ -44981,7 +44981,7 @@
       <c r="M808" s="13"/>
       <c r="N808" s="14"/>
     </row>
-    <row r="809" spans="1:14">
+    <row r="809" spans="1:14" hidden="1">
       <c r="A809" s="31"/>
       <c r="B809" s="31"/>
       <c r="C809" s="128"/>
@@ -44997,7 +44997,7 @@
       <c r="M809" s="13"/>
       <c r="N809" s="14"/>
     </row>
-    <row r="810" spans="1:14">
+    <row r="810" spans="1:14" hidden="1">
       <c r="A810" s="31"/>
       <c r="B810" s="31"/>
       <c r="C810" s="128"/>
@@ -45013,7 +45013,7 @@
       <c r="M810" s="13"/>
       <c r="N810" s="14"/>
     </row>
-    <row r="811" spans="1:14">
+    <row r="811" spans="1:14" hidden="1">
       <c r="A811" s="31"/>
       <c r="B811" s="31"/>
       <c r="C811" s="128"/>
@@ -45029,7 +45029,7 @@
       <c r="M811" s="13"/>
       <c r="N811" s="14"/>
     </row>
-    <row r="812" spans="1:14">
+    <row r="812" spans="1:14" hidden="1">
       <c r="A812" s="31"/>
       <c r="B812" s="31"/>
       <c r="C812" s="128"/>
@@ -45045,7 +45045,7 @@
       <c r="M812" s="13"/>
       <c r="N812" s="14"/>
     </row>
-    <row r="813" spans="1:14">
+    <row r="813" spans="1:14" hidden="1">
       <c r="A813" s="31"/>
       <c r="B813" s="31"/>
       <c r="C813" s="128"/>
@@ -45061,7 +45061,7 @@
       <c r="M813" s="13"/>
       <c r="N813" s="14"/>
     </row>
-    <row r="814" spans="1:14">
+    <row r="814" spans="1:14" hidden="1">
       <c r="A814" s="31"/>
       <c r="B814" s="31"/>
       <c r="C814" s="128"/>
@@ -45077,7 +45077,7 @@
       <c r="M814" s="13"/>
       <c r="N814" s="14"/>
     </row>
-    <row r="815" spans="1:14">
+    <row r="815" spans="1:14" hidden="1">
       <c r="A815" s="31"/>
       <c r="B815" s="31"/>
       <c r="C815" s="128"/>
@@ -45093,7 +45093,7 @@
       <c r="M815" s="13"/>
       <c r="N815" s="14"/>
     </row>
-    <row r="816" spans="1:14">
+    <row r="816" spans="1:14" hidden="1">
       <c r="A816" s="31"/>
       <c r="B816" s="31"/>
       <c r="C816" s="128"/>
@@ -45109,7 +45109,7 @@
       <c r="M816" s="13"/>
       <c r="N816" s="14"/>
     </row>
-    <row r="817" spans="1:14">
+    <row r="817" spans="1:14" hidden="1">
       <c r="A817" s="31"/>
       <c r="B817" s="31"/>
       <c r="C817" s="128"/>
@@ -45125,7 +45125,7 @@
       <c r="M817" s="13"/>
       <c r="N817" s="14"/>
     </row>
-    <row r="818" spans="1:14">
+    <row r="818" spans="1:14" hidden="1">
       <c r="A818" s="31"/>
       <c r="B818" s="31"/>
       <c r="C818" s="128"/>
@@ -45141,7 +45141,7 @@
       <c r="M818" s="13"/>
       <c r="N818" s="14"/>
     </row>
-    <row r="819" spans="1:14">
+    <row r="819" spans="1:14" hidden="1">
       <c r="A819" s="31"/>
       <c r="B819" s="31"/>
       <c r="C819" s="128"/>
@@ -45157,7 +45157,7 @@
       <c r="M819" s="13"/>
       <c r="N819" s="14"/>
     </row>
-    <row r="820" spans="1:14">
+    <row r="820" spans="1:14" hidden="1">
       <c r="A820" s="31"/>
       <c r="B820" s="31"/>
       <c r="C820" s="128"/>
@@ -45173,7 +45173,7 @@
       <c r="M820" s="13"/>
       <c r="N820" s="14"/>
     </row>
-    <row r="821" spans="1:14">
+    <row r="821" spans="1:14" hidden="1">
       <c r="A821" s="31"/>
       <c r="B821" s="31"/>
       <c r="C821" s="128"/>
@@ -45189,7 +45189,7 @@
       <c r="M821" s="13"/>
       <c r="N821" s="14"/>
     </row>
-    <row r="822" spans="1:14">
+    <row r="822" spans="1:14" hidden="1">
       <c r="A822" s="31"/>
       <c r="B822" s="31"/>
       <c r="C822" s="128"/>
@@ -45205,7 +45205,7 @@
       <c r="M822" s="13"/>
       <c r="N822" s="14"/>
     </row>
-    <row r="823" spans="1:14">
+    <row r="823" spans="1:14" hidden="1">
       <c r="A823" s="31"/>
       <c r="B823" s="31"/>
       <c r="C823" s="128"/>
@@ -45221,7 +45221,7 @@
       <c r="M823" s="13"/>
       <c r="N823" s="14"/>
     </row>
-    <row r="824" spans="1:14">
+    <row r="824" spans="1:14" hidden="1">
       <c r="A824" s="31"/>
       <c r="B824" s="31"/>
       <c r="C824" s="128"/>
@@ -45237,7 +45237,7 @@
       <c r="M824" s="13"/>
       <c r="N824" s="14"/>
     </row>
-    <row r="825" spans="1:14">
+    <row r="825" spans="1:14" hidden="1">
       <c r="A825" s="31"/>
       <c r="B825" s="31"/>
       <c r="C825" s="128"/>
@@ -45253,7 +45253,7 @@
       <c r="M825" s="13"/>
       <c r="N825" s="14"/>
     </row>
-    <row r="826" spans="1:14">
+    <row r="826" spans="1:14" hidden="1">
       <c r="A826" s="31"/>
       <c r="B826" s="31"/>
       <c r="C826" s="128"/>
@@ -45269,7 +45269,7 @@
       <c r="M826" s="13"/>
       <c r="N826" s="14"/>
     </row>
-    <row r="827" spans="1:14">
+    <row r="827" spans="1:14" hidden="1">
       <c r="A827" s="31"/>
       <c r="B827" s="31"/>
       <c r="C827" s="128"/>
@@ -45285,7 +45285,7 @@
       <c r="M827" s="13"/>
       <c r="N827" s="14"/>
     </row>
-    <row r="828" spans="1:14">
+    <row r="828" spans="1:14" hidden="1">
       <c r="A828" s="31"/>
       <c r="B828" s="31"/>
       <c r="C828" s="128"/>
@@ -45301,7 +45301,7 @@
       <c r="M828" s="13"/>
       <c r="N828" s="14"/>
     </row>
-    <row r="829" spans="1:14">
+    <row r="829" spans="1:14" hidden="1">
       <c r="A829" s="31"/>
       <c r="B829" s="31"/>
       <c r="C829" s="128"/>
@@ -45317,7 +45317,7 @@
       <c r="M829" s="13"/>
       <c r="N829" s="14"/>
     </row>
-    <row r="830" spans="1:14">
+    <row r="830" spans="1:14" hidden="1">
       <c r="A830" s="31"/>
       <c r="B830" s="31"/>
       <c r="C830" s="128"/>
@@ -45333,7 +45333,7 @@
       <c r="M830" s="13"/>
       <c r="N830" s="14"/>
     </row>
-    <row r="831" spans="1:14">
+    <row r="831" spans="1:14" hidden="1">
       <c r="A831" s="31"/>
       <c r="B831" s="31"/>
       <c r="C831" s="128"/>
@@ -45349,7 +45349,7 @@
       <c r="M831" s="13"/>
       <c r="N831" s="14"/>
     </row>
-    <row r="832" spans="1:14">
+    <row r="832" spans="1:14" hidden="1">
       <c r="A832" s="31"/>
       <c r="B832" s="31"/>
       <c r="C832" s="128"/>
@@ -45365,7 +45365,7 @@
       <c r="M832" s="13"/>
       <c r="N832" s="14"/>
     </row>
-    <row r="833" spans="1:14">
+    <row r="833" spans="1:14" hidden="1">
       <c r="A833" s="31"/>
       <c r="B833" s="31"/>
       <c r="C833" s="128"/>
@@ -45381,7 +45381,7 @@
       <c r="M833" s="13"/>
       <c r="N833" s="14"/>
     </row>
-    <row r="834" spans="1:14">
+    <row r="834" spans="1:14" hidden="1">
       <c r="A834" s="31"/>
       <c r="B834" s="31"/>
       <c r="C834" s="128"/>
@@ -45397,7 +45397,7 @@
       <c r="M834" s="13"/>
       <c r="N834" s="14"/>
     </row>
-    <row r="835" spans="1:14">
+    <row r="835" spans="1:14" hidden="1">
       <c r="A835" s="31"/>
       <c r="B835" s="31"/>
       <c r="C835" s="128"/>
@@ -45413,7 +45413,7 @@
       <c r="M835" s="13"/>
       <c r="N835" s="14"/>
     </row>
-    <row r="836" spans="1:14">
+    <row r="836" spans="1:14" hidden="1">
       <c r="A836" s="31"/>
       <c r="B836" s="31"/>
       <c r="C836" s="128"/>
@@ -45429,7 +45429,7 @@
       <c r="M836" s="13"/>
       <c r="N836" s="14"/>
     </row>
-    <row r="837" spans="1:14">
+    <row r="837" spans="1:14" hidden="1">
       <c r="A837" s="31"/>
       <c r="B837" s="31"/>
       <c r="C837" s="128"/>
@@ -45445,7 +45445,7 @@
       <c r="M837" s="13"/>
       <c r="N837" s="14"/>
     </row>
-    <row r="838" spans="1:14">
+    <row r="838" spans="1:14" hidden="1">
       <c r="A838" s="31"/>
       <c r="B838" s="31"/>
       <c r="C838" s="128"/>
@@ -45461,7 +45461,7 @@
       <c r="M838" s="13"/>
       <c r="N838" s="14"/>
     </row>
-    <row r="839" spans="1:14">
+    <row r="839" spans="1:14" hidden="1">
       <c r="A839" s="31"/>
       <c r="B839" s="31"/>
       <c r="C839" s="128"/>
@@ -45477,7 +45477,7 @@
       <c r="M839" s="13"/>
       <c r="N839" s="14"/>
     </row>
-    <row r="840" spans="1:14">
+    <row r="840" spans="1:14" hidden="1">
       <c r="A840" s="31"/>
       <c r="B840" s="31"/>
       <c r="C840" s="128"/>
@@ -45493,7 +45493,7 @@
       <c r="M840" s="13"/>
       <c r="N840" s="14"/>
     </row>
-    <row r="841" spans="1:14">
+    <row r="841" spans="1:14" hidden="1">
       <c r="A841" s="31"/>
       <c r="B841" s="31"/>
       <c r="C841" s="128"/>
@@ -45509,7 +45509,7 @@
       <c r="M841" s="13"/>
       <c r="N841" s="14"/>
     </row>
-    <row r="842" spans="1:14">
+    <row r="842" spans="1:14" hidden="1">
       <c r="A842" s="31"/>
       <c r="B842" s="31"/>
       <c r="C842" s="128"/>
@@ -45525,7 +45525,7 @@
       <c r="M842" s="13"/>
       <c r="N842" s="14"/>
     </row>
-    <row r="843" spans="1:14">
+    <row r="843" spans="1:14" hidden="1">
       <c r="A843" s="31"/>
       <c r="B843" s="31"/>
       <c r="C843" s="128"/>
@@ -45541,7 +45541,7 @@
       <c r="M843" s="13"/>
       <c r="N843" s="14"/>
     </row>
-    <row r="844" spans="1:14">
+    <row r="844" spans="1:14" hidden="1">
       <c r="A844" s="31"/>
       <c r="B844" s="31"/>
       <c r="C844" s="128"/>
@@ -45557,7 +45557,7 @@
       <c r="M844" s="13"/>
       <c r="N844" s="14"/>
     </row>
-    <row r="845" spans="1:14">
+    <row r="845" spans="1:14" hidden="1">
       <c r="A845" s="31"/>
       <c r="B845" s="31"/>
       <c r="C845" s="128"/>
@@ -45573,7 +45573,7 @@
       <c r="M845" s="13"/>
       <c r="N845" s="14"/>
     </row>
-    <row r="846" spans="1:14">
+    <row r="846" spans="1:14" hidden="1">
       <c r="A846" s="31"/>
       <c r="B846" s="31"/>
       <c r="C846" s="128"/>
@@ -45589,7 +45589,7 @@
       <c r="M846" s="13"/>
       <c r="N846" s="14"/>
     </row>
-    <row r="847" spans="1:14">
+    <row r="847" spans="1:14" hidden="1">
       <c r="A847" s="31"/>
       <c r="B847" s="31"/>
       <c r="C847" s="128"/>
@@ -45605,7 +45605,7 @@
       <c r="M847" s="13"/>
       <c r="N847" s="14"/>
     </row>
-    <row r="848" spans="1:14">
+    <row r="848" spans="1:14" hidden="1">
       <c r="A848" s="31"/>
       <c r="B848" s="31"/>
       <c r="C848" s="128"/>
@@ -45621,7 +45621,7 @@
       <c r="M848" s="13"/>
       <c r="N848" s="14"/>
     </row>
-    <row r="849" spans="1:14">
+    <row r="849" spans="1:14" hidden="1">
       <c r="A849" s="31"/>
       <c r="B849" s="31"/>
       <c r="C849" s="128"/>
@@ -45637,7 +45637,7 @@
       <c r="M849" s="13"/>
       <c r="N849" s="14"/>
     </row>
-    <row r="850" spans="1:14">
+    <row r="850" spans="1:14" hidden="1">
       <c r="A850" s="31"/>
       <c r="B850" s="31"/>
       <c r="C850" s="128"/>
@@ -45653,7 +45653,7 @@
       <c r="M850" s="13"/>
       <c r="N850" s="14"/>
     </row>
-    <row r="851" spans="1:14">
+    <row r="851" spans="1:14" hidden="1">
       <c r="A851" s="31"/>
       <c r="B851" s="31"/>
       <c r="C851" s="128"/>
@@ -45669,7 +45669,7 @@
       <c r="M851" s="13"/>
       <c r="N851" s="14"/>
     </row>
-    <row r="852" spans="1:14">
+    <row r="852" spans="1:14" hidden="1">
       <c r="A852" s="31"/>
       <c r="B852" s="31"/>
       <c r="C852" s="128"/>
@@ -45685,7 +45685,7 @@
       <c r="M852" s="13"/>
       <c r="N852" s="14"/>
     </row>
-    <row r="853" spans="1:14">
+    <row r="853" spans="1:14" hidden="1">
       <c r="A853" s="31"/>
       <c r="B853" s="31"/>
       <c r="C853" s="128"/>
@@ -45701,7 +45701,7 @@
       <c r="M853" s="13"/>
       <c r="N853" s="14"/>
     </row>
-    <row r="854" spans="1:14">
+    <row r="854" spans="1:14" hidden="1">
       <c r="A854" s="31"/>
       <c r="B854" s="31"/>
       <c r="C854" s="128"/>
@@ -45717,7 +45717,7 @@
       <c r="M854" s="13"/>
       <c r="N854" s="14"/>
     </row>
-    <row r="855" spans="1:14">
+    <row r="855" spans="1:14" hidden="1">
       <c r="A855" s="31"/>
       <c r="B855" s="31"/>
       <c r="C855" s="128"/>
@@ -45733,7 +45733,7 @@
       <c r="M855" s="13"/>
       <c r="N855" s="14"/>
     </row>
-    <row r="856" spans="1:14">
+    <row r="856" spans="1:14" hidden="1">
       <c r="A856" s="31"/>
       <c r="B856" s="31"/>
       <c r="C856" s="128"/>
@@ -45749,7 +45749,7 @@
       <c r="M856" s="13"/>
       <c r="N856" s="14"/>
     </row>
-    <row r="857" spans="1:14">
+    <row r="857" spans="1:14" hidden="1">
       <c r="A857" s="31"/>
       <c r="B857" s="31"/>
       <c r="C857" s="128"/>
@@ -45765,7 +45765,7 @@
       <c r="M857" s="13"/>
       <c r="N857" s="14"/>
     </row>
-    <row r="858" spans="1:14">
+    <row r="858" spans="1:14" hidden="1">
       <c r="A858" s="31"/>
       <c r="B858" s="31"/>
       <c r="C858" s="128"/>
@@ -45781,7 +45781,7 @@
       <c r="M858" s="13"/>
       <c r="N858" s="14"/>
     </row>
-    <row r="859" spans="1:14">
+    <row r="859" spans="1:14" hidden="1">
       <c r="A859" s="31"/>
       <c r="B859" s="31"/>
       <c r="C859" s="128"/>
@@ -45797,7 +45797,7 @@
       <c r="M859" s="13"/>
       <c r="N859" s="14"/>
     </row>
-    <row r="860" spans="1:14">
+    <row r="860" spans="1:14" hidden="1">
       <c r="A860" s="31"/>
       <c r="B860" s="31"/>
       <c r="C860" s="128"/>
@@ -45813,7 +45813,7 @@
       <c r="M860" s="13"/>
       <c r="N860" s="14"/>
     </row>
-    <row r="861" spans="1:14">
+    <row r="861" spans="1:14" hidden="1">
       <c r="A861" s="31"/>
       <c r="B861" s="31"/>
       <c r="C861" s="128"/>
@@ -45829,7 +45829,7 @@
       <c r="M861" s="13"/>
       <c r="N861" s="14"/>
     </row>
-    <row r="862" spans="1:14">
+    <row r="862" spans="1:14" hidden="1">
       <c r="A862" s="31"/>
       <c r="B862" s="31"/>
       <c r="C862" s="128"/>
@@ -45845,7 +45845,7 @@
       <c r="M862" s="13"/>
       <c r="N862" s="14"/>
     </row>
-    <row r="863" spans="1:14">
+    <row r="863" spans="1:14" hidden="1">
       <c r="A863" s="31"/>
       <c r="B863" s="31"/>
       <c r="C863" s="128"/>
@@ -45861,7 +45861,7 @@
       <c r="M863" s="13"/>
       <c r="N863" s="14"/>
     </row>
-    <row r="864" spans="1:14">
+    <row r="864" spans="1:14" hidden="1">
       <c r="A864" s="31"/>
       <c r="B864" s="31"/>
       <c r="C864" s="128"/>
@@ -45877,7 +45877,7 @@
       <c r="M864" s="13"/>
       <c r="N864" s="14"/>
     </row>
-    <row r="865" spans="1:14">
+    <row r="865" spans="1:14" hidden="1">
       <c r="A865" s="31"/>
       <c r="B865" s="31"/>
       <c r="C865" s="128"/>
@@ -45893,7 +45893,7 @@
       <c r="M865" s="13"/>
       <c r="N865" s="14"/>
     </row>
-    <row r="866" spans="1:14">
+    <row r="866" spans="1:14" hidden="1">
       <c r="A866" s="31"/>
       <c r="B866" s="31"/>
       <c r="C866" s="128"/>
@@ -45909,7 +45909,7 @@
       <c r="M866" s="13"/>
       <c r="N866" s="14"/>
     </row>
-    <row r="867" spans="1:14">
+    <row r="867" spans="1:14" hidden="1">
       <c r="A867" s="31"/>
       <c r="B867" s="31"/>
       <c r="C867" s="128"/>
@@ -45925,7 +45925,7 @@
       <c r="M867" s="13"/>
       <c r="N867" s="14"/>
     </row>
-    <row r="868" spans="1:14">
+    <row r="868" spans="1:14" hidden="1">
       <c r="A868" s="31"/>
       <c r="B868" s="31"/>
       <c r="C868" s="128"/>
@@ -45941,7 +45941,7 @@
       <c r="M868" s="13"/>
       <c r="N868" s="14"/>
     </row>
-    <row r="869" spans="1:14">
+    <row r="869" spans="1:14" hidden="1">
       <c r="A869" s="31"/>
       <c r="B869" s="31"/>
       <c r="C869" s="128"/>
@@ -45957,7 +45957,7 @@
       <c r="M869" s="13"/>
       <c r="N869" s="14"/>
     </row>
-    <row r="870" spans="1:14">
+    <row r="870" spans="1:14" hidden="1">
       <c r="A870" s="31"/>
       <c r="B870" s="31"/>
       <c r="C870" s="128"/>
@@ -45973,7 +45973,7 @@
       <c r="M870" s="13"/>
       <c r="N870" s="14"/>
     </row>
-    <row r="871" spans="1:14">
+    <row r="871" spans="1:14" hidden="1">
       <c r="A871" s="31"/>
       <c r="B871" s="31"/>
       <c r="C871" s="128"/>
@@ -45989,7 +45989,7 @@
       <c r="M871" s="13"/>
       <c r="N871" s="14"/>
     </row>
-    <row r="872" spans="1:14">
+    <row r="872" spans="1:14" hidden="1">
       <c r="A872" s="31"/>
       <c r="B872" s="31"/>
       <c r="C872" s="128"/>
@@ -46005,7 +46005,7 @@
       <c r="M872" s="13"/>
       <c r="N872" s="14"/>
     </row>
-    <row r="873" spans="1:14">
+    <row r="873" spans="1:14" hidden="1">
       <c r="A873" s="31"/>
       <c r="B873" s="31"/>
       <c r="C873" s="128"/>
@@ -46021,7 +46021,7 @@
       <c r="M873" s="13"/>
       <c r="N873" s="14"/>
     </row>
-    <row r="874" spans="1:14">
+    <row r="874" spans="1:14" hidden="1">
       <c r="A874" s="31"/>
       <c r="B874" s="31"/>
       <c r="C874" s="128"/>
@@ -46037,7 +46037,7 @@
       <c r="M874" s="13"/>
       <c r="N874" s="14"/>
     </row>
-    <row r="875" spans="1:14">
+    <row r="875" spans="1:14" hidden="1">
       <c r="A875" s="31"/>
       <c r="B875" s="31"/>
       <c r="C875" s="128"/>
@@ -46053,7 +46053,7 @@
       <c r="M875" s="13"/>
       <c r="N875" s="14"/>
     </row>
-    <row r="876" spans="1:14">
+    <row r="876" spans="1:14" hidden="1">
       <c r="A876" s="31"/>
       <c r="B876" s="31"/>
       <c r="C876" s="128"/>
@@ -46069,7 +46069,7 @@
       <c r="M876" s="13"/>
       <c r="N876" s="14"/>
     </row>
-    <row r="877" spans="1:14">
+    <row r="877" spans="1:14" hidden="1">
       <c r="A877" s="31"/>
       <c r="B877" s="31"/>
       <c r="C877" s="128"/>
@@ -46085,7 +46085,7 @@
       <c r="M877" s="13"/>
       <c r="N877" s="14"/>
     </row>
-    <row r="878" spans="1:14">
+    <row r="878" spans="1:14" hidden="1">
       <c r="A878" s="31"/>
       <c r="B878" s="31"/>
       <c r="C878" s="128"/>
@@ -46101,7 +46101,7 @@
       <c r="M878" s="13"/>
       <c r="N878" s="14"/>
     </row>
-    <row r="879" spans="1:14">
+    <row r="879" spans="1:14" hidden="1">
       <c r="A879" s="31"/>
       <c r="B879" s="31"/>
       <c r="C879" s="128"/>
@@ -46117,7 +46117,7 @@
       <c r="M879" s="13"/>
       <c r="N879" s="14"/>
     </row>
-    <row r="880" spans="1:14">
+    <row r="880" spans="1:14" hidden="1">
       <c r="A880" s="31"/>
       <c r="B880" s="31"/>
       <c r="C880" s="128"/>
@@ -46133,7 +46133,7 @@
       <c r="M880" s="13"/>
       <c r="N880" s="14"/>
     </row>
-    <row r="881" spans="1:14">
+    <row r="881" spans="1:14" hidden="1">
       <c r="A881" s="31"/>
       <c r="B881" s="31"/>
       <c r="C881" s="128"/>
@@ -46149,7 +46149,7 @@
       <c r="M881" s="13"/>
       <c r="N881" s="14"/>
     </row>
-    <row r="882" spans="1:14">
+    <row r="882" spans="1:14" hidden="1">
       <c r="A882" s="31"/>
       <c r="B882" s="31"/>
       <c r="C882" s="128"/>
@@ -46165,7 +46165,7 @@
       <c r="M882" s="13"/>
       <c r="N882" s="14"/>
     </row>
-    <row r="883" spans="1:14">
+    <row r="883" spans="1:14" hidden="1">
       <c r="A883" s="31"/>
       <c r="B883" s="31"/>
       <c r="C883" s="128"/>
@@ -46181,7 +46181,7 @@
       <c r="M883" s="13"/>
       <c r="N883" s="14"/>
     </row>
-    <row r="884" spans="1:14">
+    <row r="884" spans="1:14" hidden="1">
       <c r="A884" s="31"/>
       <c r="B884" s="31"/>
       <c r="C884" s="128"/>
@@ -46197,7 +46197,7 @@
       <c r="M884" s="13"/>
       <c r="N884" s="14"/>
     </row>
-    <row r="885" spans="1:14">
+    <row r="885" spans="1:14" hidden="1">
       <c r="A885" s="31"/>
       <c r="B885" s="31"/>
       <c r="C885" s="128"/>
@@ -46213,7 +46213,7 @@
       <c r="M885" s="13"/>
       <c r="N885" s="14"/>
     </row>
-    <row r="886" spans="1:14">
+    <row r="886" spans="1:14" hidden="1">
       <c r="A886" s="31"/>
       <c r="B886" s="31"/>
       <c r="C886" s="128"/>
@@ -46229,7 +46229,7 @@
       <c r="M886" s="13"/>
       <c r="N886" s="14"/>
     </row>
-    <row r="887" spans="1:14">
+    <row r="887" spans="1:14" hidden="1">
       <c r="A887" s="31"/>
       <c r="B887" s="31"/>
       <c r="C887" s="128"/>
@@ -46245,7 +46245,7 @@
       <c r="M887" s="13"/>
       <c r="N887" s="14"/>
     </row>
-    <row r="888" spans="1:14">
+    <row r="888" spans="1:14" hidden="1">
       <c r="A888" s="31"/>
       <c r="B888" s="31"/>
       <c r="C888" s="128"/>
@@ -46261,7 +46261,7 @@
       <c r="M888" s="13"/>
       <c r="N888" s="14"/>
     </row>
-    <row r="889" spans="1:14">
+    <row r="889" spans="1:14" hidden="1">
       <c r="A889" s="31"/>
       <c r="B889" s="31"/>
       <c r="C889" s="128"/>
@@ -46277,7 +46277,7 @@
       <c r="M889" s="13"/>
       <c r="N889" s="14"/>
     </row>
-    <row r="890" spans="1:14">
+    <row r="890" spans="1:14" hidden="1">
       <c r="A890" s="31"/>
       <c r="B890" s="31"/>
       <c r="C890" s="128"/>
@@ -46293,7 +46293,7 @@
       <c r="M890" s="13"/>
       <c r="N890" s="14"/>
     </row>
-    <row r="891" spans="1:14">
+    <row r="891" spans="1:14" hidden="1">
       <c r="A891" s="31"/>
       <c r="B891" s="31"/>
       <c r="C891" s="128"/>
@@ -46309,7 +46309,7 @@
       <c r="M891" s="13"/>
       <c r="N891" s="14"/>
     </row>
-    <row r="892" spans="1:14">
+    <row r="892" spans="1:14" hidden="1">
       <c r="A892" s="31"/>
       <c r="B892" s="31"/>
       <c r="C892" s="128"/>
@@ -46325,7 +46325,7 @@
       <c r="M892" s="13"/>
       <c r="N892" s="14"/>
     </row>
-    <row r="893" spans="1:14">
+    <row r="893" spans="1:14" hidden="1">
       <c r="A893" s="31"/>
       <c r="B893" s="31"/>
       <c r="C893" s="128"/>
@@ -46341,7 +46341,7 @@
       <c r="M893" s="13"/>
       <c r="N893" s="14"/>
     </row>
-    <row r="894" spans="1:14">
+    <row r="894" spans="1:14" hidden="1">
       <c r="A894" s="31"/>
       <c r="B894" s="31"/>
       <c r="C894" s="128"/>
@@ -46357,7 +46357,7 @@
       <c r="M894" s="13"/>
       <c r="N894" s="14"/>
     </row>
-    <row r="895" spans="1:14">
+    <row r="895" spans="1:14" hidden="1">
       <c r="A895" s="31"/>
       <c r="B895" s="31"/>
       <c r="C895" s="128"/>
@@ -46373,7 +46373,7 @@
       <c r="M895" s="13"/>
       <c r="N895" s="14"/>
     </row>
-    <row r="896" spans="1:14">
+    <row r="896" spans="1:14" hidden="1">
       <c r="A896" s="31"/>
       <c r="B896" s="31"/>
       <c r="C896" s="128"/>
@@ -46389,7 +46389,7 @@
       <c r="M896" s="13"/>
       <c r="N896" s="14"/>
     </row>
-    <row r="897" spans="1:14">
+    <row r="897" spans="1:14" hidden="1">
       <c r="A897" s="31"/>
       <c r="B897" s="31"/>
       <c r="C897" s="128"/>
@@ -46405,7 +46405,7 @@
       <c r="M897" s="13"/>
       <c r="N897" s="14"/>
     </row>
-    <row r="898" spans="1:14">
+    <row r="898" spans="1:14" hidden="1">
       <c r="A898" s="31"/>
       <c r="B898" s="31"/>
       <c r="C898" s="128"/>
@@ -46421,7 +46421,7 @@
       <c r="M898" s="13"/>
       <c r="N898" s="14"/>
     </row>
-    <row r="899" spans="1:14">
+    <row r="899" spans="1:14" hidden="1">
       <c r="A899" s="31"/>
       <c r="B899" s="31"/>
       <c r="C899" s="128"/>
@@ -46437,7 +46437,7 @@
       <c r="M899" s="13"/>
       <c r="N899" s="14"/>
     </row>
-    <row r="900" spans="1:14">
+    <row r="900" spans="1:14" hidden="1">
       <c r="A900" s="31"/>
       <c r="B900" s="31"/>
       <c r="C900" s="128"/>
@@ -46453,7 +46453,7 @@
       <c r="M900" s="13"/>
       <c r="N900" s="14"/>
     </row>
-    <row r="901" spans="1:14">
+    <row r="901" spans="1:14" hidden="1">
       <c r="A901" s="31"/>
       <c r="B901" s="31"/>
       <c r="C901" s="128"/>
@@ -46469,7 +46469,7 @@
       <c r="M901" s="13"/>
       <c r="N901" s="14"/>
     </row>
-    <row r="902" spans="1:14">
+    <row r="902" spans="1:14" hidden="1">
       <c r="A902" s="31"/>
       <c r="B902" s="31"/>
       <c r="C902" s="128"/>
@@ -46485,7 +46485,7 @@
       <c r="M902" s="13"/>
       <c r="N902" s="14"/>
     </row>
-    <row r="903" spans="1:14">
+    <row r="903" spans="1:14" hidden="1">
       <c r="A903" s="31"/>
       <c r="B903" s="31"/>
       <c r="C903" s="128"/>
@@ -46501,7 +46501,7 @@
       <c r="M903" s="13"/>
       <c r="N903" s="14"/>
     </row>
-    <row r="904" spans="1:14">
+    <row r="904" spans="1:14" hidden="1">
       <c r="A904" s="31"/>
       <c r="B904" s="31"/>
       <c r="C904" s="128"/>
@@ -46517,7 +46517,7 @@
       <c r="M904" s="13"/>
       <c r="N904" s="14"/>
     </row>
-    <row r="905" spans="1:14">
+    <row r="905" spans="1:14" hidden="1">
       <c r="A905" s="31"/>
       <c r="B905" s="31"/>
       <c r="C905" s="128"/>
@@ -46533,7 +46533,7 @@
       <c r="M905" s="13"/>
       <c r="N905" s="14"/>
     </row>
-    <row r="906" spans="1:14">
+    <row r="906" spans="1:14" hidden="1">
       <c r="A906" s="31"/>
       <c r="B906" s="31"/>
       <c r="C906" s="128"/>
@@ -46549,7 +46549,7 @@
       <c r="M906" s="13"/>
       <c r="N906" s="14"/>
     </row>
-    <row r="907" spans="1:14">
+    <row r="907" spans="1:14" hidden="1">
       <c r="A907" s="31"/>
       <c r="B907" s="31"/>
       <c r="C907" s="128"/>
@@ -46565,7 +46565,7 @@
       <c r="M907" s="13"/>
       <c r="N907" s="14"/>
     </row>
-    <row r="908" spans="1:14">
+    <row r="908" spans="1:14" hidden="1">
       <c r="A908" s="31"/>
       <c r="B908" s="31"/>
       <c r="C908" s="128"/>
@@ -46581,7 +46581,7 @@
       <c r="M908" s="13"/>
       <c r="N908" s="14"/>
     </row>
-    <row r="909" spans="1:14">
+    <row r="909" spans="1:14" hidden="1">
       <c r="A909" s="31"/>
       <c r="B909" s="31"/>
       <c r="C909" s="128"/>
@@ -46597,7 +46597,7 @@
       <c r="M909" s="13"/>
       <c r="N909" s="14"/>
     </row>
-    <row r="910" spans="1:14">
+    <row r="910" spans="1:14" hidden="1">
       <c r="A910" s="31"/>
       <c r="B910" s="31"/>
       <c r="C910" s="128"/>
@@ -46613,7 +46613,7 @@
       <c r="M910" s="13"/>
       <c r="N910" s="14"/>
     </row>
-    <row r="911" spans="1:14">
+    <row r="911" spans="1:14" hidden="1">
       <c r="A911" s="31"/>
       <c r="B911" s="31"/>
       <c r="C911" s="128"/>
@@ -46629,7 +46629,7 @@
       <c r="M911" s="13"/>
       <c r="N911" s="14"/>
     </row>
-    <row r="912" spans="1:14">
+    <row r="912" spans="1:14" hidden="1">
       <c r="A912" s="31"/>
       <c r="B912" s="31"/>
       <c r="C912" s="128"/>
@@ -46645,7 +46645,7 @@
       <c r="M912" s="13"/>
       <c r="N912" s="14"/>
     </row>
-    <row r="913" spans="1:14">
+    <row r="913" spans="1:14" hidden="1">
       <c r="A913" s="31"/>
       <c r="B913" s="31"/>
       <c r="C913" s="128"/>
@@ -46661,7 +46661,7 @@
       <c r="M913" s="13"/>
       <c r="N913" s="14"/>
     </row>
-    <row r="914" spans="1:14">
+    <row r="914" spans="1:14" hidden="1">
       <c r="A914" s="31"/>
       <c r="B914" s="31"/>
       <c r="C914" s="128"/>
@@ -46677,7 +46677,7 @@
       <c r="M914" s="13"/>
       <c r="N914" s="14"/>
     </row>
-    <row r="915" spans="1:14">
+    <row r="915" spans="1:14" hidden="1">
       <c r="A915" s="31"/>
       <c r="B915" s="31"/>
       <c r="C915" s="128"/>
@@ -46693,7 +46693,7 @@
       <c r="M915" s="13"/>
       <c r="N915" s="14"/>
     </row>
-    <row r="916" spans="1:14">
+    <row r="916" spans="1:14" hidden="1">
       <c r="A916" s="31"/>
       <c r="B916" s="31"/>
       <c r="C916" s="128"/>
@@ -46709,7 +46709,7 @@
       <c r="M916" s="13"/>
       <c r="N916" s="14"/>
     </row>
-    <row r="917" spans="1:14">
+    <row r="917" spans="1:14" hidden="1">
       <c r="A917" s="31"/>
       <c r="B917" s="31"/>
       <c r="C917" s="128"/>
@@ -46725,7 +46725,7 @@
       <c r="M917" s="13"/>
       <c r="N917" s="14"/>
     </row>
-    <row r="918" spans="1:14">
+    <row r="918" spans="1:14" hidden="1">
       <c r="A918" s="31"/>
       <c r="B918" s="31"/>
       <c r="C918" s="128"/>
@@ -46741,7 +46741,7 @@
       <c r="M918" s="13"/>
       <c r="N918" s="14"/>
     </row>
-    <row r="919" spans="1:14">
+    <row r="919" spans="1:14" hidden="1">
       <c r="A919" s="31"/>
       <c r="B919" s="31"/>
       <c r="C919" s="128"/>
@@ -46757,7 +46757,7 @@
       <c r="M919" s="13"/>
       <c r="N919" s="14"/>
     </row>
-    <row r="920" spans="1:14">
+    <row r="920" spans="1:14" hidden="1">
       <c r="A920" s="31"/>
       <c r="B920" s="31"/>
       <c r="C920" s="128"/>
@@ -46773,7 +46773,7 @@
       <c r="M920" s="13"/>
       <c r="N920" s="14"/>
     </row>
-    <row r="921" spans="1:14">
+    <row r="921" spans="1:14" hidden="1">
       <c r="A921" s="31"/>
       <c r="B921" s="31"/>
       <c r="C921" s="128"/>
@@ -46789,7 +46789,7 @@
       <c r="M921" s="13"/>
       <c r="N921" s="14"/>
     </row>
-    <row r="922" spans="1:14">
+    <row r="922" spans="1:14" hidden="1">
       <c r="A922" s="31"/>
       <c r="B922" s="31"/>
       <c r="C922" s="128"/>
@@ -46805,7 +46805,7 @@
       <c r="M922" s="13"/>
       <c r="N922" s="14"/>
     </row>
-    <row r="923" spans="1:14">
+    <row r="923" spans="1:14" hidden="1">
       <c r="A923" s="31"/>
       <c r="B923" s="31"/>
       <c r="C923" s="128"/>
@@ -46821,7 +46821,7 @@
       <c r="M923" s="13"/>
       <c r="N923" s="14"/>
     </row>
-    <row r="924" spans="1:14">
+    <row r="924" spans="1:14" hidden="1">
       <c r="A924" s="31"/>
       <c r="B924" s="31"/>
       <c r="C924" s="128"/>
@@ -46837,7 +46837,7 @@
       <c r="M924" s="13"/>
       <c r="N924" s="14"/>
     </row>
-    <row r="925" spans="1:14">
+    <row r="925" spans="1:14" hidden="1">
       <c r="A925" s="31"/>
       <c r="B925" s="31"/>
       <c r="C925" s="128"/>
@@ -46853,7 +46853,7 @@
       <c r="M925" s="13"/>
       <c r="N925" s="14"/>
     </row>
-    <row r="926" spans="1:14">
+    <row r="926" spans="1:14" hidden="1">
       <c r="A926" s="31"/>
       <c r="B926" s="31"/>
       <c r="C926" s="128"/>
@@ -46869,7 +46869,7 @@
       <c r="M926" s="13"/>
       <c r="N926" s="14"/>
     </row>
-    <row r="927" spans="1:14">
+    <row r="927" spans="1:14" hidden="1">
       <c r="A927" s="31"/>
       <c r="B927" s="31"/>
       <c r="C927" s="128"/>
@@ -46885,7 +46885,7 @@
       <c r="M927" s="13"/>
       <c r="N927" s="14"/>
     </row>
-    <row r="928" spans="1:14">
+    <row r="928" spans="1:14" hidden="1">
       <c r="A928" s="31"/>
       <c r="B928" s="31"/>
       <c r="C928" s="128"/>
@@ -46901,7 +46901,7 @@
       <c r="M928" s="13"/>
       <c r="N928" s="14"/>
     </row>
-    <row r="929" spans="1:14">
+    <row r="929" spans="1:14" hidden="1">
       <c r="A929" s="31"/>
       <c r="B929" s="31"/>
       <c r="C929" s="128"/>
@@ -46917,7 +46917,7 @@
       <c r="M929" s="13"/>
       <c r="N929" s="14"/>
     </row>
-    <row r="930" spans="1:14">
+    <row r="930" spans="1:14" hidden="1">
       <c r="A930" s="31"/>
       <c r="B930" s="31"/>
       <c r="C930" s="128"/>
@@ -46933,7 +46933,7 @@
       <c r="M930" s="13"/>
       <c r="N930" s="14"/>
     </row>
-    <row r="931" spans="1:14">
+    <row r="931" spans="1:14" hidden="1">
       <c r="A931" s="31"/>
       <c r="B931" s="31"/>
       <c r="C931" s="128"/>
@@ -46949,7 +46949,7 @@
       <c r="M931" s="13"/>
       <c r="N931" s="14"/>
     </row>
-    <row r="932" spans="1:14">
+    <row r="932" spans="1:14" hidden="1">
       <c r="A932" s="31"/>
       <c r="B932" s="31"/>
       <c r="C932" s="128"/>
@@ -46965,7 +46965,7 @@
       <c r="M932" s="13"/>
       <c r="N932" s="14"/>
     </row>
-    <row r="933" spans="1:14">
+    <row r="933" spans="1:14" hidden="1">
       <c r="A933" s="31"/>
       <c r="B933" s="31"/>
       <c r="C933" s="128"/>
@@ -46981,7 +46981,7 @@
       <c r="M933" s="13"/>
       <c r="N933" s="14"/>
     </row>
-    <row r="934" spans="1:14">
+    <row r="934" spans="1:14" hidden="1">
       <c r="A934" s="31"/>
       <c r="B934" s="31"/>
       <c r="C934" s="128"/>
@@ -46997,7 +46997,7 @@
       <c r="M934" s="13"/>
       <c r="N934" s="14"/>
     </row>
-    <row r="935" spans="1:14">
+    <row r="935" spans="1:14" hidden="1">
       <c r="A935" s="31"/>
       <c r="B935" s="31"/>
       <c r="C935" s="128"/>
@@ -47013,7 +47013,7 @@
       <c r="M935" s="13"/>
       <c r="N935" s="14"/>
     </row>
-    <row r="936" spans="1:14">
+    <row r="936" spans="1:14" hidden="1">
       <c r="A936" s="31"/>
       <c r="B936" s="31"/>
       <c r="C936" s="128"/>
@@ -47029,7 +47029,7 @@
       <c r="M936" s="13"/>
       <c r="N936" s="14"/>
     </row>
-    <row r="937" spans="1:14">
+    <row r="937" spans="1:14" hidden="1">
       <c r="A937" s="31"/>
       <c r="B937" s="31"/>
       <c r="C937" s="128"/>
@@ -47045,7 +47045,7 @@
       <c r="M937" s="13"/>
       <c r="N937" s="14"/>
     </row>
-    <row r="938" spans="1:14">
+    <row r="938" spans="1:14" hidden="1">
       <c r="A938" s="31"/>
       <c r="B938" s="31"/>
       <c r="C938" s="128"/>
@@ -47061,7 +47061,7 @@
       <c r="M938" s="13"/>
       <c r="N938" s="14"/>
     </row>
-    <row r="939" spans="1:14">
+    <row r="939" spans="1:14" hidden="1">
       <c r="A939" s="31"/>
       <c r="B939" s="31"/>
       <c r="C939" s="128"/>
@@ -47077,7 +47077,7 @@
       <c r="M939" s="13"/>
       <c r="N939" s="14"/>
     </row>
-    <row r="940" spans="1:14">
+    <row r="940" spans="1:14" hidden="1">
       <c r="A940" s="31"/>
       <c r="B940" s="31"/>
       <c r="C940" s="128"/>
@@ -47093,7 +47093,7 @@
       <c r="M940" s="13"/>
       <c r="N940" s="14"/>
     </row>
-    <row r="941" spans="1:14">
+    <row r="941" spans="1:14" hidden="1">
       <c r="A941" s="31"/>
       <c r="B941" s="31"/>
       <c r="C941" s="128"/>
@@ -47109,7 +47109,7 @@
       <c r="M941" s="13"/>
       <c r="N941" s="14"/>
     </row>
-    <row r="942" spans="1:14">
+    <row r="942" spans="1:14" hidden="1">
       <c r="A942" s="31"/>
       <c r="B942" s="31"/>
       <c r="C942" s="128"/>
@@ -47125,7 +47125,7 @@
       <c r="M942" s="13"/>
       <c r="N942" s="14"/>
     </row>
-    <row r="943" spans="1:14">
+    <row r="943" spans="1:14" hidden="1">
       <c r="A943" s="31"/>
       <c r="B943" s="31"/>
       <c r="C943" s="128"/>
@@ -47141,7 +47141,7 @@
       <c r="M943" s="13"/>
       <c r="N943" s="14"/>
     </row>
-    <row r="944" spans="1:14">
+    <row r="944" spans="1:14" hidden="1">
       <c r="A944" s="31"/>
       <c r="B944" s="31"/>
       <c r="C944" s="128"/>
@@ -47157,7 +47157,7 @@
       <c r="M944" s="13"/>
       <c r="N944" s="14"/>
     </row>
-    <row r="945" spans="1:14">
+    <row r="945" spans="1:14" hidden="1">
       <c r="A945" s="31"/>
       <c r="B945" s="31"/>
       <c r="C945" s="128"/>
@@ -47173,7 +47173,7 @@
       <c r="M945" s="13"/>
       <c r="N945" s="14"/>
     </row>
-    <row r="946" spans="1:14">
+    <row r="946" spans="1:14" hidden="1">
       <c r="A946" s="31"/>
       <c r="B946" s="31"/>
       <c r="C946" s="128"/>
@@ -47189,7 +47189,7 @@
       <c r="M946" s="13"/>
       <c r="N946" s="14"/>
     </row>
-    <row r="947" spans="1:14">
+    <row r="947" spans="1:14" hidden="1">
       <c r="A947" s="31"/>
       <c r="B947" s="31"/>
       <c r="C947" s="128"/>
@@ -47205,7 +47205,7 @@
       <c r="M947" s="13"/>
       <c r="N947" s="14"/>
     </row>
-    <row r="948" spans="1:14">
+    <row r="948" spans="1:14" hidden="1">
       <c r="A948" s="31"/>
       <c r="B948" s="31"/>
       <c r="C948" s="128"/>
@@ -47221,7 +47221,7 @@
       <c r="M948" s="13"/>
       <c r="N948" s="14"/>
     </row>
-    <row r="949" spans="1:14">
+    <row r="949" spans="1:14" hidden="1">
       <c r="A949" s="31"/>
       <c r="B949" s="31"/>
       <c r="C949" s="128"/>
@@ -47237,7 +47237,7 @@
       <c r="M949" s="13"/>
       <c r="N949" s="14"/>
     </row>
-    <row r="950" spans="1:14">
+    <row r="950" spans="1:14" hidden="1">
       <c r="A950" s="31"/>
       <c r="B950" s="31"/>
       <c r="C950" s="128"/>
@@ -47253,7 +47253,7 @@
       <c r="M950" s="13"/>
       <c r="N950" s="14"/>
     </row>
-    <row r="951" spans="1:14">
+    <row r="951" spans="1:14" hidden="1">
       <c r="A951" s="31"/>
       <c r="B951" s="31"/>
       <c r="C951" s="128"/>
@@ -47269,7 +47269,7 @@
       <c r="M951" s="13"/>
       <c r="N951" s="14"/>
     </row>
-    <row r="952" spans="1:14">
+    <row r="952" spans="1:14" hidden="1">
       <c r="A952" s="31"/>
       <c r="B952" s="31"/>
       <c r="C952" s="128"/>
@@ -47285,7 +47285,7 @@
       <c r="M952" s="13"/>
       <c r="N952" s="14"/>
     </row>
-    <row r="953" spans="1:14">
+    <row r="953" spans="1:14" hidden="1">
       <c r="A953" s="31"/>
       <c r="B953" s="31"/>
       <c r="C953" s="128"/>
@@ -47301,7 +47301,7 @@
       <c r="M953" s="13"/>
       <c r="N953" s="14"/>
     </row>
-    <row r="954" spans="1:14">
+    <row r="954" spans="1:14" hidden="1">
       <c r="A954" s="31"/>
       <c r="B954" s="31"/>
       <c r="C954" s="128"/>
@@ -47317,7 +47317,7 @@
       <c r="M954" s="13"/>
       <c r="N954" s="14"/>
     </row>
-    <row r="955" spans="1:14">
+    <row r="955" spans="1:14" hidden="1">
       <c r="A955" s="31"/>
       <c r="B955" s="31"/>
       <c r="C955" s="128"/>
@@ -47333,7 +47333,7 @@
       <c r="M955" s="13"/>
       <c r="N955" s="14"/>
     </row>
-    <row r="956" spans="1:14">
+    <row r="956" spans="1:14" hidden="1">
       <c r="A956" s="31"/>
       <c r="B956" s="31"/>
       <c r="C956" s="128"/>
@@ -47349,7 +47349,7 @@
       <c r="M956" s="13"/>
       <c r="N956" s="14"/>
     </row>
-    <row r="957" spans="1:14">
+    <row r="957" spans="1:14" hidden="1">
       <c r="A957" s="31"/>
       <c r="B957" s="31"/>
       <c r="C957" s="128"/>
@@ -47365,7 +47365,7 @@
       <c r="M957" s="13"/>
       <c r="N957" s="14"/>
     </row>
-    <row r="958" spans="1:14">
+    <row r="958" spans="1:14" hidden="1">
       <c r="A958" s="31"/>
       <c r="B958" s="31"/>
       <c r="C958" s="128"/>
@@ -47381,7 +47381,7 @@
       <c r="M958" s="13"/>
       <c r="N958" s="14"/>
     </row>
-    <row r="959" spans="1:14">
+    <row r="959" spans="1:14" hidden="1">
       <c r="A959" s="31"/>
       <c r="B959" s="31"/>
       <c r="C959" s="128"/>
@@ -47397,7 +47397,7 @@
       <c r="M959" s="13"/>
       <c r="N959" s="14"/>
     </row>
-    <row r="960" spans="1:14">
+    <row r="960" spans="1:14" hidden="1">
       <c r="A960" s="31"/>
       <c r="B960" s="31"/>
       <c r="C960" s="128"/>
@@ -47413,7 +47413,7 @@
       <c r="M960" s="13"/>
       <c r="N960" s="14"/>
     </row>
-    <row r="961" spans="1:14">
+    <row r="961" spans="1:14" hidden="1">
       <c r="A961" s="31"/>
       <c r="B961" s="31"/>
       <c r="C961" s="128"/>
@@ -47429,7 +47429,7 @@
       <c r="M961" s="13"/>
       <c r="N961" s="14"/>
     </row>
-    <row r="962" spans="1:14">
+    <row r="962" spans="1:14" hidden="1">
       <c r="A962" s="31"/>
       <c r="B962" s="31"/>
       <c r="C962" s="128"/>
@@ -47445,7 +47445,7 @@
       <c r="M962" s="13"/>
       <c r="N962" s="14"/>
     </row>
-    <row r="963" spans="1:14">
+    <row r="963" spans="1:14" hidden="1">
       <c r="A963" s="31"/>
       <c r="B963" s="31"/>
       <c r="C963" s="128"/>
@@ -47461,7 +47461,7 @@
       <c r="M963" s="13"/>
       <c r="N963" s="14"/>
     </row>
-    <row r="964" spans="1:14">
+    <row r="964" spans="1:14" hidden="1">
       <c r="A964" s="31"/>
       <c r="B964" s="31"/>
       <c r="C964" s="128"/>
@@ -47477,7 +47477,7 @@
       <c r="M964" s="13"/>
       <c r="N964" s="14"/>
     </row>
-    <row r="965" spans="1:14">
+    <row r="965" spans="1:14" hidden="1">
       <c r="A965" s="31"/>
       <c r="B965" s="31"/>
       <c r="C965" s="128"/>
@@ -47493,7 +47493,7 @@
       <c r="M965" s="13"/>
       <c r="N965" s="14"/>
     </row>
-    <row r="966" spans="1:14">
+    <row r="966" spans="1:14" hidden="1">
       <c r="A966" s="31"/>
       <c r="B966" s="31"/>
       <c r="C966" s="128"/>
@@ -47509,7 +47509,7 @@
       <c r="M966" s="13"/>
       <c r="N966" s="14"/>
     </row>
-    <row r="967" spans="1:14">
+    <row r="967" spans="1:14" hidden="1">
       <c r="A967" s="31"/>
       <c r="B967" s="31"/>
       <c r="C967" s="128"/>
@@ -47525,7 +47525,7 @@
       <c r="M967" s="13"/>
       <c r="N967" s="14"/>
     </row>
-    <row r="968" spans="1:14">
+    <row r="968" spans="1:14" hidden="1">
       <c r="A968" s="31"/>
       <c r="B968" s="31"/>
       <c r="C968" s="128"/>
@@ -47541,7 +47541,7 @@
       <c r="M968" s="13"/>
       <c r="N968" s="14"/>
     </row>
-    <row r="969" spans="1:14">
+    <row r="969" spans="1:14" hidden="1">
       <c r="A969" s="31"/>
       <c r="B969" s="31"/>
       <c r="C969" s="128"/>
@@ -47557,7 +47557,7 @@
       <c r="M969" s="13"/>
       <c r="N969" s="14"/>
     </row>
-    <row r="970" spans="1:14">
+    <row r="970" spans="1:14" hidden="1">
       <c r="A970" s="31"/>
       <c r="B970" s="31"/>
       <c r="C970" s="128"/>
@@ -47573,7 +47573,7 @@
       <c r="M970" s="13"/>
       <c r="N970" s="14"/>
     </row>
-    <row r="971" spans="1:14">
+    <row r="971" spans="1:14" hidden="1">
       <c r="A971" s="31"/>
       <c r="B971" s="31"/>
       <c r="C971" s="128"/>
@@ -47589,7 +47589,7 @@
       <c r="M971" s="13"/>
       <c r="N971" s="14"/>
     </row>
-    <row r="972" spans="1:14">
+    <row r="972" spans="1:14" hidden="1">
       <c r="A972" s="31"/>
       <c r="B972" s="31"/>
       <c r="C972" s="128"/>
@@ -47605,7 +47605,7 @@
       <c r="M972" s="13"/>
       <c r="N972" s="14"/>
     </row>
-    <row r="973" spans="1:14">
+    <row r="973" spans="1:14" hidden="1">
       <c r="A973" s="31"/>
       <c r="B973" s="31"/>
       <c r="C973" s="128"/>
@@ -47621,7 +47621,7 @@
       <c r="M973" s="13"/>
       <c r="N973" s="14"/>
     </row>
-    <row r="974" spans="1:14">
+    <row r="974" spans="1:14" hidden="1">
       <c r="A974" s="31"/>
       <c r="B974" s="31"/>
       <c r="C974" s="128"/>
@@ -47637,7 +47637,7 @@
       <c r="M974" s="13"/>
       <c r="N974" s="14"/>
     </row>
-    <row r="975" spans="1:14">
+    <row r="975" spans="1:14" hidden="1">
       <c r="A975" s="31"/>
       <c r="B975" s="31"/>
       <c r="C975" s="128"/>
@@ -47653,7 +47653,7 @@
       <c r="M975" s="13"/>
       <c r="N975" s="14"/>
     </row>
-    <row r="976" spans="1:14">
+    <row r="976" spans="1:14" hidden="1">
       <c r="A976" s="31"/>
       <c r="B976" s="31"/>
       <c r="C976" s="128"/>
@@ -47669,7 +47669,7 @@
       <c r="M976" s="13"/>
       <c r="N976" s="14"/>
     </row>
-    <row r="977" spans="1:14">
+    <row r="977" spans="1:14" hidden="1">
       <c r="A977" s="31"/>
       <c r="B977" s="31"/>
       <c r="C977" s="128"/>
@@ -47685,7 +47685,7 @@
       <c r="M977" s="13"/>
       <c r="N977" s="14"/>
     </row>
-    <row r="978" spans="1:14">
+    <row r="978" spans="1:14" hidden="1">
       <c r="A978" s="31"/>
       <c r="B978" s="31"/>
       <c r="C978" s="128"/>
@@ -47701,7 +47701,7 @@
       <c r="M978" s="13"/>
       <c r="N978" s="14"/>
     </row>
-    <row r="979" spans="1:14">
+    <row r="979" spans="1:14" hidden="1">
       <c r="A979" s="31"/>
       <c r="B979" s="31"/>
       <c r="C979" s="128"/>
@@ -47717,7 +47717,7 @@
       <c r="M979" s="13"/>
       <c r="N979" s="14"/>
     </row>
-    <row r="980" spans="1:14">
+    <row r="980" spans="1:14" hidden="1">
       <c r="A980" s="31"/>
       <c r="B980" s="31"/>
       <c r="C980" s="128"/>
@@ -47733,7 +47733,7 @@
       <c r="M980" s="13"/>
       <c r="N980" s="14"/>
     </row>
-    <row r="981" spans="1:14">
+    <row r="981" spans="1:14" hidden="1">
       <c r="A981" s="31"/>
       <c r="B981" s="31"/>
       <c r="C981" s="128"/>
@@ -47749,7 +47749,7 @@
       <c r="M981" s="13"/>
       <c r="N981" s="14"/>
     </row>
-    <row r="982" spans="1:14">
+    <row r="982" spans="1:14" hidden="1">
       <c r="A982" s="31"/>
       <c r="B982" s="31"/>
       <c r="C982" s="128"/>
@@ -47765,7 +47765,7 @@
       <c r="M982" s="13"/>
       <c r="N982" s="14"/>
     </row>
-    <row r="983" spans="1:14">
+    <row r="983" spans="1:14" hidden="1">
       <c r="A983" s="31"/>
       <c r="B983" s="31"/>
       <c r="C983" s="128"/>
@@ -47781,7 +47781,7 @@
       <c r="M983" s="13"/>
       <c r="N983" s="14"/>
     </row>
-    <row r="984" spans="1:14">
+    <row r="984" spans="1:14" hidden="1">
       <c r="A984" s="31"/>
       <c r="B984" s="31"/>
       <c r="C984" s="128"/>
@@ -47797,7 +47797,7 @@
       <c r="M984" s="13"/>
       <c r="N984" s="14"/>
     </row>
-    <row r="985" spans="1:14">
+    <row r="985" spans="1:14" hidden="1">
       <c r="A985" s="31"/>
       <c r="B985" s="31"/>
       <c r="C985" s="128"/>
@@ -47813,7 +47813,7 @@
       <c r="M985" s="13"/>
       <c r="N985" s="14"/>
     </row>
-    <row r="986" spans="1:14">
+    <row r="986" spans="1:14" hidden="1">
       <c r="A986" s="31"/>
       <c r="B986" s="31"/>
       <c r="C986" s="128"/>
@@ -47829,7 +47829,7 @@
       <c r="M986" s="13"/>
       <c r="N986" s="14"/>
     </row>
-    <row r="987" spans="1:14">
+    <row r="987" spans="1:14" hidden="1">
       <c r="A987" s="31"/>
       <c r="B987" s="31"/>
       <c r="C987" s="128"/>
@@ -47845,7 +47845,7 @@
       <c r="M987" s="13"/>
       <c r="N987" s="14"/>
     </row>
-    <row r="988" spans="1:14">
+    <row r="988" spans="1:14" hidden="1">
       <c r="A988" s="31"/>
       <c r="B988" s="31"/>
       <c r="C988" s="128"/>
@@ -47861,7 +47861,7 @@
       <c r="M988" s="13"/>
       <c r="N988" s="14"/>
     </row>
-    <row r="989" spans="1:14">
+    <row r="989" spans="1:14" hidden="1">
       <c r="A989" s="31"/>
       <c r="B989" s="31"/>
       <c r="C989" s="128"/>
@@ -47877,7 +47877,7 @@
       <c r="M989" s="13"/>
       <c r="N989" s="14"/>
     </row>
-    <row r="990" spans="1:14">
+    <row r="990" spans="1:14" hidden="1">
       <c r="A990" s="31"/>
       <c r="B990" s="31"/>
       <c r="C990" s="128"/>
@@ -47893,7 +47893,7 @@
       <c r="M990" s="13"/>
       <c r="N990" s="14"/>
     </row>
-    <row r="991" spans="1:14">
+    <row r="991" spans="1:14" hidden="1">
       <c r="A991" s="31"/>
       <c r="B991" s="31"/>
       <c r="C991" s="128"/>
@@ -47909,7 +47909,7 @@
       <c r="M991" s="13"/>
       <c r="N991" s="14"/>
     </row>
-    <row r="992" spans="1:14">
+    <row r="992" spans="1:14" hidden="1">
       <c r="A992" s="31"/>
       <c r="B992" s="31"/>
       <c r="C992" s="128"/>
@@ -47925,7 +47925,7 @@
       <c r="M992" s="13"/>
       <c r="N992" s="14"/>
     </row>
-    <row r="993" spans="1:14">
+    <row r="993" spans="1:14" hidden="1">
       <c r="A993" s="31"/>
       <c r="B993" s="31"/>
       <c r="C993" s="128"/>
@@ -47941,7 +47941,7 @@
       <c r="M993" s="13"/>
       <c r="N993" s="14"/>
     </row>
-    <row r="994" spans="1:14">
+    <row r="994" spans="1:14" hidden="1">
       <c r="A994" s="31"/>
       <c r="B994" s="31"/>
       <c r="C994" s="128"/>
@@ -47957,7 +47957,7 @@
       <c r="M994" s="13"/>
       <c r="N994" s="14"/>
     </row>
-    <row r="995" spans="1:14">
+    <row r="995" spans="1:14" hidden="1">
       <c r="A995" s="31"/>
       <c r="B995" s="31"/>
       <c r="C995" s="128"/>
@@ -47973,7 +47973,7 @@
       <c r="M995" s="13"/>
       <c r="N995" s="14"/>
     </row>
-    <row r="996" spans="1:14">
+    <row r="996" spans="1:14" hidden="1">
       <c r="A996" s="31"/>
       <c r="B996" s="31"/>
       <c r="C996" s="128"/>
@@ -47989,7 +47989,7 @@
       <c r="M996" s="13"/>
       <c r="N996" s="14"/>
     </row>
-    <row r="997" spans="1:14">
+    <row r="997" spans="1:14" hidden="1">
       <c r="A997" s="31"/>
       <c r="B997" s="31"/>
       <c r="C997" s="128"/>
@@ -48005,7 +48005,7 @@
       <c r="M997" s="13"/>
       <c r="N997" s="14"/>
     </row>
-    <row r="998" spans="1:14">
+    <row r="998" spans="1:14" hidden="1">
       <c r="A998" s="31"/>
       <c r="B998" s="31"/>
       <c r="C998" s="128"/>
@@ -48021,7 +48021,7 @@
       <c r="M998" s="13"/>
       <c r="N998" s="14"/>
     </row>
-    <row r="999" spans="1:14">
+    <row r="999" spans="1:14" hidden="1">
       <c r="A999" s="31"/>
       <c r="B999" s="31"/>
       <c r="C999" s="128"/>
@@ -48037,7 +48037,7 @@
       <c r="M999" s="13"/>
       <c r="N999" s="14"/>
     </row>
-    <row r="1000" spans="1:14">
+    <row r="1000" spans="1:14" hidden="1">
       <c r="A1000" s="31"/>
       <c r="B1000" s="31"/>
       <c r="C1000" s="128"/>
@@ -48054,7 +48054,16 @@
       <c r="N1000" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1000" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:N1000" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="SM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1:F1000">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(E1))&gt;0</formula>

--- a/documents/2.0.0/S-98 Comments June 2025.xlsx
+++ b/documents/2.0.0/S-98 Comments June 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kusal\98-interoperability\documents\2.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D698E775-9C58-4F18-8F5B-169210FBDDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568102FC-5B8D-4510-9268-92F13F757F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-66048" yWindow="1236" windowWidth="40296" windowHeight="20724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-102744" yWindow="744" windowWidth="33084" windowHeight="22392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Comments 11032025" sheetId="1" r:id="rId1"/>
@@ -9655,7 +9655,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="113.15">
+    <row r="60" spans="1:9" ht="102.9">
       <c r="A60" s="135"/>
       <c r="B60" s="140"/>
       <c r="C60" s="147" t="s">
@@ -21222,8 +21222,8 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="12.45"/>
@@ -21411,7 +21411,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="133.75">
+    <row r="5" spans="1:28" ht="133.75" hidden="1">
       <c r="A5" s="27"/>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -21752,7 +21752,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:28" ht="102.9">
+    <row r="14" spans="1:28" ht="102.9" hidden="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -21793,7 +21793,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="92.6">
+    <row r="15" spans="1:28" ht="92.6" hidden="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -21836,7 +21836,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="113.15">
+    <row r="16" spans="1:28" ht="102.9" hidden="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22384,7 +22384,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" ht="20.6" hidden="1">
+    <row r="30" spans="1:14" ht="20.6">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -22655,7 +22655,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="1:14" ht="185.15" hidden="1">
+    <row r="37" spans="1:14" ht="174.9" hidden="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23078,7 +23078,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="216">
+    <row r="48" spans="1:14" ht="216" hidden="1">
       <c r="A48" s="22"/>
       <c r="B48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23154,7 +23154,7 @@
       <c r="M49" s="13"/>
       <c r="N49" s="14"/>
     </row>
-    <row r="50" spans="1:14" ht="30.9">
+    <row r="50" spans="1:14" ht="30.9" hidden="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23593,7 +23593,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="30.9">
+    <row r="61" spans="1:14" ht="30.9" hidden="1">
       <c r="A61" s="27" t="s">
         <v>674</v>
       </c>
@@ -23714,7 +23714,7 @@
       <c r="M63" s="13"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="1:14" ht="41.15">
+    <row r="64" spans="1:14" ht="41.15" hidden="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23755,7 +23755,7 @@
       </c>
       <c r="N64" s="14"/>
     </row>
-    <row r="65" spans="1:14" ht="41.15">
+    <row r="65" spans="1:14" ht="41.15" hidden="1">
       <c r="A65" s="22"/>
       <c r="B65" s="4" t="str">
         <f t="shared" si="0"/>
@@ -23874,7 +23874,7 @@
       <c r="M67" s="13"/>
       <c r="N67" s="14"/>
     </row>
-    <row r="68" spans="1:14" ht="133.75">
+    <row r="68" spans="1:14" ht="133.75" hidden="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -23913,7 +23913,7 @@
       </c>
       <c r="N68" s="14"/>
     </row>
-    <row r="69" spans="1:14" ht="30.9">
+    <row r="69" spans="1:14" ht="30.9" hidden="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="str">
         <f t="shared" si="1"/>
@@ -23991,7 +23991,7 @@
       </c>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="1:14" ht="185.15">
+    <row r="71" spans="1:14" ht="185.15" hidden="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24073,7 +24073,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="32.15">
+    <row r="73" spans="1:14" ht="32.15" hidden="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24305,7 +24305,7 @@
       <c r="M78" s="13"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="1:14" ht="298.3">
+    <row r="79" spans="1:14" ht="298.3" hidden="1">
       <c r="A79" s="22"/>
       <c r="B79" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24422,7 +24422,7 @@
       <c r="M81" s="13"/>
       <c r="N81" s="14"/>
     </row>
-    <row r="82" spans="1:14" ht="318.89999999999998">
+    <row r="82" spans="1:14" ht="318.89999999999998" hidden="1">
       <c r="A82" s="22"/>
       <c r="B82" s="4" t="str">
         <f t="shared" si="1"/>
@@ -24765,7 +24765,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="14"/>
     </row>
-    <row r="91" spans="1:14" ht="20.6" hidden="1">
+    <row r="91" spans="1:14" ht="20.6">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25038,7 +25038,7 @@
       </c>
       <c r="N97" s="14"/>
     </row>
-    <row r="98" spans="1:14" ht="61.75">
+    <row r="98" spans="1:14" ht="61.75" hidden="1">
       <c r="A98" s="22"/>
       <c r="B98" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25153,7 +25153,7 @@
       </c>
       <c r="N100" s="14"/>
     </row>
-    <row r="101" spans="1:14" ht="41.15">
+    <row r="101" spans="1:14" ht="41.15" hidden="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25229,7 +25229,7 @@
       </c>
       <c r="N102" s="14"/>
     </row>
-    <row r="103" spans="1:14" ht="51.45">
+    <row r="103" spans="1:14" ht="51.45" hidden="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25599,7 +25599,7 @@
       <c r="M112" s="13"/>
       <c r="N112" s="14"/>
     </row>
-    <row r="113" spans="1:14" ht="61.75">
+    <row r="113" spans="1:14" ht="61.75" hidden="1">
       <c r="A113" s="22"/>
       <c r="B113" s="4" t="str">
         <f t="shared" si="1"/>
@@ -25858,7 +25858,7 @@
       <c r="M119" s="13"/>
       <c r="N119" s="14"/>
     </row>
-    <row r="120" spans="1:14" ht="37.299999999999997">
+    <row r="120" spans="1:14" ht="37.299999999999997" hidden="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26088,7 +26088,7 @@
       <c r="M125" s="13"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="1:14" ht="82.3">
+    <row r="126" spans="1:14" ht="82.3" hidden="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26129,7 +26129,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="41.15">
+    <row r="127" spans="1:14" ht="41.15" hidden="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26207,7 +26207,7 @@
       <c r="M128" s="13"/>
       <c r="N128" s="14"/>
     </row>
-    <row r="129" spans="1:14" ht="30.9">
+    <row r="129" spans="1:14" ht="30.9" hidden="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26289,7 +26289,7 @@
       </c>
       <c r="N130" s="14"/>
     </row>
-    <row r="131" spans="1:14" ht="51.45" hidden="1">
+    <row r="131" spans="1:14" ht="51.45">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="str">
         <f t="shared" ref="B131:B194" si="2">IF(ISNUMBER(SEARCH("DONE",K131)),"DONE","")</f>
@@ -26328,7 +26328,7 @@
       <c r="M131" s="13"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="1:14" ht="51.45" hidden="1">
+    <row r="132" spans="1:14" ht="51.45">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26367,7 +26367,7 @@
       <c r="M132" s="13"/>
       <c r="N132" s="14"/>
     </row>
-    <row r="133" spans="1:14" ht="30.9" hidden="1">
+    <row r="133" spans="1:14" ht="30.9">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26408,7 +26408,7 @@
       </c>
       <c r="N133" s="14"/>
     </row>
-    <row r="134" spans="1:14" ht="20.6" hidden="1">
+    <row r="134" spans="1:14" ht="20.6">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26521,7 +26521,7 @@
       <c r="M136" s="13"/>
       <c r="N136" s="14"/>
     </row>
-    <row r="137" spans="1:14" hidden="1">
+    <row r="137" spans="1:14">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26817,7 +26817,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="41.15">
+    <row r="145" spans="1:14" ht="41.15" hidden="1">
       <c r="A145" s="22"/>
       <c r="B145" s="4" t="str">
         <f t="shared" si="2"/>
@@ -26899,7 +26899,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="41.15" hidden="1">
+    <row r="147" spans="1:14" ht="41.15">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27057,7 +27057,7 @@
       </c>
       <c r="N150" s="14"/>
     </row>
-    <row r="151" spans="1:14" ht="51.45">
+    <row r="151" spans="1:14" ht="51.45" hidden="1">
       <c r="A151" s="22"/>
       <c r="B151" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27427,7 +27427,7 @@
       <c r="M160" s="13"/>
       <c r="N160" s="14"/>
     </row>
-    <row r="161" spans="1:14" ht="20.6" hidden="1">
+    <row r="161" spans="1:14" ht="20.6">
       <c r="A161" s="4"/>
       <c r="B161" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27505,7 +27505,7 @@
       <c r="M162" s="13"/>
       <c r="N162" s="14"/>
     </row>
-    <row r="163" spans="1:14" ht="41.15" hidden="1">
+    <row r="163" spans="1:14" ht="41.15">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27548,7 +27548,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1">
+    <row r="164" spans="1:14">
       <c r="A164" s="4"/>
       <c r="B164" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27667,7 +27667,7 @@
       <c r="M166" s="13"/>
       <c r="N166" s="14"/>
     </row>
-    <row r="167" spans="1:14" ht="20.6">
+    <row r="167" spans="1:14" ht="20.6" hidden="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4" t="str">
         <f t="shared" si="2"/>
@@ -27885,7 +27885,7 @@
       <c r="M172" s="13"/>
       <c r="N172" s="14"/>
     </row>
-    <row r="173" spans="1:14" ht="51.45">
+    <row r="173" spans="1:14" ht="51.45" hidden="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28107,7 +28107,7 @@
       <c r="M178" s="13"/>
       <c r="N178" s="14"/>
     </row>
-    <row r="179" spans="1:14" ht="30.9">
+    <row r="179" spans="1:14" ht="30.9" hidden="1">
       <c r="A179" s="22"/>
       <c r="B179" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28181,7 +28181,7 @@
       <c r="M180" s="13"/>
       <c r="N180" s="14"/>
     </row>
-    <row r="181" spans="1:14" ht="72" hidden="1">
+    <row r="181" spans="1:14" ht="72">
       <c r="A181" s="4"/>
       <c r="B181" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28329,7 +28329,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="51.45" hidden="1">
+    <row r="185" spans="1:14" ht="51.45">
       <c r="A185" s="4"/>
       <c r="B185" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28588,7 +28588,7 @@
       <c r="M191" s="13"/>
       <c r="N191" s="14"/>
     </row>
-    <row r="192" spans="1:14" ht="144">
+    <row r="192" spans="1:14" ht="144" hidden="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28627,7 +28627,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" hidden="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4" t="str">
         <f t="shared" si="2"/>
@@ -28701,7 +28701,7 @@
       <c r="M194" s="13"/>
       <c r="N194" s="14"/>
     </row>
-    <row r="195" spans="1:14" ht="20.6">
+    <row r="195" spans="1:14" ht="20.6" hidden="1">
       <c r="A195" s="22"/>
       <c r="B195" s="4" t="str">
         <f t="shared" ref="B195:B258" si="3">IF(ISNUMBER(SEARCH("DONE",K195)),"DONE","")</f>
@@ -28738,7 +28738,7 @@
       </c>
       <c r="N195" s="14"/>
     </row>
-    <row r="196" spans="1:14" ht="30.9">
+    <row r="196" spans="1:14" ht="30.9" hidden="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4" t="str">
         <f t="shared" si="3"/>
@@ -28845,7 +28845,7 @@
       <c r="M198" s="13"/>
       <c r="N198" s="14"/>
     </row>
-    <row r="199" spans="1:14" ht="41.15">
+    <row r="199" spans="1:14" ht="41.15" hidden="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4" t="str">
         <f t="shared" si="3"/>
@@ -28882,7 +28882,7 @@
       <c r="M199" s="13"/>
       <c r="N199" s="14"/>
     </row>
-    <row r="200" spans="1:14" ht="30.9" hidden="1">
+    <row r="200" spans="1:14" ht="30.9">
       <c r="A200" s="4"/>
       <c r="B200" s="4" t="str">
         <f t="shared" si="3"/>
@@ -28995,7 +28995,7 @@
       <c r="M202" s="13"/>
       <c r="N202" s="14"/>
     </row>
-    <row r="203" spans="1:14" ht="20.6">
+    <row r="203" spans="1:14" ht="20.6" hidden="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29032,7 +29032,7 @@
       <c r="M203" s="13"/>
       <c r="N203" s="14"/>
     </row>
-    <row r="204" spans="1:14" ht="21.45">
+    <row r="204" spans="1:14" ht="21.45" hidden="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29149,7 +29149,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="41.15">
+    <row r="207" spans="1:14" ht="41.15" hidden="1">
       <c r="A207" s="27"/>
       <c r="B207" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29379,7 +29379,7 @@
       <c r="M212" s="13"/>
       <c r="N212" s="14"/>
     </row>
-    <row r="213" spans="1:14" ht="21.45" hidden="1">
+    <row r="213" spans="1:14" ht="21.45">
       <c r="A213" s="4"/>
       <c r="B213" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29422,7 +29422,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="41.15">
+    <row r="214" spans="1:14" ht="41.15" hidden="1">
       <c r="A214" s="4"/>
       <c r="B214" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29461,7 +29461,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="30.9">
+    <row r="215" spans="1:14" ht="30.9" hidden="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29695,7 +29695,7 @@
       </c>
       <c r="N220" s="14"/>
     </row>
-    <row r="221" spans="1:14" ht="21.45" hidden="1">
+    <row r="221" spans="1:14" ht="21.45">
       <c r="A221" s="4"/>
       <c r="B221" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29736,7 +29736,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="154.30000000000001">
+    <row r="222" spans="1:14" ht="154.30000000000001" hidden="1">
       <c r="A222" s="4"/>
       <c r="B222" s="4" t="str">
         <f t="shared" si="3"/>
@@ -29777,7 +29777,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="51.45" hidden="1">
+    <row r="223" spans="1:14" ht="51.45">
       <c r="A223" s="4"/>
       <c r="B223" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30015,7 +30015,7 @@
       <c r="M228" s="13"/>
       <c r="N228" s="14"/>
     </row>
-    <row r="229" spans="1:14" ht="41.15">
+    <row r="229" spans="1:14" ht="41.15" hidden="1">
       <c r="A229" s="4"/>
       <c r="B229" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30054,7 +30054,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="113.15">
+    <row r="230" spans="1:14" ht="113.15" hidden="1">
       <c r="A230" s="4"/>
       <c r="B230" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30173,7 +30173,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="20.6" hidden="1">
+    <row r="233" spans="1:14" ht="20.6">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="str">
         <f t="shared" si="3"/>
@@ -30586,7 +30586,7 @@
       <c r="M243" s="13"/>
       <c r="N243" s="14"/>
     </row>
-    <row r="244" spans="1:14" ht="30.9">
+    <row r="244" spans="1:14" ht="30.9" hidden="1">
       <c r="A244" s="27"/>
       <c r="B244" s="4" t="str">
         <f t="shared" si="3"/>
@@ -31456,7 +31456,7 @@
       </c>
       <c r="N265" s="14"/>
     </row>
-    <row r="266" spans="1:14" hidden="1">
+    <row r="266" spans="1:14">
       <c r="A266" s="4"/>
       <c r="B266" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31657,7 +31657,7 @@
       </c>
       <c r="N270" s="14"/>
     </row>
-    <row r="271" spans="1:14" ht="164.6">
+    <row r="271" spans="1:14" ht="164.6" hidden="1">
       <c r="A271" s="4"/>
       <c r="B271" s="4" t="str">
         <f t="shared" si="4"/>
@@ -31928,7 +31928,7 @@
       </c>
       <c r="N277" s="14"/>
     </row>
-    <row r="278" spans="1:14" ht="92.6">
+    <row r="278" spans="1:14" ht="92.6" hidden="1">
       <c r="A278" s="4"/>
       <c r="B278" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32201,7 +32201,7 @@
       <c r="M284" s="13"/>
       <c r="N284" s="14"/>
     </row>
-    <row r="285" spans="1:14" ht="174.9">
+    <row r="285" spans="1:14" ht="174.9" hidden="1">
       <c r="A285" s="22"/>
       <c r="B285" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32536,7 +32536,7 @@
       <c r="M293" s="13"/>
       <c r="N293" s="14"/>
     </row>
-    <row r="294" spans="1:14" ht="123.45">
+    <row r="294" spans="1:14" ht="123.45" hidden="1">
       <c r="A294" s="22"/>
       <c r="B294" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32577,7 +32577,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="30.9">
+    <row r="295" spans="1:14" ht="30.9" hidden="1">
       <c r="A295" s="22"/>
       <c r="B295" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32768,7 +32768,7 @@
       </c>
       <c r="N299" s="14"/>
     </row>
-    <row r="300" spans="1:14" ht="30.9" hidden="1">
+    <row r="300" spans="1:14" ht="30.9">
       <c r="A300" s="4"/>
       <c r="B300" s="4" t="str">
         <f t="shared" si="4"/>
@@ -32992,7 +32992,7 @@
       <c r="M305" s="13"/>
       <c r="N305" s="14"/>
     </row>
-    <row r="306" spans="1:14" ht="14.15">
+    <row r="306" spans="1:14" ht="14.15" hidden="1">
       <c r="A306" s="22"/>
       <c r="B306" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33066,7 +33066,7 @@
       <c r="M307" s="13"/>
       <c r="N307" s="14"/>
     </row>
-    <row r="308" spans="1:14" hidden="1">
+    <row r="308" spans="1:14">
       <c r="A308" s="4"/>
       <c r="B308" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33255,7 +33255,7 @@
       <c r="M312" s="13"/>
       <c r="N312" s="14"/>
     </row>
-    <row r="313" spans="1:14" ht="20.6" hidden="1">
+    <row r="313" spans="1:14" ht="20.6">
       <c r="A313" s="75"/>
       <c r="B313" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33296,7 +33296,7 @@
       </c>
       <c r="N313" s="14"/>
     </row>
-    <row r="314" spans="1:14" ht="92.6" hidden="1">
+    <row r="314" spans="1:14" ht="92.6">
       <c r="A314" s="4"/>
       <c r="B314" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33337,7 +33337,7 @@
       </c>
       <c r="N314" s="14"/>
     </row>
-    <row r="315" spans="1:14" hidden="1">
+    <row r="315" spans="1:14">
       <c r="A315" s="4"/>
       <c r="B315" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33374,7 +33374,7 @@
       <c r="M315" s="13"/>
       <c r="N315" s="14"/>
     </row>
-    <row r="316" spans="1:14" hidden="1">
+    <row r="316" spans="1:14">
       <c r="A316" s="4"/>
       <c r="B316" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33411,7 +33411,7 @@
       <c r="M316" s="13"/>
       <c r="N316" s="14"/>
     </row>
-    <row r="317" spans="1:14" ht="41.15" hidden="1">
+    <row r="317" spans="1:14" ht="41.15">
       <c r="A317" s="4"/>
       <c r="B317" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33446,7 +33446,7 @@
       <c r="M317" s="13"/>
       <c r="N317" s="14"/>
     </row>
-    <row r="318" spans="1:14" ht="20.6" hidden="1">
+    <row r="318" spans="1:14" ht="20.6">
       <c r="A318" s="4"/>
       <c r="B318" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33596,7 +33596,7 @@
       <c r="M321" s="13"/>
       <c r="N321" s="14"/>
     </row>
-    <row r="322" spans="1:14" ht="61.75">
+    <row r="322" spans="1:14" ht="61.75" hidden="1">
       <c r="A322" s="4"/>
       <c r="B322" s="4" t="str">
         <f t="shared" si="4"/>
@@ -33711,7 +33711,7 @@
       <c r="M324" s="13"/>
       <c r="N324" s="14"/>
     </row>
-    <row r="325" spans="1:14" ht="20.6">
+    <row r="325" spans="1:14" ht="20.6" hidden="1">
       <c r="A325" s="4"/>
       <c r="B325" s="4" t="str">
         <f t="shared" si="5"/>
@@ -33750,7 +33750,7 @@
       </c>
       <c r="N325" s="14"/>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" hidden="1">
       <c r="A326" s="4"/>
       <c r="B326" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35268,7 +35268,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="82.3">
+    <row r="366" spans="1:14" ht="82.3" hidden="1">
       <c r="A366" s="22"/>
       <c r="B366" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35309,7 +35309,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="30.9">
+    <row r="367" spans="1:14" ht="30.9" hidden="1">
       <c r="A367" s="22"/>
       <c r="B367" s="4" t="str">
         <f t="shared" si="5"/>
@@ -35982,7 +35982,7 @@
       </c>
       <c r="N383" s="14"/>
     </row>
-    <row r="384" spans="1:28" ht="30.9" hidden="1">
+    <row r="384" spans="1:28" ht="30.9">
       <c r="A384" s="4"/>
       <c r="B384" s="4" t="str">
         <f t="shared" si="5"/>
@@ -36278,7 +36278,7 @@
       <c r="M391" s="13"/>
       <c r="N391" s="14"/>
     </row>
-    <row r="392" spans="1:14" ht="92.6">
+    <row r="392" spans="1:14" ht="92.6" hidden="1">
       <c r="A392" s="4"/>
       <c r="B392" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36317,7 +36317,7 @@
       </c>
       <c r="N392" s="14"/>
     </row>
-    <row r="393" spans="1:14" ht="41.15" hidden="1">
+    <row r="393" spans="1:14" ht="41.15">
       <c r="A393" s="4"/>
       <c r="B393" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36537,7 +36537,7 @@
       <c r="M398" s="13"/>
       <c r="N398" s="14"/>
     </row>
-    <row r="399" spans="1:14" ht="82.3">
+    <row r="399" spans="1:14" ht="82.3" hidden="1">
       <c r="A399" s="4"/>
       <c r="B399" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36574,7 +36574,7 @@
       </c>
       <c r="N399" s="14"/>
     </row>
-    <row r="400" spans="1:14" ht="51.45" hidden="1">
+    <row r="400" spans="1:14" ht="51.45">
       <c r="A400" s="4"/>
       <c r="B400" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36796,7 +36796,7 @@
       <c r="M405" s="13"/>
       <c r="N405" s="14"/>
     </row>
-    <row r="406" spans="1:14" ht="30.9">
+    <row r="406" spans="1:14" ht="30.9" hidden="1">
       <c r="A406" s="4"/>
       <c r="B406" s="4" t="str">
         <f t="shared" si="6"/>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="N406" s="14"/>
     </row>
-    <row r="407" spans="1:14" ht="41.15" hidden="1">
+    <row r="407" spans="1:14" ht="41.15">
       <c r="A407" s="4"/>
       <c r="B407" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37423,7 +37423,7 @@
       </c>
       <c r="N422" s="14"/>
     </row>
-    <row r="423" spans="1:14" ht="61.75">
+    <row r="423" spans="1:14" ht="61.75" hidden="1">
       <c r="A423" s="4"/>
       <c r="B423" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37462,7 +37462,7 @@
       </c>
       <c r="N423" s="14"/>
     </row>
-    <row r="424" spans="1:14" ht="72">
+    <row r="424" spans="1:14" ht="72" hidden="1">
       <c r="A424" s="4"/>
       <c r="B424" s="4" t="str">
         <f t="shared" si="6"/>
@@ -37501,7 +37501,7 @@
       </c>
       <c r="N424" s="14"/>
     </row>
-    <row r="425" spans="1:14" ht="61.75">
+    <row r="425" spans="1:14" ht="61.75" hidden="1">
       <c r="A425" s="4"/>
       <c r="B425" s="4" t="str">
         <f t="shared" si="6"/>
@@ -48060,7 +48060,37 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="SM"/>
+        <filter val="DE 11"/>
+        <filter val="DE 12"/>
+        <filter val="DE 13"/>
+        <filter val="DE 16"/>
+        <filter val="DE 20"/>
+        <filter val="DE 24"/>
+        <filter val="DE 37"/>
+        <filter val="DE 38"/>
+        <filter val="DE 39"/>
+        <filter val="DE 40"/>
+        <filter val="DE 41"/>
+        <filter val="DE 42"/>
+        <filter val="DE 47"/>
+        <filter val="DE 48"/>
+        <filter val="DE 51"/>
+        <filter val="DE 52"/>
+        <filter val="DE 54"/>
+        <filter val="DE 58"/>
+        <filter val="DE 59"/>
+        <filter val="DE 60"/>
+        <filter val="DE 61"/>
+        <filter val="DE 62"/>
+        <filter val="DE 63"/>
+        <filter val="DE 67"/>
+        <filter val="DE 68"/>
+        <filter val="DE 69"/>
+        <filter val="DE 70"/>
+        <filter val="DE3"/>
+        <filter val="DE5"/>
+        <filter val="DE6"/>
+        <filter val="DE9"/>
       </filters>
     </filterColumn>
   </autoFilter>
